--- a/track.xlsx
+++ b/track.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="3516"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="track" sheetId="2" r:id="rId1"/>
+    <sheet name="previous" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,196 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>sccmadmin</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>3 mousquetaires</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>journaling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>méditation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>early morning / miracle morning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cold shower</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stretch hands (presti)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>étirements</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>- pompes
+- squats
+- abdos</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">émancipation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>gif nosound lowq</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>!fp</t>
   </si>
@@ -84,13 +273,73 @@
   </si>
   <si>
     <t>doliprane</t>
+  </si>
+  <si>
+    <t>médit°</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>prière</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>pn</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>ej</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>3MIT</t>
+  </si>
+  <si>
+    <t>émancip°</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>dimanche</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +347,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,15 +405,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6969"/>
+      <color rgb="FFFF5757"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,158 +698,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="14" width="5.21875" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.21875" customWidth="1"/>
+    <col min="22" max="22" width="5.88671875" customWidth="1"/>
+    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" customWidth="1"/>
+    <col min="27" max="27" width="6.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44198</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44202</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44203</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44204</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44205</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44206</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44207</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44214</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44216</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44221</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44224</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44229</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44231</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44232</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44237</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
+        <v>44229</v>
+      </c>
+      <c r="C1" s="1">
+        <v>44228</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44226</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44225</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44224</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44223</v>
+      </c>
+      <c r="I1" s="1">
         <v>44222</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J1" s="1">
         <v>44221</v>
       </c>
-      <c r="D1" s="1">
+      <c r="K1" s="1">
         <v>44220</v>
       </c>
-      <c r="E1" s="1">
+      <c r="L1" s="1">
         <v>44219</v>
       </c>
-      <c r="F1" s="1">
+      <c r="M1" s="1">
         <v>44218</v>
       </c>
-      <c r="G1" s="1">
+      <c r="N1" s="1">
         <v>44217</v>
       </c>
-      <c r="H1" s="1">
+      <c r="O1" s="1">
         <v>44216</v>
       </c>
-      <c r="I1" s="1">
+      <c r="P1" s="1">
         <v>44215</v>
       </c>
-      <c r="J1" s="1">
+      <c r="Q1" s="1">
         <v>44214</v>
       </c>
-      <c r="K1" s="1">
+      <c r="R1" s="1">
         <v>44213</v>
       </c>
-      <c r="L1" s="1">
+      <c r="S1" s="1">
         <v>44212</v>
       </c>
-      <c r="M1" s="1">
+      <c r="T1" s="1">
         <v>44211</v>
       </c>
-      <c r="N1" s="1">
+      <c r="U1" s="1">
         <v>44210</v>
       </c>
-      <c r="O1" s="1">
+      <c r="V1" s="1">
         <v>44209</v>
       </c>
-      <c r="P1" s="1">
+      <c r="W1" s="1">
         <v>44208</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="X1" s="1">
         <v>44207</v>
       </c>
-      <c r="R1" s="1">
+      <c r="Y1" s="1">
         <v>44206</v>
       </c>
-      <c r="S1" s="1">
+      <c r="Z1" s="1">
         <v>44205</v>
       </c>
-      <c r="T1" s="1">
+      <c r="AA1" s="1">
         <v>44204</v>
       </c>
-      <c r="U1" s="1">
+      <c r="AB1" s="1">
         <v>44203</v>
       </c>
-      <c r="V1" s="1">
+      <c r="AC1" s="1">
         <v>44202</v>
       </c>
-      <c r="W1" s="1">
+      <c r="AD1" s="1">
         <v>44201</v>
       </c>
-      <c r="X1" s="1">
+      <c r="AE1" s="1">
         <v>44200</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="AF1" s="1">
         <v>44199</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AG1" s="1">
         <v>44198</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AH1" s="1">
         <v>44197</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AI1" s="1">
         <v>44561</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AJ1" s="1">
         <v>44560</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AK1" s="1">
         <v>44559</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AL1" s="1">
         <v>44558</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AM1" s="1">
         <v>44557</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AN1" s="1">
         <v>44556</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AO1" s="1">
         <v>44555</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AP1" s="1">
         <v>44188</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AQ1" s="1">
         <v>44187</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AR1" s="1">
         <v>44186</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AS1" s="1">
         <v>44185</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AT1" s="1">
         <v>44184</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AU1" s="1">
         <v>44183</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
@@ -566,18 +1409,21 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -593,32 +1439,18 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
@@ -649,32 +1481,32 @@
       <c r="AN5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
@@ -705,32 +1537,32 @@
       <c r="AN6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0</v>
       </c>
@@ -761,32 +1593,32 @@
       <c r="AN7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
@@ -817,32 +1649,32 @@
       <c r="AN8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
@@ -873,32 +1705,32 @@
       <c r="AN9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
         <v>0</v>
       </c>
@@ -929,32 +1761,32 @@
       <c r="AN11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
       <c r="AE12">
         <v>0</v>
       </c>
@@ -985,32 +1817,32 @@
       <c r="AN12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
       <c r="AE13">
         <v>0</v>
       </c>
@@ -1041,22 +1873,34 @@
       <c r="AN13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <v>1</v>
@@ -1064,61 +1908,55 @@
       <c r="AH15">
         <v>1</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
-      </c>
       <c r="AM15">
         <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
       <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <v>1</v>
@@ -1133,10 +1971,10 @@
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -1171,49 +2009,55 @@
       <c r="AN16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -1231,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>1</v>
@@ -1246,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="AJ17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17">
         <v>1</v>
@@ -1260,49 +2104,55 @@
       <c r="AN17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -1323,38 +2173,60 @@
         <v>1</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/track.xlsx
+++ b/track.xlsx
@@ -30,7 +30,7 @@
     <author>sccmadmin</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,12 +208,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="E49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">disappointing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>not much</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>disappointment</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>!fp</t>
   </si>
@@ -333,6 +384,18 @@
   </si>
   <si>
     <t>dimanche</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>zolmitriptan</t>
+  </si>
+  <si>
+    <t>16h30</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -699,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,28 +778,28 @@
     <col min="5" max="5" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" customWidth="1"/>
-    <col min="13" max="14" width="5.21875" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" customWidth="1"/>
-    <col min="21" max="21" width="3.21875" customWidth="1"/>
-    <col min="22" max="22" width="5.88671875" customWidth="1"/>
-    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="7.109375" customWidth="1"/>
-    <col min="26" max="26" width="7.33203125" customWidth="1"/>
-    <col min="27" max="27" width="6.77734375" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" customWidth="1"/>
+    <col min="14" max="15" width="5.21875" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="3.21875" customWidth="1"/>
+    <col min="23" max="23" width="5.88671875" customWidth="1"/>
+    <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" customWidth="1"/>
+    <col min="26" max="26" width="7.109375" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
+    <col min="28" max="28" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
@@ -752,53 +815,56 @@
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -806,7 +872,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -820,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -831,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -842,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -850,7 +916,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -867,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -878,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -892,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -906,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -917,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -931,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -939,7 +1005,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -947,7 +1013,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -955,7 +1021,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1112,7 +1178,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1148,18 +1214,18 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>44231</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1170,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1178,7 +1244,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1252,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1260,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -1202,7 +1268,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -1217,6 +1283,415 @@
       </c>
       <c r="E42">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44240</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44242</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44243</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44244</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44245</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44246</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44247</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44251</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44252</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44257</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44258</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44261</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44262</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44263</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44264</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44265</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44266</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44272</v>
       </c>
     </row>
   </sheetData>

--- a/track.xlsx
+++ b/track.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
-    <sheet name="previous" sheetId="1" r:id="rId2"/>
+    <sheet name="DSM" sheetId="3" r:id="rId2"/>
+    <sheet name="previous" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
   <si>
     <t>!fp</t>
   </si>
@@ -396,6 +397,15 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>hier</t>
+  </si>
+  <si>
+    <t>aujourd'hui</t>
+  </si>
+  <si>
+    <t>18h</t>
   </si>
 </sst>
 </file>
@@ -762,11 +772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1555,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1553,7 +1563,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -1646,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>37</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -1662,7 +1672,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -1678,29 +1688,672 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="2">
         <v>44271</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>35</v>
       </c>
       <c r="B77" s="2">
         <v>44272</v>
       </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44273</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44279</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44281</v>
+      </c>
+      <c r="C86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44286</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44292</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44294</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>37</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44295</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44296</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="2">
+        <v>44298</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" s="2">
+        <v>44299</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="2">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="2">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="2">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44305</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44283</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44290</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>

--- a/track.xlsx
+++ b/track.xlsx
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="47">
   <si>
     <t>!fp</t>
   </si>
@@ -772,18 +772,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D105" sqref="D105"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.88671875" customWidth="1"/>
@@ -2023,6 +2023,12 @@
       <c r="B105" s="2">
         <v>44300</v>
       </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -2039,6 +2045,15 @@
       <c r="B107" s="2">
         <v>44302</v>
       </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -2062,6 +2077,103 @@
       </c>
       <c r="B110" s="2">
         <v>44305</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44306</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44309</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44312</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44313</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1061,8 +1061,8 @@
   <dimension ref="A1:AG1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F190" sqref="F190:F197"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3995,6 +3995,12 @@
       <c r="D201" s="2">
         <v>44396</v>
       </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -4037,6 +4043,12 @@
       <c r="D204" s="2">
         <v>44399</v>
       </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
@@ -4065,6 +4077,9 @@
       <c r="D206" s="2">
         <v>44401</v>
       </c>
+      <c r="E206" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -4079,6 +4094,12 @@
       <c r="D207" s="2">
         <v>44402</v>
       </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
@@ -4093,8 +4114,11 @@
       <c r="D208" s="2">
         <v>44403</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>915</v>
       </c>
@@ -4107,8 +4131,20 @@
       <c r="D209" s="2">
         <v>44404</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E209" s="9">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>914</v>
       </c>
@@ -4121,8 +4157,14 @@
       <c r="D210" s="2">
         <v>44405</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>913</v>
       </c>
@@ -4136,7 +4178,7 @@
         <v>44406</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>912</v>
       </c>
@@ -4149,8 +4191,17 @@
       <c r="D212" s="2">
         <v>44407</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="9">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>911</v>
       </c>
@@ -4164,7 +4215,7 @@
         <v>44408</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>910</v>
       </c>
@@ -4178,7 +4229,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>909</v>
       </c>
@@ -4192,7 +4243,7 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>908</v>
       </c>
@@ -4206,7 +4257,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>907</v>
       </c>
@@ -4220,7 +4271,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>906</v>
       </c>
@@ -4234,7 +4285,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>905</v>
       </c>
@@ -4248,7 +4299,7 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>904</v>
       </c>
@@ -4262,7 +4313,7 @@
         <v>44415</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>903</v>
       </c>
@@ -4276,7 +4327,7 @@
         <v>44416</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>902</v>
       </c>
@@ -4290,7 +4341,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>901</v>
       </c>
@@ -4304,7 +4355,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>900</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -458,12 +458,98 @@
         </r>
       </text>
     </comment>
+    <comment ref="F232" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>9gag verysoft archive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H238" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>(avec Ju)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I238" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>soir, an</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I240" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>matin</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="76">
   <si>
     <t>!fp</t>
   </si>
@@ -682,6 +768,15 @@
   </si>
   <si>
     <t>je ne sais pas quelle structure de société mettre en place</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1156,8 @@
   <dimension ref="A1:AG1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G210" sqref="G210"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4242,6 +4337,15 @@
       <c r="D215" s="2">
         <v>44410</v>
       </c>
+      <c r="F215" s="9">
+        <v>1</v>
+      </c>
+      <c r="G215" s="9">
+        <v>1</v>
+      </c>
+      <c r="H215" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
@@ -4256,6 +4360,18 @@
       <c r="D216" s="2">
         <v>44411</v>
       </c>
+      <c r="E216" s="9">
+        <v>1</v>
+      </c>
+      <c r="F216" s="9">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
@@ -4270,6 +4386,21 @@
       <c r="D217" s="2">
         <v>44412</v>
       </c>
+      <c r="E217" s="9">
+        <v>1</v>
+      </c>
+      <c r="F217" s="9">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
@@ -4298,6 +4429,12 @@
       <c r="D219" s="2">
         <v>44414</v>
       </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
@@ -4326,6 +4463,15 @@
       <c r="D221" s="2">
         <v>44416</v>
       </c>
+      <c r="F221" s="9">
+        <v>2</v>
+      </c>
+      <c r="G221" s="9">
+        <v>2</v>
+      </c>
+      <c r="H221" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
@@ -4340,6 +4486,12 @@
       <c r="D222" s="2">
         <v>44417</v>
       </c>
+      <c r="H222" s="9">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
@@ -4368,8 +4520,17 @@
       <c r="D224" s="2">
         <v>44419</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F224" s="9">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>899</v>
       </c>
@@ -4382,8 +4543,14 @@
       <c r="D225" s="2">
         <v>44420</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E225" s="9">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>898</v>
       </c>
@@ -4397,7 +4564,7 @@
         <v>44421</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>897</v>
       </c>
@@ -4410,8 +4577,17 @@
       <c r="D227" s="2">
         <v>44422</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F227" s="9">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>896</v>
       </c>
@@ -4425,7 +4601,7 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>895</v>
       </c>
@@ -4439,7 +4615,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>894</v>
       </c>
@@ -4452,8 +4628,14 @@
       <c r="D230" s="2">
         <v>44425</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>893</v>
       </c>
@@ -4466,8 +4648,11 @@
       <c r="D231" s="2">
         <v>44426</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E231" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>892</v>
       </c>
@@ -4480,8 +4665,20 @@
       <c r="D232" s="2">
         <v>44427</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E232" s="9">
+        <v>1</v>
+      </c>
+      <c r="F232" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>891</v>
       </c>
@@ -4494,8 +4691,11 @@
       <c r="D233" s="2">
         <v>44428</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>890</v>
       </c>
@@ -4508,8 +4708,20 @@
       <c r="D234" s="2">
         <v>44429</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F234" s="9">
+        <v>2</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>889</v>
       </c>
@@ -4523,7 +4735,7 @@
         <v>44430</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>888</v>
       </c>
@@ -4536,8 +4748,17 @@
       <c r="D236" s="2">
         <v>44431</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F236" s="9">
+        <v>4</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>887</v>
       </c>
@@ -4550,8 +4771,17 @@
       <c r="D237" s="2">
         <v>44432</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F237" t="s">
+        <v>73</v>
+      </c>
+      <c r="G237" t="s">
+        <v>73</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>886</v>
       </c>
@@ -4564,8 +4794,20 @@
       <c r="D238" s="2">
         <v>44433</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F238" s="9">
+        <v>2</v>
+      </c>
+      <c r="G238" s="9">
+        <v>1</v>
+      </c>
+      <c r="H238" s="9">
+        <v>1</v>
+      </c>
+      <c r="I238" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>885</v>
       </c>
@@ -4578,8 +4820,17 @@
       <c r="D239" s="2">
         <v>44434</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F239" s="9">
+        <v>3</v>
+      </c>
+      <c r="G239" s="9">
+        <v>2</v>
+      </c>
+      <c r="H239" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>884</v>
       </c>
@@ -4592,8 +4843,20 @@
       <c r="D240" s="2">
         <v>44435</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F240" s="9">
+        <v>3</v>
+      </c>
+      <c r="G240" s="9">
+        <v>3</v>
+      </c>
+      <c r="H240" s="9">
+        <v>4</v>
+      </c>
+      <c r="I240" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>883</v>
       </c>
@@ -4606,8 +4869,14 @@
       <c r="D241" s="2">
         <v>44436</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F241" s="9">
+        <v>1</v>
+      </c>
+      <c r="G241" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>882</v>
       </c>
@@ -4621,7 +4890,7 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>881</v>
       </c>
@@ -4634,8 +4903,17 @@
       <c r="D243" s="2">
         <v>44438</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F243" s="9">
+        <v>4</v>
+      </c>
+      <c r="G243" s="9">
+        <v>4</v>
+      </c>
+      <c r="H243" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>880</v>
       </c>
@@ -4648,8 +4926,17 @@
       <c r="D244" s="2">
         <v>44439</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F244" s="9">
+        <v>5</v>
+      </c>
+      <c r="G244" s="9">
+        <v>4</v>
+      </c>
+      <c r="H244" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>879</v>
       </c>
@@ -4663,7 +4950,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>878</v>
       </c>
@@ -4676,8 +4963,17 @@
       <c r="D246" s="2">
         <v>44441</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F246" s="9">
+        <v>3</v>
+      </c>
+      <c r="G246" s="9">
+        <v>2</v>
+      </c>
+      <c r="H246" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>877</v>
       </c>
@@ -4690,8 +4986,11 @@
       <c r="D247" s="2">
         <v>44442</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F247" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>876</v>
       </c>
@@ -4705,7 +5004,7 @@
         <v>44443</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>875</v>
       </c>
@@ -4719,7 +5018,7 @@
         <v>44444</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>874</v>
       </c>
@@ -4732,8 +5031,20 @@
       <c r="D250" s="2">
         <v>44445</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F250" s="9">
+        <v>1</v>
+      </c>
+      <c r="G250" s="9">
+        <v>1</v>
+      </c>
+      <c r="H250" s="9">
+        <v>2</v>
+      </c>
+      <c r="I250" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>873</v>
       </c>
@@ -4746,8 +5057,17 @@
       <c r="D251" s="2">
         <v>44446</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F251" s="9">
+        <v>1</v>
+      </c>
+      <c r="G251" s="9">
+        <v>1</v>
+      </c>
+      <c r="H251" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>872</v>
       </c>
@@ -4760,8 +5080,17 @@
       <c r="D252" s="2">
         <v>44447</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F252" s="9">
+        <v>3</v>
+      </c>
+      <c r="G252" s="9">
+        <v>3</v>
+      </c>
+      <c r="H252" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>871</v>
       </c>
@@ -4774,8 +5103,17 @@
       <c r="D253" s="2">
         <v>44448</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E253" s="9">
+        <v>1</v>
+      </c>
+      <c r="F253" s="9">
+        <v>1</v>
+      </c>
+      <c r="G253" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>870</v>
       </c>
@@ -4788,8 +5126,20 @@
       <c r="D254" s="2">
         <v>44449</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E254" s="9">
+        <v>1</v>
+      </c>
+      <c r="F254" s="9">
+        <v>2</v>
+      </c>
+      <c r="G254" s="9">
+        <v>3</v>
+      </c>
+      <c r="H254" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>869</v>
       </c>
@@ -4803,7 +5153,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>868</v>
       </c>
@@ -4816,8 +5166,11 @@
       <c r="D256" s="2">
         <v>44451</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F256" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>867</v>
       </c>
@@ -4830,8 +5183,23 @@
       <c r="D257" s="2">
         <v>44452</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F257" s="9">
+        <v>3</v>
+      </c>
+      <c r="G257" s="9">
+        <v>3</v>
+      </c>
+      <c r="H257" s="9">
+        <v>3</v>
+      </c>
+      <c r="L257" t="s">
+        <v>75</v>
+      </c>
+      <c r="M257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>866</v>
       </c>
@@ -4844,8 +5212,11 @@
       <c r="D258" s="2">
         <v>44453</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>865</v>
       </c>
@@ -4858,8 +5229,14 @@
       <c r="D259" s="2">
         <v>44454</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F259" s="9">
+        <v>2</v>
+      </c>
+      <c r="G259" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>864</v>
       </c>
@@ -4872,8 +5249,20 @@
       <c r="D260" s="2">
         <v>44455</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F260" s="9">
+        <v>2</v>
+      </c>
+      <c r="G260" s="9">
+        <v>2</v>
+      </c>
+      <c r="H260" s="9">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>863</v>
       </c>
@@ -4887,7 +5276,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>862</v>
       </c>
@@ -4901,7 +5290,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>861</v>
       </c>
@@ -4914,8 +5303,17 @@
       <c r="D263" s="2">
         <v>44458</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F263" s="9">
+        <v>2</v>
+      </c>
+      <c r="G263" s="9">
+        <v>2</v>
+      </c>
+      <c r="H263" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>860</v>
       </c>
@@ -4928,8 +5326,17 @@
       <c r="D264" s="2">
         <v>44459</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F264" s="9">
+        <v>1</v>
+      </c>
+      <c r="G264" s="9">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>859</v>
       </c>
@@ -4943,7 +5350,7 @@
         <v>44460</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>858</v>
       </c>
@@ -4957,7 +5364,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>857</v>
       </c>
@@ -4971,7 +5378,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>856</v>
       </c>
@@ -4985,7 +5392,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>855</v>
       </c>
@@ -4999,7 +5406,7 @@
         <v>44464</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>854</v>
       </c>
@@ -5013,7 +5420,7 @@
         <v>44465</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>853</v>
       </c>
@@ -5027,7 +5434,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>852</v>
       </c>
@@ -5041,7 +5448,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>851</v>
       </c>
@@ -5055,7 +5462,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>850</v>
       </c>
@@ -5069,7 +5476,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>849</v>
       </c>
@@ -5083,7 +5490,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>848</v>
       </c>
@@ -5097,7 +5504,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>847</v>
       </c>
@@ -5111,7 +5518,7 @@
         <v>44472</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>846</v>
       </c>
@@ -5124,8 +5531,11 @@
       <c r="D278" s="2">
         <v>44473</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E278" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>845</v>
       </c>
@@ -5138,8 +5548,14 @@
       <c r="D279" s="2">
         <v>44474</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E279" s="9">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>844</v>
       </c>
@@ -5152,8 +5568,17 @@
       <c r="D280" s="2">
         <v>44475</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E280" s="9">
+        <v>1</v>
+      </c>
+      <c r="F280" s="9">
+        <v>1</v>
+      </c>
+      <c r="G280" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>843</v>
       </c>
@@ -5166,8 +5591,17 @@
       <c r="D281" s="2">
         <v>44476</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F281" s="9">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>842</v>
       </c>
@@ -5180,8 +5614,17 @@
       <c r="D282" s="2">
         <v>44477</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F282" s="9">
+        <v>1</v>
+      </c>
+      <c r="G282" s="9">
+        <v>1</v>
+      </c>
+      <c r="H282" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>841</v>
       </c>
@@ -5195,7 +5638,7 @@
         <v>44478</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>840</v>
       </c>
@@ -5209,7 +5652,7 @@
         <v>44479</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>839</v>
       </c>
@@ -5223,7 +5666,7 @@
         <v>44480</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>838</v>
       </c>
@@ -5236,8 +5679,17 @@
       <c r="D286" s="2">
         <v>44481</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F286" s="9">
+        <v>3</v>
+      </c>
+      <c r="G286" s="9">
+        <v>3</v>
+      </c>
+      <c r="H286" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>837</v>
       </c>
@@ -5251,7 +5703,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>836</v>
       </c>
@@ -5265,7 +5717,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>835</v>
       </c>
@@ -5279,7 +5731,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>834</v>
       </c>
@@ -5292,8 +5744,11 @@
       <c r="D290" s="2">
         <v>44485</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F290" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>833</v>
       </c>
@@ -5306,8 +5761,17 @@
       <c r="D291" s="2">
         <v>44486</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F291" s="9">
+        <v>1</v>
+      </c>
+      <c r="G291" s="9">
+        <v>1</v>
+      </c>
+      <c r="H291" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>832</v>
       </c>
@@ -5320,8 +5784,17 @@
       <c r="D292" s="2">
         <v>44487</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F292" s="9">
+        <v>3</v>
+      </c>
+      <c r="G292" s="9">
+        <v>3</v>
+      </c>
+      <c r="H292" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>831</v>
       </c>
@@ -5334,8 +5807,17 @@
       <c r="D293" s="2">
         <v>44488</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F293" s="9">
+        <v>1</v>
+      </c>
+      <c r="G293" s="9">
+        <v>1</v>
+      </c>
+      <c r="H293" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>830</v>
       </c>
@@ -5348,8 +5830,17 @@
       <c r="D294" s="2">
         <v>44489</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F294" s="9">
+        <v>1</v>
+      </c>
+      <c r="G294" s="9">
+        <v>1</v>
+      </c>
+      <c r="H294" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>829</v>
       </c>
@@ -5363,7 +5854,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>828</v>
       </c>
@@ -5377,7 +5868,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>827</v>
       </c>
@@ -5391,7 +5882,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>826</v>
       </c>
@@ -5405,7 +5896,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>825</v>
       </c>
@@ -5419,7 +5910,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>824</v>
       </c>
@@ -5433,7 +5924,7 @@
         <v>44495</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>823</v>
       </c>
@@ -5447,7 +5938,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>822</v>
       </c>
@@ -5461,7 +5952,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>821</v>
       </c>
@@ -5475,7 +5966,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>820</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
-    <sheet name="exercices" sheetId="4" r:id="rId2"/>
-    <sheet name="croyances limitantes" sheetId="5" r:id="rId3"/>
-    <sheet name="DSM" sheetId="3" r:id="rId4"/>
-    <sheet name="previous" sheetId="1" r:id="rId5"/>
+    <sheet name="Brendon" sheetId="6" r:id="rId2"/>
+    <sheet name="exercices" sheetId="4" r:id="rId3"/>
+    <sheet name="croyances limitantes" sheetId="5" r:id="rId4"/>
+    <sheet name="DSM" sheetId="3" r:id="rId5"/>
+    <sheet name="previous" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -549,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="82">
   <si>
     <t>!fp</t>
   </si>
@@ -777,6 +778,24 @@
   </si>
   <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>Bring the Joy</t>
+  </si>
+  <si>
+    <t>Honour the Struggle</t>
+  </si>
+  <si>
+    <t>High-level Intention for the Day</t>
+  </si>
+  <si>
+    <t>Have a Role-Model Mindset</t>
+  </si>
+  <si>
+    <t>YOU'RE NOT DONE GROWING !</t>
+  </si>
+  <si>
+    <t>ibuprophène</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1150"/>
+  <dimension ref="A1:AH1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F295" sqref="F295"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L350" sqref="L350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,28 +1191,28 @@
     <col min="10" max="10" width="4.77734375" style="9" customWidth="1"/>
     <col min="11" max="11" width="4.88671875" customWidth="1"/>
     <col min="12" max="12" width="7.5546875" customWidth="1"/>
-    <col min="13" max="14" width="8.109375" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" customWidth="1"/>
-    <col min="19" max="20" width="5.21875" customWidth="1"/>
-    <col min="21" max="21" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.33203125" customWidth="1"/>
-    <col min="24" max="24" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.109375" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" customWidth="1"/>
-    <col min="27" max="27" width="3.21875" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" customWidth="1"/>
-    <col min="29" max="29" width="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="7.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" customWidth="1"/>
-    <col min="33" max="33" width="6.77734375" customWidth="1"/>
+    <col min="13" max="15" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="5.77734375" customWidth="1"/>
+    <col min="20" max="21" width="5.21875" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.33203125" customWidth="1"/>
+    <col min="25" max="25" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" customWidth="1"/>
+    <col min="28" max="28" width="3.21875" customWidth="1"/>
+    <col min="29" max="29" width="5.88671875" customWidth="1"/>
+    <col min="30" max="30" width="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" customWidth="1"/>
+    <col min="32" max="32" width="7.109375" customWidth="1"/>
+    <col min="33" max="33" width="7.33203125" customWidth="1"/>
+    <col min="34" max="34" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:34" x14ac:dyDescent="0.3">
       <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
@@ -1221,53 +1240,56 @@
       <c r="N1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -1289,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1319,7 +1341,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>35</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -1386,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1446,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:34" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>35</v>
       </c>
@@ -1617,18 +1639,18 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>44231</v>
       </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>37</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1669,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>39</v>
       </c>
@@ -1655,7 +1677,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>33</v>
       </c>
@@ -1663,7 +1685,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1693,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1726,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -1721,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -5405,6 +5427,9 @@
       <c r="D269" s="2">
         <v>44464</v>
       </c>
+      <c r="M269">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
@@ -5419,6 +5444,9 @@
       <c r="D270" s="2">
         <v>44465</v>
       </c>
+      <c r="M270">
+        <v>2</v>
+      </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
@@ -5447,6 +5475,9 @@
       <c r="D272" s="2">
         <v>44467</v>
       </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
@@ -5717,7 +5748,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>835</v>
       </c>
@@ -5731,7 +5762,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>834</v>
       </c>
@@ -5748,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>833</v>
       </c>
@@ -5771,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>832</v>
       </c>
@@ -5794,7 +5825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>831</v>
       </c>
@@ -5817,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>830</v>
       </c>
@@ -5840,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>829</v>
       </c>
@@ -5853,8 +5884,14 @@
       <c r="D295" s="2">
         <v>44490</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F295" s="9">
+        <v>1</v>
+      </c>
+      <c r="G295" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>828</v>
       </c>
@@ -5867,8 +5904,23 @@
       <c r="D296" s="2">
         <v>44491</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E296" s="9">
+        <v>1</v>
+      </c>
+      <c r="F296" s="9">
+        <v>1</v>
+      </c>
+      <c r="G296" s="9">
+        <v>1</v>
+      </c>
+      <c r="H296" s="9">
+        <v>1</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>827</v>
       </c>
@@ -5882,7 +5934,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>826</v>
       </c>
@@ -5895,8 +5947,17 @@
       <c r="D298" s="2">
         <v>44493</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F298" s="9">
+        <v>2</v>
+      </c>
+      <c r="G298" s="9">
+        <v>2</v>
+      </c>
+      <c r="H298" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>825</v>
       </c>
@@ -5909,8 +5970,17 @@
       <c r="D299" s="2">
         <v>44494</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F299" s="9">
+        <v>3</v>
+      </c>
+      <c r="G299" s="9">
+        <v>3</v>
+      </c>
+      <c r="H299" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>824</v>
       </c>
@@ -5923,8 +5993,23 @@
       <c r="D300" s="2">
         <v>44495</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E300" s="9">
+        <v>1</v>
+      </c>
+      <c r="F300" s="9">
+        <v>1</v>
+      </c>
+      <c r="G300" s="9">
+        <v>2</v>
+      </c>
+      <c r="H300" s="9">
+        <v>2</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>823</v>
       </c>
@@ -5937,8 +6022,20 @@
       <c r="D301" s="2">
         <v>44496</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E301" s="9">
+        <v>1</v>
+      </c>
+      <c r="F301" s="9">
+        <v>4</v>
+      </c>
+      <c r="G301" s="9">
+        <v>5</v>
+      </c>
+      <c r="H301" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>822</v>
       </c>
@@ -5951,8 +6048,20 @@
       <c r="D302" s="2">
         <v>44497</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E302" s="9">
+        <v>1</v>
+      </c>
+      <c r="G302" s="9">
+        <v>1</v>
+      </c>
+      <c r="H302" s="9">
+        <v>2</v>
+      </c>
+      <c r="I302" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>821</v>
       </c>
@@ -5965,8 +6074,23 @@
       <c r="D303" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E303" s="9">
+        <v>1</v>
+      </c>
+      <c r="F303" s="9">
+        <v>2</v>
+      </c>
+      <c r="G303" s="9">
+        <v>3</v>
+      </c>
+      <c r="H303" s="9">
+        <v>1</v>
+      </c>
+      <c r="I303" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>820</v>
       </c>
@@ -5979,8 +6103,17 @@
       <c r="D304" s="2">
         <v>44499</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>819</v>
       </c>
@@ -5994,7 +6127,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>818</v>
       </c>
@@ -6007,8 +6140,17 @@
       <c r="D306" s="2">
         <v>44501</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F306" s="9">
+        <v>1</v>
+      </c>
+      <c r="G306" s="9">
+        <v>1</v>
+      </c>
+      <c r="H306" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>817</v>
       </c>
@@ -6021,8 +6163,17 @@
       <c r="D307" s="2">
         <v>44502</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F307" s="9">
+        <v>5</v>
+      </c>
+      <c r="G307" s="9">
+        <v>2</v>
+      </c>
+      <c r="H307" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>816</v>
       </c>
@@ -6035,8 +6186,26 @@
       <c r="D308" s="2">
         <v>44503</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E308" s="9">
+        <v>1</v>
+      </c>
+      <c r="G308" s="9">
+        <v>1</v>
+      </c>
+      <c r="H308" s="9">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>815</v>
       </c>
@@ -6049,8 +6218,17 @@
       <c r="D309" s="2">
         <v>44504</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F309" s="9">
+        <v>2</v>
+      </c>
+      <c r="G309" s="9">
+        <v>2</v>
+      </c>
+      <c r="H309" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>814</v>
       </c>
@@ -6063,8 +6241,20 @@
       <c r="D310" s="2">
         <v>44505</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F310" s="9">
+        <v>1</v>
+      </c>
+      <c r="G310" s="9">
+        <v>1</v>
+      </c>
+      <c r="H310" s="9">
+        <v>2</v>
+      </c>
+      <c r="I310" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>813</v>
       </c>
@@ -6078,7 +6268,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>812</v>
       </c>
@@ -6091,8 +6281,14 @@
       <c r="D312" s="2">
         <v>44507</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>811</v>
       </c>
@@ -6105,8 +6301,17 @@
       <c r="D313" s="2">
         <v>44508</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E313" s="9">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>1</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>810</v>
       </c>
@@ -6119,8 +6324,20 @@
       <c r="D314" s="2">
         <v>44509</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E314" s="9">
+        <v>2</v>
+      </c>
+      <c r="F314" s="9">
+        <v>5</v>
+      </c>
+      <c r="G314" s="9">
+        <v>7</v>
+      </c>
+      <c r="H314" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>809</v>
       </c>
@@ -6133,8 +6350,17 @@
       <c r="D315" s="2">
         <v>44510</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E315" s="9">
+        <v>1</v>
+      </c>
+      <c r="F315" s="9">
+        <v>1</v>
+      </c>
+      <c r="G315" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>808</v>
       </c>
@@ -6148,7 +6374,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>807</v>
       </c>
@@ -6161,8 +6387,14 @@
       <c r="D317" s="2">
         <v>44512</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E317" s="9">
+        <v>1</v>
+      </c>
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>806</v>
       </c>
@@ -6175,8 +6407,17 @@
       <c r="D318" s="2">
         <v>44513</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E318" s="9">
+        <v>1</v>
+      </c>
+      <c r="F318" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>805</v>
       </c>
@@ -6189,8 +6430,20 @@
       <c r="D319" s="2">
         <v>44514</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E319" s="9">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>804</v>
       </c>
@@ -6203,8 +6456,20 @@
       <c r="D320" s="2">
         <v>44515</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E320" s="9">
+        <v>1</v>
+      </c>
+      <c r="F320" s="9">
+        <v>3</v>
+      </c>
+      <c r="G320">
+        <v>3</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>803</v>
       </c>
@@ -6217,8 +6482,23 @@
       <c r="D321" s="2">
         <v>44516</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E321" s="9">
+        <v>1</v>
+      </c>
+      <c r="F321" s="9">
+        <v>2</v>
+      </c>
+      <c r="G321" s="9">
+        <v>3</v>
+      </c>
+      <c r="H321" s="9">
+        <v>1</v>
+      </c>
+      <c r="I321" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>802</v>
       </c>
@@ -6231,8 +6511,20 @@
       <c r="D322" s="2">
         <v>44517</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E322" s="9">
+        <v>1</v>
+      </c>
+      <c r="F322" s="9">
+        <v>1</v>
+      </c>
+      <c r="G322" s="9">
+        <v>2</v>
+      </c>
+      <c r="H322" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>801</v>
       </c>
@@ -6245,8 +6537,23 @@
       <c r="D323" s="2">
         <v>44518</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E323" s="9">
+        <v>1</v>
+      </c>
+      <c r="G323" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H323" s="9">
+        <v>1</v>
+      </c>
+      <c r="I323" s="9">
+        <v>1</v>
+      </c>
+      <c r="J323" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>800</v>
       </c>
@@ -6259,8 +6566,20 @@
       <c r="D324" s="2">
         <v>44519</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E324" s="9">
+        <v>1</v>
+      </c>
+      <c r="F324" s="9">
+        <v>2</v>
+      </c>
+      <c r="G324" s="9">
+        <v>3</v>
+      </c>
+      <c r="H324" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>799</v>
       </c>
@@ -6274,7 +6593,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>798</v>
       </c>
@@ -6287,8 +6606,14 @@
       <c r="D326" s="2">
         <v>44521</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>797</v>
       </c>
@@ -6301,8 +6626,23 @@
       <c r="D327" s="2">
         <v>44522</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F327" s="9">
+        <v>4</v>
+      </c>
+      <c r="G327">
+        <v>3</v>
+      </c>
+      <c r="H327">
+        <v>3</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>796</v>
       </c>
@@ -6315,8 +6655,17 @@
       <c r="D328" s="2">
         <v>44523</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F328" s="9">
+        <v>1</v>
+      </c>
+      <c r="G328" s="9">
+        <v>1</v>
+      </c>
+      <c r="H328" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>795</v>
       </c>
@@ -6329,8 +6678,20 @@
       <c r="D329" s="2">
         <v>44524</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E329" s="9">
+        <v>1</v>
+      </c>
+      <c r="F329" s="9">
+        <v>1</v>
+      </c>
+      <c r="G329" s="9">
+        <v>1</v>
+      </c>
+      <c r="O329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>794</v>
       </c>
@@ -6343,8 +6704,14 @@
       <c r="D330" s="2">
         <v>44525</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E330" s="9">
+        <v>1</v>
+      </c>
+      <c r="G330" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>793</v>
       </c>
@@ -6358,7 +6725,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>792</v>
       </c>
@@ -6371,8 +6738,14 @@
       <c r="D332" s="2">
         <v>44527</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>791</v>
       </c>
@@ -6385,8 +6758,14 @@
       <c r="D333" s="2">
         <v>44528</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>790</v>
       </c>
@@ -6399,8 +6778,20 @@
       <c r="D334" s="2">
         <v>44529</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E334" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>789</v>
       </c>
@@ -6413,8 +6804,20 @@
       <c r="D335" s="2">
         <v>44530</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E335" s="9">
+        <v>1</v>
+      </c>
+      <c r="F335" s="9">
+        <v>2</v>
+      </c>
+      <c r="G335" s="9">
+        <v>3</v>
+      </c>
+      <c r="H335" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>788</v>
       </c>
@@ -6427,8 +6830,20 @@
       <c r="D336" s="2">
         <v>44531</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F336" s="9">
+        <v>1</v>
+      </c>
+      <c r="G336" s="9">
+        <v>1</v>
+      </c>
+      <c r="H336" s="9">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>787</v>
       </c>
@@ -6441,8 +6856,17 @@
       <c r="D337" s="2">
         <v>44532</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E337" s="9">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="J337" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>786</v>
       </c>
@@ -6455,8 +6879,20 @@
       <c r="D338" s="2">
         <v>44533</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E338" s="9">
+        <v>1</v>
+      </c>
+      <c r="F338" s="9">
+        <v>1</v>
+      </c>
+      <c r="G338" s="9">
+        <v>1</v>
+      </c>
+      <c r="H338" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>785</v>
       </c>
@@ -6470,7 +6906,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>784</v>
       </c>
@@ -6483,8 +6919,14 @@
       <c r="D340" s="2">
         <v>44535</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>783</v>
       </c>
@@ -6497,8 +6939,26 @@
       <c r="D341" s="2">
         <v>44536</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E341" s="9">
+        <v>1</v>
+      </c>
+      <c r="F341" s="9">
+        <v>3</v>
+      </c>
+      <c r="G341" s="9">
+        <v>3</v>
+      </c>
+      <c r="H341" s="9">
+        <v>4</v>
+      </c>
+      <c r="I341" s="9">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>782</v>
       </c>
@@ -6511,8 +6971,17 @@
       <c r="D342" s="2">
         <v>44537</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F342" s="9">
+        <v>2</v>
+      </c>
+      <c r="G342" s="9">
+        <v>1</v>
+      </c>
+      <c r="J342" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>781</v>
       </c>
@@ -6525,8 +6994,20 @@
       <c r="D343" s="2">
         <v>44538</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F343" s="9">
+        <v>2</v>
+      </c>
+      <c r="G343" s="9">
+        <v>2</v>
+      </c>
+      <c r="H343" s="9">
+        <v>2</v>
+      </c>
+      <c r="M343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>780</v>
       </c>
@@ -6539,8 +7020,20 @@
       <c r="D344" s="2">
         <v>44539</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E344" s="9">
+        <v>1</v>
+      </c>
+      <c r="F344" s="9">
+        <v>3</v>
+      </c>
+      <c r="G344" s="9">
+        <v>4</v>
+      </c>
+      <c r="H344" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>779</v>
       </c>
@@ -6554,7 +7047,7 @@
         <v>44540</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>778</v>
       </c>
@@ -6568,7 +7061,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>777</v>
       </c>
@@ -6581,8 +7074,17 @@
       <c r="D347" s="2">
         <v>44542</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F347" s="9">
+        <v>1</v>
+      </c>
+      <c r="G347" s="9">
+        <v>1</v>
+      </c>
+      <c r="H347" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>776</v>
       </c>
@@ -6595,8 +7097,11 @@
       <c r="D348" s="2">
         <v>44543</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F348" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>775</v>
       </c>
@@ -6609,8 +7114,23 @@
       <c r="D349" s="2">
         <v>44544</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F349" s="9">
+        <v>2</v>
+      </c>
+      <c r="G349" s="9">
+        <v>1</v>
+      </c>
+      <c r="H349" s="9">
+        <v>2</v>
+      </c>
+      <c r="I349" s="9">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>774</v>
       </c>
@@ -6623,8 +7143,17 @@
       <c r="D350" s="2">
         <v>44545</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E350" s="9">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>773</v>
       </c>
@@ -6638,7 +7167,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>772</v>
       </c>
@@ -17676,6 +18205,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -17775,7 +18357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -17815,7 +18397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -18097,7 +18679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU24"/>
   <sheetViews>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1175,8 +1175,8 @@
   <dimension ref="A1:AH1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L350" sqref="L350"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F378" sqref="F378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7152,6 +7152,9 @@
       <c r="H350">
         <v>1</v>
       </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351">
@@ -7166,6 +7169,21 @@
       <c r="D351" s="2">
         <v>44546</v>
       </c>
+      <c r="E351" s="9">
+        <v>1</v>
+      </c>
+      <c r="F351" s="9">
+        <v>3</v>
+      </c>
+      <c r="G351">
+        <v>4</v>
+      </c>
+      <c r="H351">
+        <v>3</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352">
@@ -7180,8 +7198,14 @@
       <c r="D352" s="2">
         <v>44547</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F352" s="9">
+        <v>1</v>
+      </c>
+      <c r="G352" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>771</v>
       </c>
@@ -7195,7 +7219,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>770</v>
       </c>
@@ -7208,8 +7232,17 @@
       <c r="D354" s="2">
         <v>44549</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F354" s="9">
+        <v>1</v>
+      </c>
+      <c r="G354" s="9">
+        <v>1</v>
+      </c>
+      <c r="H354" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>769</v>
       </c>
@@ -7222,8 +7255,17 @@
       <c r="D355" s="2">
         <v>44550</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F355" s="9">
+        <v>2</v>
+      </c>
+      <c r="G355" s="9">
+        <v>2</v>
+      </c>
+      <c r="H355" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>768</v>
       </c>
@@ -7237,7 +7279,7 @@
         <v>44551</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>767</v>
       </c>
@@ -7250,8 +7292,14 @@
       <c r="D357" s="2">
         <v>44552</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>766</v>
       </c>
@@ -7265,7 +7313,7 @@
         <v>44553</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>765</v>
       </c>
@@ -7279,7 +7327,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>764</v>
       </c>
@@ -7293,7 +7341,7 @@
         <v>44555</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>763</v>
       </c>
@@ -7307,7 +7355,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>762</v>
       </c>
@@ -7320,8 +7368,11 @@
       <c r="D362" s="2">
         <v>44557</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F362" s="9"/>
+      <c r="G362" s="9"/>
+      <c r="H362" s="9"/>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>761</v>
       </c>
@@ -7334,8 +7385,9 @@
       <c r="D363" s="2">
         <v>44558</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F363" s="9"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>760</v>
       </c>
@@ -7348,8 +7400,16 @@
       <c r="D364" s="2">
         <v>44559</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F364" s="9"/>
+      <c r="G364" s="9"/>
+      <c r="H364" s="9">
+        <v>1</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>759</v>
       </c>
@@ -7363,7 +7423,7 @@
         <v>44560</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>758</v>
       </c>
@@ -7377,7 +7437,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>757</v>
       </c>
@@ -7391,7 +7451,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>756</v>
       </c>
@@ -7405,7 +7465,7 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>755</v>
       </c>
@@ -7418,8 +7478,20 @@
       <c r="D369" s="2">
         <v>44564</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F369" s="9">
+        <v>1</v>
+      </c>
+      <c r="G369" s="9">
+        <v>1</v>
+      </c>
+      <c r="H369" s="9">
+        <v>1</v>
+      </c>
+      <c r="M369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>754</v>
       </c>
@@ -7432,8 +7504,32 @@
       <c r="D370" s="2">
         <v>44565</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E370" s="9">
+        <v>2</v>
+      </c>
+      <c r="F370" s="9">
+        <v>2</v>
+      </c>
+      <c r="G370" s="9">
+        <v>4</v>
+      </c>
+      <c r="H370" s="9">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>753</v>
       </c>
@@ -7446,8 +7542,20 @@
       <c r="D371" s="2">
         <v>44566</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E371" s="9">
+        <v>1</v>
+      </c>
+      <c r="F371" s="9">
+        <v>3</v>
+      </c>
+      <c r="G371" s="9">
+        <v>4</v>
+      </c>
+      <c r="H371" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>752</v>
       </c>
@@ -7460,8 +7568,23 @@
       <c r="D372" s="2">
         <v>44567</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E372" s="9">
+        <v>1</v>
+      </c>
+      <c r="F372" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="G372" s="9">
+        <v>2</v>
+      </c>
+      <c r="H372" s="9">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>751</v>
       </c>
@@ -7474,8 +7597,20 @@
       <c r="D373" s="2">
         <v>44568</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E373" s="9">
+        <v>1</v>
+      </c>
+      <c r="F373" s="9">
+        <v>3</v>
+      </c>
+      <c r="G373" s="9">
+        <v>3</v>
+      </c>
+      <c r="H373" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>750</v>
       </c>
@@ -7489,7 +7624,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>749</v>
       </c>
@@ -7502,8 +7637,14 @@
       <c r="D375" s="2">
         <v>44570</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H375">
+        <v>1</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>748</v>
       </c>
@@ -7516,8 +7657,17 @@
       <c r="D376" s="2">
         <v>44571</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F376" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G376" s="9">
+        <v>3</v>
+      </c>
+      <c r="H376" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>747</v>
       </c>
@@ -7530,8 +7680,17 @@
       <c r="D377" s="2">
         <v>44572</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F377" s="9">
+        <v>3</v>
+      </c>
+      <c r="G377" s="9">
+        <v>3</v>
+      </c>
+      <c r="H377" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>746</v>
       </c>
@@ -7545,7 +7704,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>745</v>
       </c>
@@ -7559,7 +7718,7 @@
         <v>44574</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>744</v>
       </c>
@@ -7573,7 +7732,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>743</v>
       </c>
@@ -7587,7 +7746,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>742</v>
       </c>
@@ -7601,7 +7760,7 @@
         <v>44577</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>741</v>
       </c>
@@ -7615,7 +7774,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>740</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="83">
   <si>
     <t>!fp</t>
   </si>
@@ -796,6 +796,9 @@
   </si>
   <si>
     <t>ibuprophène</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1178,8 @@
   <dimension ref="A1:AH1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F378" sqref="F378"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7717,6 +7720,15 @@
       <c r="D379" s="2">
         <v>44574</v>
       </c>
+      <c r="F379" s="9">
+        <v>1</v>
+      </c>
+      <c r="G379">
+        <v>1</v>
+      </c>
+      <c r="H379">
+        <v>1</v>
+      </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
@@ -7759,6 +7771,12 @@
       <c r="D382" s="2">
         <v>44577</v>
       </c>
+      <c r="H382">
+        <v>1</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
@@ -7773,6 +7791,15 @@
       <c r="D383" s="2">
         <v>44578</v>
       </c>
+      <c r="F383" s="9">
+        <v>2</v>
+      </c>
+      <c r="G383" s="9">
+        <v>2</v>
+      </c>
+      <c r="H383" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
@@ -7787,8 +7814,17 @@
       <c r="D384" s="2">
         <v>44579</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F384" s="9">
+        <v>4</v>
+      </c>
+      <c r="G384" s="9">
+        <v>4</v>
+      </c>
+      <c r="H384" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>739</v>
       </c>
@@ -7801,8 +7837,11 @@
       <c r="D385" s="2">
         <v>44580</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F385" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>738</v>
       </c>
@@ -7815,8 +7854,17 @@
       <c r="D386" s="2">
         <v>44581</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F386" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G386" s="9">
+        <v>1</v>
+      </c>
+      <c r="H386" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>737</v>
       </c>
@@ -7829,8 +7877,17 @@
       <c r="D387" s="2">
         <v>44582</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F387" s="9">
+        <v>3</v>
+      </c>
+      <c r="G387" s="9">
+        <v>3</v>
+      </c>
+      <c r="H387" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>736</v>
       </c>
@@ -7844,7 +7901,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>735</v>
       </c>
@@ -7857,8 +7914,17 @@
       <c r="D389" s="2">
         <v>44584</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F389" t="s">
+        <v>82</v>
+      </c>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>734</v>
       </c>
@@ -7871,8 +7937,17 @@
       <c r="D390" s="2">
         <v>44585</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F390" s="9">
+        <v>5</v>
+      </c>
+      <c r="G390" s="9">
+        <v>3</v>
+      </c>
+      <c r="H390" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>733</v>
       </c>
@@ -7886,7 +7961,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>732</v>
       </c>
@@ -7900,7 +7975,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>731</v>
       </c>
@@ -7914,7 +7989,7 @@
         <v>44588</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>730</v>
       </c>
@@ -7928,7 +8003,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>729</v>
       </c>
@@ -7942,7 +8017,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>728</v>
       </c>
@@ -7956,7 +8031,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>727</v>
       </c>
@@ -7970,7 +8045,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>726</v>
       </c>
@@ -7984,7 +8059,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>725</v>
       </c>
@@ -7998,7 +8073,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>724</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11604" windowHeight="3516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11616" windowHeight="3516"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="84">
   <si>
     <t>!fp</t>
   </si>
@@ -800,6 +800,9 @@
   <si>
     <t>0.4</t>
   </si>
+  <si>
+    <t>no-pn temptations</t>
+  </si>
 </sst>
 </file>
 
@@ -827,7 +830,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +867,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -877,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -889,6 +904,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,47 +1194,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH1150"/>
+  <dimension ref="A1:AI1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F391" sqref="F391"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F472" sqref="F472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="9" customWidth="1"/>
     <col min="6" max="6" width="3.109375" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" customWidth="1"/>
-    <col min="13" max="15" width="8.109375" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" customWidth="1"/>
-    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" customWidth="1"/>
-    <col min="20" max="21" width="5.21875" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.33203125" customWidth="1"/>
-    <col min="25" max="25" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" customWidth="1"/>
-    <col min="28" max="28" width="3.21875" customWidth="1"/>
-    <col min="29" max="29" width="5.88671875" customWidth="1"/>
-    <col min="30" max="30" width="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8" customWidth="1"/>
-    <col min="32" max="32" width="7.109375" customWidth="1"/>
-    <col min="33" max="33" width="7.33203125" customWidth="1"/>
-    <col min="34" max="34" width="6.77734375" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="16" width="8.109375" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="22" width="5.33203125" customWidth="1"/>
+    <col min="23" max="24" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.33203125" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.109375" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" customWidth="1"/>
+    <col min="30" max="30" width="5.88671875" customWidth="1"/>
+    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" customWidth="1"/>
+    <col min="33" max="33" width="7.109375" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" customWidth="1"/>
+    <col min="35" max="35" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
@@ -1234,65 +1253,68 @@
       <c r="J1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="K1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -1314,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>36</v>
       </c>
@@ -1372,21 +1394,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>44204</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>18</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -1433,7 +1455,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="14" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -1441,7 +1463,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="15" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="16" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>37</v>
       </c>
@@ -1606,21 +1628,21 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>44228</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>18</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>34</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>35</v>
       </c>
@@ -1642,29 +1664,29 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>44231</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="2">
         <v>44232</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>38</v>
       </c>
@@ -1672,7 +1694,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>39</v>
       </c>
@@ -1680,7 +1702,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>33</v>
       </c>
@@ -1688,7 +1710,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +1743,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -1746,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>39</v>
       </c>
@@ -1754,7 +1776,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -1782,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>35</v>
       </c>
@@ -1799,24 +1821,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="2">
         <v>44245</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>40</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
       <c r="N50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>39</v>
       </c>
@@ -1852,7 +1874,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>34</v>
       </c>
@@ -1868,7 +1890,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>35</v>
       </c>
@@ -1879,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>36</v>
       </c>
@@ -1889,17 +1911,17 @@
       <c r="H57" t="s">
         <v>43</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>42</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
       <c r="N57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>37</v>
       </c>
@@ -1907,7 +1929,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -1915,7 +1937,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>39</v>
       </c>
@@ -1923,7 +1945,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>33</v>
       </c>
@@ -1937,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>34</v>
       </c>
@@ -1948,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>35</v>
       </c>
@@ -1965,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>36</v>
       </c>
@@ -1973,7 +1995,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>37</v>
       </c>
@@ -1981,7 +2003,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>38</v>
       </c>
@@ -1995,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>39</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>36</v>
       </c>
@@ -2074,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2104,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2112,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -2098,7 +2120,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>33</v>
       </c>
@@ -2106,24 +2128,24 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>44271</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>42</v>
       </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
       <c r="N76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>35</v>
       </c>
@@ -2137,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>36</v>
       </c>
@@ -2151,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2189,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>39</v>
       </c>
@@ -2175,7 +2197,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>33</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>34</v>
       </c>
@@ -2191,7 +2213,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>35</v>
       </c>
@@ -2201,11 +2223,11 @@
       <c r="F84">
         <v>0.5</v>
       </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>36</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>37</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2254,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>39</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2270,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>35</v>
       </c>
@@ -2273,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>36</v>
       </c>
@@ -2286,11 +2308,11 @@
       <c r="H92">
         <v>1</v>
       </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>37</v>
       </c>
@@ -2298,7 +2320,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>44289</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>39</v>
       </c>
@@ -2314,7 +2336,7 @@
         <v>44290</v>
       </c>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>33</v>
       </c>
@@ -2327,11 +2349,11 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>35</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>36</v>
       </c>
@@ -2363,17 +2385,17 @@
       <c r="G99">
         <v>1</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>46</v>
       </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
       <c r="N99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>37</v>
       </c>
@@ -2384,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>38</v>
       </c>
@@ -2395,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2425,7 @@
         <v>44297</v>
       </c>
     </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>33</v>
       </c>
@@ -2420,7 +2442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>35</v>
       </c>
@@ -2444,11 +2466,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-      <c r="M105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>36</v>
       </c>
@@ -2456,7 +2478,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>37</v>
       </c>
@@ -2473,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2481,7 +2503,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>39</v>
       </c>
@@ -2489,7 +2511,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>33</v>
       </c>
@@ -2503,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>34</v>
       </c>
@@ -2517,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>35</v>
       </c>
@@ -2525,7 +2547,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>36</v>
       </c>
@@ -2533,24 +2555,24 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="2">
         <v>44309</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>46</v>
       </c>
-      <c r="M114">
-        <v>1</v>
-      </c>
       <c r="N114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>38</v>
       </c>
@@ -2558,7 +2580,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>39</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>33</v>
       </c>
@@ -2583,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>34</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>35</v>
       </c>
@@ -2602,7 +2624,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>36</v>
       </c>
@@ -2610,7 +2632,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>37</v>
       </c>
@@ -2618,7 +2640,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>38</v>
       </c>
@@ -2626,7 +2648,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>39</v>
       </c>
@@ -2634,7 +2656,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1000</v>
       </c>
@@ -2656,11 +2678,11 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="M124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>999</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>998</v>
       </c>
@@ -2697,7 +2719,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>997</v>
       </c>
@@ -2720,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>996</v>
       </c>
@@ -2743,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>995</v>
       </c>
@@ -2757,7 +2779,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>994</v>
       </c>
@@ -2771,7 +2793,7 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>993</v>
       </c>
@@ -2787,11 +2809,11 @@
       <c r="H131">
         <v>1</v>
       </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>992</v>
       </c>
@@ -2805,7 +2827,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>991</v>
       </c>
@@ -2828,7 +2850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>990</v>
       </c>
@@ -2842,7 +2864,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>989</v>
       </c>
@@ -2856,7 +2878,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>988</v>
       </c>
@@ -2870,7 +2892,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>987</v>
       </c>
@@ -2883,11 +2905,11 @@
       <c r="D137" s="2">
         <v>44332</v>
       </c>
-      <c r="M137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>986</v>
       </c>
@@ -2904,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>985</v>
       </c>
@@ -2924,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>984</v>
       </c>
@@ -2947,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>983</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>982</v>
       </c>
@@ -2996,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>981</v>
       </c>
@@ -3019,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>980</v>
       </c>
@@ -3039,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>979</v>
       </c>
@@ -3059,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>978</v>
       </c>
@@ -3073,7 +3095,7 @@
         <v>44341</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>977</v>
       </c>
@@ -3099,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>976</v>
       </c>
@@ -3121,11 +3143,11 @@
       <c r="H148" s="9">
         <v>2</v>
       </c>
-      <c r="M148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>975</v>
       </c>
@@ -3145,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>974</v>
       </c>
@@ -3159,7 +3181,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>973</v>
       </c>
@@ -3172,11 +3194,11 @@
       <c r="D151" s="2">
         <v>44346</v>
       </c>
-      <c r="M151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>972</v>
       </c>
@@ -3193,7 +3215,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>971</v>
       </c>
@@ -3216,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>970</v>
       </c>
@@ -3236,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>969</v>
       </c>
@@ -3256,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>968</v>
       </c>
@@ -3279,7 +3301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>967</v>
       </c>
@@ -3293,7 +3315,7 @@
         <v>44352</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>966</v>
       </c>
@@ -3313,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>965</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>964</v>
       </c>
@@ -3353,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>963</v>
       </c>
@@ -3367,7 +3389,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>962</v>
       </c>
@@ -3381,7 +3403,7 @@
         <v>44357</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>961</v>
       </c>
@@ -3395,7 +3417,7 @@
         <v>44358</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>960</v>
       </c>
@@ -3409,7 +3431,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>959</v>
       </c>
@@ -3432,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>958</v>
       </c>
@@ -3451,17 +3473,17 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
       <c r="M166">
         <v>1</v>
       </c>
       <c r="N166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>957</v>
       </c>
@@ -3480,11 +3502,11 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="M167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>956</v>
       </c>
@@ -3498,7 +3520,7 @@
         <v>44363</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>955</v>
       </c>
@@ -3511,11 +3533,11 @@
       <c r="D169" s="2">
         <v>44364</v>
       </c>
-      <c r="M169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>954</v>
       </c>
@@ -3529,7 +3551,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>953</v>
       </c>
@@ -3552,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>952</v>
       </c>
@@ -3572,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>951</v>
       </c>
@@ -3595,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>950</v>
       </c>
@@ -3618,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>949</v>
       </c>
@@ -3632,7 +3654,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>948</v>
       </c>
@@ -3658,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>947</v>
       </c>
@@ -3684,7 +3706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>946</v>
       </c>
@@ -3697,11 +3719,11 @@
       <c r="D178" s="2">
         <v>44373</v>
       </c>
-      <c r="M178">
+      <c r="N178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>945</v>
       </c>
@@ -3721,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>944</v>
       </c>
@@ -3744,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>943</v>
       </c>
@@ -3767,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>942</v>
       </c>
@@ -3787,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>941</v>
       </c>
@@ -3801,7 +3823,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>940</v>
       </c>
@@ -3815,7 +3837,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>939</v>
       </c>
@@ -3829,7 +3851,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>938</v>
       </c>
@@ -3849,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>937</v>
       </c>
@@ -3875,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>936</v>
       </c>
@@ -3901,7 +3923,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>935</v>
       </c>
@@ -3924,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>934</v>
       </c>
@@ -3944,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>933</v>
       </c>
@@ -3958,7 +3980,7 @@
         <v>44386</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>932</v>
       </c>
@@ -3972,7 +3994,7 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>931</v>
       </c>
@@ -3986,7 +4008,7 @@
         <v>44388</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>930</v>
       </c>
@@ -4002,11 +4024,11 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="M194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>929</v>
       </c>
@@ -4023,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>928</v>
       </c>
@@ -4037,7 +4059,7 @@
         <v>44391</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>927</v>
       </c>
@@ -4060,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>926</v>
       </c>
@@ -4074,7 +4096,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>925</v>
       </c>
@@ -4088,7 +4110,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>924</v>
       </c>
@@ -4102,7 +4124,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>923</v>
       </c>
@@ -4122,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>922</v>
       </c>
@@ -4136,7 +4158,7 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>921</v>
       </c>
@@ -4150,7 +4172,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>920</v>
       </c>
@@ -4170,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>919</v>
       </c>
@@ -4184,7 +4206,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>918</v>
       </c>
@@ -4201,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>917</v>
       </c>
@@ -4221,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>916</v>
       </c>
@@ -5195,7 +5217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>867</v>
       </c>
@@ -5217,14 +5239,14 @@
       <c r="H257" s="9">
         <v>3</v>
       </c>
-      <c r="L257" t="s">
+      <c r="M257" t="s">
         <v>75</v>
       </c>
-      <c r="M257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>866</v>
       </c>
@@ -5237,11 +5259,11 @@
       <c r="D258" s="2">
         <v>44453</v>
       </c>
-      <c r="M258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>865</v>
       </c>
@@ -5261,7 +5283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>864</v>
       </c>
@@ -5283,11 +5305,11 @@
       <c r="H260" s="9">
         <v>2</v>
       </c>
-      <c r="M260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>863</v>
       </c>
@@ -5301,7 +5323,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>862</v>
       </c>
@@ -5315,7 +5337,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>861</v>
       </c>
@@ -5338,7 +5360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>860</v>
       </c>
@@ -5361,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>859</v>
       </c>
@@ -5375,7 +5397,7 @@
         <v>44460</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>858</v>
       </c>
@@ -5389,7 +5411,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>857</v>
       </c>
@@ -5403,7 +5425,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>856</v>
       </c>
@@ -5417,7 +5439,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>855</v>
       </c>
@@ -5430,11 +5452,11 @@
       <c r="D269" s="2">
         <v>44464</v>
       </c>
-      <c r="M269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>854</v>
       </c>
@@ -5447,11 +5469,11 @@
       <c r="D270" s="2">
         <v>44465</v>
       </c>
-      <c r="M270">
+      <c r="N270">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>853</v>
       </c>
@@ -5465,7 +5487,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>852</v>
       </c>
@@ -5478,7 +5500,7 @@
       <c r="D272" s="2">
         <v>44467</v>
       </c>
-      <c r="M272">
+      <c r="N272">
         <v>1</v>
       </c>
     </row>
@@ -5751,7 +5773,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>835</v>
       </c>
@@ -5765,7 +5787,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>834</v>
       </c>
@@ -5782,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>833</v>
       </c>
@@ -5805,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>832</v>
       </c>
@@ -5828,7 +5850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>831</v>
       </c>
@@ -5851,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>830</v>
       </c>
@@ -5874,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>829</v>
       </c>
@@ -5894,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>828</v>
       </c>
@@ -5919,11 +5941,11 @@
       <c r="H296" s="9">
         <v>1</v>
       </c>
-      <c r="M296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>827</v>
       </c>
@@ -5937,7 +5959,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>826</v>
       </c>
@@ -5960,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>825</v>
       </c>
@@ -5983,7 +6005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>824</v>
       </c>
@@ -6008,11 +6030,11 @@
       <c r="H300" s="9">
         <v>2</v>
       </c>
-      <c r="M300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>823</v>
       </c>
@@ -6038,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>822</v>
       </c>
@@ -6064,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>821</v>
       </c>
@@ -6093,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>820</v>
       </c>
@@ -6109,14 +6131,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="M304">
-        <v>1</v>
-      </c>
-      <c r="N304" t="s">
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>819</v>
       </c>
@@ -6130,7 +6152,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>818</v>
       </c>
@@ -6153,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>817</v>
       </c>
@@ -6176,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>816</v>
       </c>
@@ -6198,17 +6220,17 @@
       <c r="H308" s="9">
         <v>1</v>
       </c>
-      <c r="L308">
-        <v>1</v>
-      </c>
       <c r="M308">
         <v>1</v>
       </c>
-      <c r="N308" t="s">
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>815</v>
       </c>
@@ -6231,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>814</v>
       </c>
@@ -6257,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>813</v>
       </c>
@@ -6271,7 +6293,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>812</v>
       </c>
@@ -6291,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>811</v>
       </c>
@@ -6310,11 +6332,11 @@
       <c r="G313">
         <v>1</v>
       </c>
-      <c r="O313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>810</v>
       </c>
@@ -6340,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>809</v>
       </c>
@@ -6363,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>808</v>
       </c>
@@ -6377,7 +6399,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>807</v>
       </c>
@@ -6397,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>806</v>
       </c>
@@ -6420,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>805</v>
       </c>
@@ -6446,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>804</v>
       </c>
@@ -6472,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>803</v>
       </c>
@@ -6501,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>802</v>
       </c>
@@ -6527,7 +6549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>801</v>
       </c>
@@ -6556,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>800</v>
       </c>
@@ -6582,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>799</v>
       </c>
@@ -6596,7 +6618,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>798</v>
       </c>
@@ -6616,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>797</v>
       </c>
@@ -6638,14 +6660,14 @@
       <c r="H327">
         <v>3</v>
       </c>
-      <c r="M327">
-        <v>1</v>
-      </c>
       <c r="N327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>796</v>
       </c>
@@ -6668,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>795</v>
       </c>
@@ -6690,11 +6712,11 @@
       <c r="G329" s="9">
         <v>1</v>
       </c>
-      <c r="O329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>794</v>
       </c>
@@ -6714,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>793</v>
       </c>
@@ -6728,7 +6750,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>792</v>
       </c>
@@ -6748,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>791</v>
       </c>
@@ -6768,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>790</v>
       </c>
@@ -6794,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>789</v>
       </c>
@@ -6820,7 +6842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>788</v>
       </c>
@@ -6846,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>787</v>
       </c>
@@ -6869,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>786</v>
       </c>
@@ -6895,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>785</v>
       </c>
@@ -6909,7 +6931,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>784</v>
       </c>
@@ -6929,7 +6951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>783</v>
       </c>
@@ -6957,11 +6979,11 @@
       <c r="I341" s="9">
         <v>2</v>
       </c>
-      <c r="M341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>782</v>
       </c>
@@ -6984,7 +7006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>781</v>
       </c>
@@ -7006,11 +7028,11 @@
       <c r="H343" s="9">
         <v>2</v>
       </c>
-      <c r="M343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>780</v>
       </c>
@@ -7036,7 +7058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>779</v>
       </c>
@@ -7050,7 +7072,7 @@
         <v>44540</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>778</v>
       </c>
@@ -7064,7 +7086,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>777</v>
       </c>
@@ -7087,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>776</v>
       </c>
@@ -7104,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>775</v>
       </c>
@@ -7129,11 +7151,11 @@
       <c r="I349" s="9">
         <v>1</v>
       </c>
-      <c r="M349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>774</v>
       </c>
@@ -7155,11 +7177,11 @@
       <c r="H350">
         <v>1</v>
       </c>
-      <c r="M350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>773</v>
       </c>
@@ -7184,11 +7206,11 @@
       <c r="H351">
         <v>3</v>
       </c>
-      <c r="M351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>772</v>
       </c>
@@ -7468,7 +7490,7 @@
         <v>44563</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>755</v>
       </c>
@@ -7490,11 +7512,11 @@
       <c r="H369" s="9">
         <v>1</v>
       </c>
-      <c r="M369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>754</v>
       </c>
@@ -7519,9 +7541,6 @@
       <c r="H370" s="9">
         <v>2</v>
       </c>
-      <c r="L370">
-        <v>1</v>
-      </c>
       <c r="M370">
         <v>1</v>
       </c>
@@ -7531,8 +7550,11 @@
       <c r="O370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>753</v>
       </c>
@@ -7558,7 +7580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>752</v>
       </c>
@@ -7583,11 +7605,11 @@
       <c r="H372" s="9">
         <v>1</v>
       </c>
-      <c r="M372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>751</v>
       </c>
@@ -7613,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>750</v>
       </c>
@@ -7627,7 +7649,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>749</v>
       </c>
@@ -7647,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>748</v>
       </c>
@@ -7670,7 +7692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>747</v>
       </c>
@@ -7693,7 +7715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>746</v>
       </c>
@@ -7707,7 +7729,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>745</v>
       </c>
@@ -7730,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>744</v>
       </c>
@@ -7744,7 +7766,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>743</v>
       </c>
@@ -7758,7 +7780,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>742</v>
       </c>
@@ -7778,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>741</v>
       </c>
@@ -7801,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>740</v>
       </c>
@@ -7824,7 +7846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>739</v>
       </c>
@@ -7841,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>738</v>
       </c>
@@ -7864,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>737</v>
       </c>
@@ -7887,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>736</v>
       </c>
@@ -7901,7 +7923,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>735</v>
       </c>
@@ -7924,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>734</v>
       </c>
@@ -7947,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>733</v>
       </c>
@@ -7960,8 +7982,17 @@
       <c r="D391" s="2">
         <v>44586</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F391" s="9">
+        <v>2</v>
+      </c>
+      <c r="G391" s="9">
+        <v>2</v>
+      </c>
+      <c r="H391" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>732</v>
       </c>
@@ -7975,7 +8006,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>731</v>
       </c>
@@ -7988,8 +8019,17 @@
       <c r="D393" s="2">
         <v>44588</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F393" s="9">
+        <v>2</v>
+      </c>
+      <c r="G393" s="9">
+        <v>2</v>
+      </c>
+      <c r="H393" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>730</v>
       </c>
@@ -8002,8 +8042,17 @@
       <c r="D394" s="2">
         <v>44589</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F394" s="9">
+        <v>2</v>
+      </c>
+      <c r="G394" s="9">
+        <v>1</v>
+      </c>
+      <c r="H394" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>729</v>
       </c>
@@ -8017,7 +8066,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>728</v>
       </c>
@@ -8030,8 +8079,11 @@
       <c r="D396" s="2">
         <v>44591</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E396" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>727</v>
       </c>
@@ -8044,8 +8096,20 @@
       <c r="D397" s="2">
         <v>44592</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F397" s="9">
+        <v>2</v>
+      </c>
+      <c r="G397" s="9">
+        <v>2</v>
+      </c>
+      <c r="H397" s="9">
+        <v>2</v>
+      </c>
+      <c r="N397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>726</v>
       </c>
@@ -8058,8 +8122,14 @@
       <c r="D398" s="2">
         <v>44593</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F398" s="9">
+        <v>1</v>
+      </c>
+      <c r="G398" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>725</v>
       </c>
@@ -8072,8 +8142,11 @@
       <c r="D399" s="2">
         <v>44594</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F399" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>724</v>
       </c>
@@ -8086,8 +8159,20 @@
       <c r="D400" s="2">
         <v>44595</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F400" s="9">
+        <v>2</v>
+      </c>
+      <c r="G400" s="9">
+        <v>2</v>
+      </c>
+      <c r="H400" s="9">
+        <v>2</v>
+      </c>
+      <c r="N400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>723</v>
       </c>
@@ -8100,8 +8185,17 @@
       <c r="D401" s="2">
         <v>44596</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F401" s="9">
+        <v>2</v>
+      </c>
+      <c r="G401" s="9">
+        <v>2</v>
+      </c>
+      <c r="N401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>722</v>
       </c>
@@ -8115,7 +8209,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>721</v>
       </c>
@@ -8128,8 +8222,14 @@
       <c r="D403" s="2">
         <v>44598</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>720</v>
       </c>
@@ -8142,8 +8242,23 @@
       <c r="D404" s="2">
         <v>44599</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E404" s="9">
+        <v>1</v>
+      </c>
+      <c r="F404" s="9">
+        <v>5</v>
+      </c>
+      <c r="G404" s="9">
+        <v>4</v>
+      </c>
+      <c r="H404" s="9">
+        <v>4</v>
+      </c>
+      <c r="I404" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>719</v>
       </c>
@@ -8156,8 +8271,20 @@
       <c r="D405" s="2">
         <v>44600</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E405" s="9">
+        <v>1</v>
+      </c>
+      <c r="F405" s="9">
+        <v>2</v>
+      </c>
+      <c r="G405" s="9">
+        <v>3</v>
+      </c>
+      <c r="H405" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>718</v>
       </c>
@@ -8170,8 +8297,20 @@
       <c r="D406" s="2">
         <v>44601</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E406" s="9">
+        <v>1</v>
+      </c>
+      <c r="G406" s="9">
+        <v>1</v>
+      </c>
+      <c r="H406" s="9">
+        <v>1</v>
+      </c>
+      <c r="N406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>717</v>
       </c>
@@ -8184,8 +8323,20 @@
       <c r="D407" s="2">
         <v>44602</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E407" s="9">
+        <v>1</v>
+      </c>
+      <c r="F407" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="G407" s="9">
+        <v>2</v>
+      </c>
+      <c r="H407" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>716</v>
       </c>
@@ -8199,7 +8350,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>715</v>
       </c>
@@ -8213,7 +8364,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>714</v>
       </c>
@@ -8227,7 +8378,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>713</v>
       </c>
@@ -8240,8 +8391,14 @@
       <c r="D411" s="2">
         <v>44606</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F411" s="9">
+        <v>1</v>
+      </c>
+      <c r="G411" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>712</v>
       </c>
@@ -8254,8 +8411,20 @@
       <c r="D412" s="2">
         <v>44607</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E412" s="9">
+        <v>1</v>
+      </c>
+      <c r="F412" s="9">
+        <v>2</v>
+      </c>
+      <c r="G412" s="9">
+        <v>3</v>
+      </c>
+      <c r="H412" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>711</v>
       </c>
@@ -8268,8 +8437,20 @@
       <c r="D413" s="2">
         <v>44608</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F413" s="9">
+        <v>2</v>
+      </c>
+      <c r="G413" s="9">
+        <v>2</v>
+      </c>
+      <c r="H413" s="9">
+        <v>3</v>
+      </c>
+      <c r="I413" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>710</v>
       </c>
@@ -8282,8 +8463,20 @@
       <c r="D414" s="2">
         <v>44609</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E414" s="9">
+        <v>1</v>
+      </c>
+      <c r="F414" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G414" s="9">
+        <v>1</v>
+      </c>
+      <c r="H414" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>709</v>
       </c>
@@ -8296,8 +8489,17 @@
       <c r="D415" s="2">
         <v>44610</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F415" s="9">
+        <v>1</v>
+      </c>
+      <c r="G415" s="9">
+        <v>1</v>
+      </c>
+      <c r="H415" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>708</v>
       </c>
@@ -8310,8 +8512,17 @@
       <c r="D416" s="2">
         <v>44611</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F416" s="9">
+        <v>1</v>
+      </c>
+      <c r="G416" s="9">
+        <v>1</v>
+      </c>
+      <c r="H416" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>707</v>
       </c>
@@ -8325,7 +8536,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>706</v>
       </c>
@@ -8338,8 +8549,20 @@
       <c r="D418" s="2">
         <v>44613</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F418" s="9">
+        <v>1</v>
+      </c>
+      <c r="G418" s="9">
+        <v>1</v>
+      </c>
+      <c r="H418" s="9">
+        <v>2</v>
+      </c>
+      <c r="I418" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>705</v>
       </c>
@@ -8352,8 +8575,17 @@
       <c r="D419" s="2">
         <v>44614</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F419" s="9">
+        <v>1</v>
+      </c>
+      <c r="G419" s="9">
+        <v>1</v>
+      </c>
+      <c r="H419" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>704</v>
       </c>
@@ -8367,7 +8599,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>703</v>
       </c>
@@ -8380,8 +8612,17 @@
       <c r="D421" s="2">
         <v>44616</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F421" s="9">
+        <v>1</v>
+      </c>
+      <c r="G421" s="9">
+        <v>1</v>
+      </c>
+      <c r="H421" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>702</v>
       </c>
@@ -8395,7 +8636,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>701</v>
       </c>
@@ -8409,7 +8650,7 @@
         <v>44618</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>700</v>
       </c>
@@ -8423,7 +8664,7 @@
         <v>44619</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>699</v>
       </c>
@@ -8436,8 +8677,20 @@
       <c r="D425" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F425" s="9">
+        <v>5</v>
+      </c>
+      <c r="G425" s="9">
+        <v>5</v>
+      </c>
+      <c r="H425" s="9">
+        <v>4</v>
+      </c>
+      <c r="I425" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>698</v>
       </c>
@@ -8450,582 +8703,917 @@
       <c r="D426" s="2">
         <v>44621</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F426" s="9">
+        <v>2</v>
+      </c>
+      <c r="G426" s="9">
+        <v>2</v>
+      </c>
+      <c r="H426" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>697</v>
       </c>
       <c r="B427">
         <v>303</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427" s="12">
         <v>44622</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E427" s="13"/>
+      <c r="F427" s="13">
+        <v>3</v>
+      </c>
+      <c r="G427" s="13">
+        <v>2</v>
+      </c>
+      <c r="H427" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>696</v>
       </c>
       <c r="B428">
         <v>304</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="12">
         <v>44623</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E428" s="13"/>
+      <c r="F428" s="13">
+        <v>1</v>
+      </c>
+      <c r="G428" s="13">
+        <v>1</v>
+      </c>
+      <c r="H428" s="11"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>695</v>
       </c>
       <c r="B429">
         <v>305</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="12">
         <v>44624</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E429" s="13"/>
+      <c r="F429" s="13">
+        <v>5</v>
+      </c>
+      <c r="G429" s="13">
+        <v>5</v>
+      </c>
+      <c r="H429" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>694</v>
       </c>
       <c r="B430">
         <v>306</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="12">
         <v>44625</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E430" s="13"/>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="11"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>693</v>
       </c>
       <c r="B431">
         <v>307</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431" s="12">
         <v>44626</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E431" s="13"/>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="11"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>692</v>
       </c>
       <c r="B432">
         <v>308</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432" s="12">
         <v>44627</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E432" s="13"/>
+      <c r="F432" s="11"/>
+      <c r="G432" s="11"/>
+      <c r="H432" s="11"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>691</v>
       </c>
       <c r="B433">
         <v>309</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433" s="12">
         <v>44628</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E433" s="13"/>
+      <c r="F433" s="11"/>
+      <c r="G433" s="11"/>
+      <c r="H433" s="11"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>690</v>
       </c>
       <c r="B434">
         <v>310</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434" s="12">
         <v>44629</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E434" s="13"/>
+      <c r="F434" s="11"/>
+      <c r="G434" s="11"/>
+      <c r="H434" s="11"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>689</v>
       </c>
       <c r="B435">
         <v>311</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435" s="12">
         <v>44630</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E435" s="13"/>
+      <c r="F435" s="11"/>
+      <c r="G435" s="11"/>
+      <c r="H435" s="11"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>688</v>
       </c>
       <c r="B436">
         <v>312</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436" s="12">
         <v>44631</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E436" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H436" s="11"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>687</v>
       </c>
       <c r="B437">
         <v>313</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437" s="12">
         <v>44632</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E437" s="13"/>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="11">
+        <v>1</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>686</v>
       </c>
       <c r="B438">
         <v>314</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="12">
         <v>44633</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E438" s="13"/>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="11"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>685</v>
       </c>
       <c r="B439">
         <v>315</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="12">
         <v>44634</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E439" s="13"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="11"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>684</v>
       </c>
       <c r="B440">
         <v>316</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="12">
         <v>44635</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E440" s="13"/>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="11"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>683</v>
       </c>
       <c r="B441">
         <v>317</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="12">
         <v>44636</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E441" s="13">
+        <v>1</v>
+      </c>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11">
+        <v>1</v>
+      </c>
+      <c r="H441" s="11"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>682</v>
       </c>
       <c r="B442">
         <v>318</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="12">
         <v>44637</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E442" s="13"/>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="11"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>681</v>
       </c>
       <c r="B443">
         <v>319</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443" s="12">
         <v>44638</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E443" s="13">
+        <v>1</v>
+      </c>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11">
+        <v>1</v>
+      </c>
+      <c r="H443" s="11"/>
+      <c r="K443" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>680</v>
       </c>
       <c r="B444">
         <v>320</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444" s="12">
         <v>44639</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E444" s="13">
+        <v>1</v>
+      </c>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11">
+        <v>1</v>
+      </c>
+      <c r="H444" s="11"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>679</v>
       </c>
       <c r="B445">
         <v>321</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="12">
         <v>44640</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E445" s="13"/>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="11">
+        <v>1</v>
+      </c>
+      <c r="I445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>678</v>
       </c>
       <c r="B446">
         <v>322</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446" s="12">
         <v>44641</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E446" s="13"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11">
+        <v>1</v>
+      </c>
+      <c r="H446" s="11">
+        <v>1</v>
+      </c>
+      <c r="K446" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>677</v>
       </c>
       <c r="B447">
         <v>323</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="12">
         <v>44642</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E447" s="13"/>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="11"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>676</v>
       </c>
       <c r="B448">
         <v>324</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="12">
         <v>44643</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E448" s="13">
+        <v>1</v>
+      </c>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11">
+        <v>1</v>
+      </c>
+      <c r="H448" s="11"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>675</v>
       </c>
       <c r="B449">
         <v>325</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="12">
         <v>44644</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E449" s="13">
+        <v>1</v>
+      </c>
+      <c r="F449" s="11"/>
+      <c r="G449" s="11"/>
+      <c r="H449" s="11"/>
+      <c r="K449" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>674</v>
       </c>
       <c r="B450">
         <v>326</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450" s="12">
         <v>44645</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E450" s="13">
+        <v>1</v>
+      </c>
+      <c r="F450" s="11"/>
+      <c r="G450" s="11">
+        <v>1</v>
+      </c>
+      <c r="H450" s="11"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>673</v>
       </c>
       <c r="B451">
         <v>327</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="12">
         <v>44646</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E451" s="13">
+        <v>1</v>
+      </c>
+      <c r="F451" s="11">
+        <v>3</v>
+      </c>
+      <c r="G451" s="11">
+        <v>3</v>
+      </c>
+      <c r="H451" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>672</v>
       </c>
       <c r="B452">
         <v>328</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="12">
         <v>44647</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E452" s="13">
+        <v>1</v>
+      </c>
+      <c r="F452" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="G452" s="11">
+        <v>2</v>
+      </c>
+      <c r="H452" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>671</v>
       </c>
       <c r="B453">
         <v>329</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="12">
         <v>44648</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E453" s="13"/>
+      <c r="F453" s="11">
+        <v>4</v>
+      </c>
+      <c r="G453" s="11">
+        <v>4</v>
+      </c>
+      <c r="H453" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>670</v>
       </c>
       <c r="B454">
         <v>330</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454" s="12">
         <v>44649</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E454" s="13"/>
+      <c r="F454" s="11">
+        <v>5</v>
+      </c>
+      <c r="G454" s="11">
+        <v>4</v>
+      </c>
+      <c r="H454" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>669</v>
       </c>
       <c r="B455">
         <v>331</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455" s="12">
         <v>44650</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E455" s="13">
+        <v>2</v>
+      </c>
+      <c r="F455" s="11">
+        <v>2</v>
+      </c>
+      <c r="G455" s="11">
+        <v>4</v>
+      </c>
+      <c r="H455" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>668</v>
       </c>
       <c r="B456">
         <v>332</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456" s="12">
         <v>44651</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E456" s="13">
+        <v>1</v>
+      </c>
+      <c r="F456" s="11">
+        <v>1</v>
+      </c>
+      <c r="G456" s="11">
+        <v>2</v>
+      </c>
+      <c r="H456" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>667</v>
       </c>
       <c r="B457">
         <v>333</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="12">
         <v>44652</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E457" s="13"/>
+      <c r="F457" s="11">
+        <v>1</v>
+      </c>
+      <c r="G457" s="11">
+        <v>1</v>
+      </c>
+      <c r="H457" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>666</v>
       </c>
       <c r="B458">
         <v>334</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C458" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="12">
         <v>44653</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E458" s="13">
+        <v>1</v>
+      </c>
+      <c r="F458" s="11"/>
+      <c r="G458" s="11">
+        <v>1</v>
+      </c>
+      <c r="H458" s="11"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>665</v>
       </c>
       <c r="B459">
         <v>335</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="12">
         <v>44654</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E459" s="13"/>
+      <c r="F459" s="11">
+        <v>1</v>
+      </c>
+      <c r="G459" s="11">
+        <v>1</v>
+      </c>
+      <c r="H459" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>664</v>
       </c>
       <c r="B460">
         <v>336</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460" s="12">
         <v>44655</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E460" s="13"/>
+      <c r="F460" s="11">
+        <v>1</v>
+      </c>
+      <c r="G460" s="11">
+        <v>1</v>
+      </c>
+      <c r="H460" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>663</v>
       </c>
       <c r="B461">
         <v>337</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="12">
         <v>44656</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E461" s="13"/>
+      <c r="F461" s="11">
+        <v>5</v>
+      </c>
+      <c r="G461" s="11">
+        <v>4</v>
+      </c>
+      <c r="H461" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>662</v>
       </c>
       <c r="B462">
         <v>338</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="12">
         <v>44657</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E462" s="13"/>
+      <c r="F462" s="11">
+        <v>2</v>
+      </c>
+      <c r="G462" s="11">
+        <v>2</v>
+      </c>
+      <c r="H462" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>661</v>
       </c>
       <c r="B463">
         <v>339</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="12">
         <v>44658</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E463" s="13"/>
+      <c r="F463" s="11">
+        <v>1</v>
+      </c>
+      <c r="G463" s="11"/>
+      <c r="H463" s="11">
+        <v>1</v>
+      </c>
+      <c r="I463" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>660</v>
       </c>
       <c r="B464">
         <v>340</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="12">
         <v>44659</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E464" s="13"/>
+      <c r="F464" s="11">
+        <v>3</v>
+      </c>
+      <c r="G464" s="11">
+        <v>3</v>
+      </c>
+      <c r="H464" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>659</v>
       </c>
       <c r="B465">
         <v>341</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="12">
         <v>44660</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E465" s="13"/>
+      <c r="F465" s="11"/>
+      <c r="G465" s="11"/>
+      <c r="H465" s="11"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>658</v>
       </c>
       <c r="B466">
         <v>342</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="12">
         <v>44661</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E466" s="13"/>
+      <c r="F466" s="11"/>
+      <c r="G466" s="11"/>
+      <c r="H466" s="11"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>657</v>
       </c>
       <c r="B467">
         <v>343</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467" s="12">
         <v>44662</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E467" s="13"/>
+      <c r="F467" s="11">
+        <v>7</v>
+      </c>
+      <c r="G467" s="11">
+        <v>6</v>
+      </c>
+      <c r="H467" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>656</v>
       </c>
@@ -9038,8 +9626,17 @@
       <c r="D468" s="2">
         <v>44663</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F468">
+        <v>3</v>
+      </c>
+      <c r="G468">
+        <v>3</v>
+      </c>
+      <c r="H468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>655</v>
       </c>
@@ -9052,8 +9649,17 @@
       <c r="D469" s="2">
         <v>44664</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F469">
+        <v>2</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>654</v>
       </c>
@@ -9066,8 +9672,17 @@
       <c r="D470" s="2">
         <v>44665</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F470">
+        <v>3</v>
+      </c>
+      <c r="G470">
+        <v>3</v>
+      </c>
+      <c r="H470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>653</v>
       </c>
@@ -9080,8 +9695,20 @@
       <c r="D471" s="2">
         <v>44666</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E471" s="9">
+        <v>1</v>
+      </c>
+      <c r="F471" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G471" s="9">
+        <v>1</v>
+      </c>
+      <c r="H471" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>652</v>
       </c>
@@ -9095,7 +9722,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>651</v>
       </c>
@@ -9109,7 +9736,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>650</v>
       </c>
@@ -9123,7 +9750,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>649</v>
       </c>
@@ -9137,7 +9764,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>648</v>
       </c>
@@ -9151,7 +9778,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>647</v>
       </c>
@@ -9165,7 +9792,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>646</v>
       </c>
@@ -9179,7 +9806,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>645</v>
       </c>
@@ -9193,7 +9820,7 @@
         <v>44674</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>644</v>
       </c>
@@ -18923,7 +19550,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="25" width="7" bestFit="1" customWidth="1"/>
     <col min="26" max="30" width="6.88671875" bestFit="1" customWidth="1"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1197,8 +1197,8 @@
   <dimension ref="A1:AI1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I477" sqref="I477"/>
+      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H484" sqref="H484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9821,6 +9821,15 @@
       <c r="D477" s="2">
         <v>44672</v>
       </c>
+      <c r="F477" s="9">
+        <v>3</v>
+      </c>
+      <c r="G477" s="9">
+        <v>3</v>
+      </c>
+      <c r="H477" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A478">
@@ -9835,6 +9844,15 @@
       <c r="D478" s="2">
         <v>44673</v>
       </c>
+      <c r="F478" s="9">
+        <v>3</v>
+      </c>
+      <c r="G478" s="9">
+        <v>3</v>
+      </c>
+      <c r="H478" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A479">
@@ -9849,6 +9867,15 @@
       <c r="D479" s="2">
         <v>44674</v>
       </c>
+      <c r="F479" s="9">
+        <v>1</v>
+      </c>
+      <c r="G479" s="9">
+        <v>1</v>
+      </c>
+      <c r="H479" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A480">
@@ -9864,7 +9891,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>643</v>
       </c>
@@ -9877,8 +9904,14 @@
       <c r="D481" s="2">
         <v>44676</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>642</v>
       </c>
@@ -9891,8 +9924,17 @@
       <c r="D482" s="2">
         <v>44677</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F482" s="9">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>641</v>
       </c>
@@ -9905,8 +9947,17 @@
       <c r="D483" s="2">
         <v>44678</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F483" s="9">
+        <v>1</v>
+      </c>
+      <c r="G483" s="9">
+        <v>1</v>
+      </c>
+      <c r="H483" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>640</v>
       </c>
@@ -9920,7 +9971,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>639</v>
       </c>
@@ -9934,7 +9985,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>638</v>
       </c>
@@ -9948,7 +9999,7 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>637</v>
       </c>
@@ -9962,7 +10013,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>636</v>
       </c>
@@ -9976,7 +10027,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>635</v>
       </c>
@@ -9990,7 +10041,7 @@
         <v>44684</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>634</v>
       </c>
@@ -10004,7 +10055,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>633</v>
       </c>
@@ -10018,7 +10069,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>632</v>
       </c>
@@ -10032,7 +10083,7 @@
         <v>44687</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>631</v>
       </c>
@@ -10046,7 +10097,7 @@
         <v>44688</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>630</v>
       </c>
@@ -10060,7 +10111,7 @@
         <v>44689</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>629</v>
       </c>
@@ -10074,7 +10125,7 @@
         <v>44690</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>628</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582D11F7-6099-4252-9B5D-4420A7894FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03162D9B-A0BF-4119-8846-A2DB04030DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20910" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
-    <sheet name="Brendon" sheetId="6" r:id="rId2"/>
-    <sheet name="exercices" sheetId="4" r:id="rId3"/>
-    <sheet name="croyances limitantes" sheetId="5" r:id="rId4"/>
+    <sheet name="busyme" sheetId="7" r:id="rId2"/>
+    <sheet name="Brendon" sheetId="6" r:id="rId3"/>
+    <sheet name="exercices" sheetId="4" r:id="rId4"/>
+    <sheet name="croyances limitantes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -510,7 +511,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="145">
   <si>
     <t>muscu</t>
   </si>
@@ -718,12 +719,240 @@
   <si>
     <t>res</t>
   </si>
+  <si>
+    <t>TiddlyWiki</t>
+  </si>
+  <si>
+    <t>Getting Things Done</t>
+  </si>
+  <si>
+    <t>Zettelkasten</t>
+  </si>
+  <si>
+    <t>Obsidian</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>wowserver</t>
+  </si>
+  <si>
+    <t>vater</t>
+  </si>
+  <si>
+    <t>everywhere-bundle</t>
+  </si>
+  <si>
+    <t>podcasts</t>
+  </si>
+  <si>
+    <t>Ema Krusi - Faux Départs</t>
+  </si>
+  <si>
+    <t>Thinkerview</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>Padovani</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>reads</t>
+  </si>
+  <si>
+    <t>LDVH</t>
+  </si>
+  <si>
+    <t>exercises</t>
+  </si>
+  <si>
+    <t>presti</t>
+  </si>
+  <si>
+    <t>organis° &amp; productvT</t>
+  </si>
+  <si>
+    <t>flashcards</t>
+  </si>
+  <si>
+    <t>HM / philo</t>
+  </si>
+  <si>
+    <t>Monthoux</t>
+  </si>
+  <si>
+    <t>stealth</t>
+  </si>
+  <si>
+    <t>stégo</t>
+  </si>
+  <si>
+    <t>hidden container</t>
+  </si>
+  <si>
+    <t>ebook reframing / Word-like viewer</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>tbc: warlock</t>
+  </si>
+  <si>
+    <t>vanilla: frost mage</t>
+  </si>
+  <si>
+    <t>wotlk: ?</t>
+  </si>
+  <si>
+    <t>mop: BOTS</t>
+  </si>
+  <si>
+    <t>mop: monk</t>
+  </si>
+  <si>
+    <t>mop: Worgen</t>
+  </si>
+  <si>
+    <t>mop: Gob</t>
+  </si>
+  <si>
+    <t>tbc: shadowstep</t>
+  </si>
+  <si>
+    <t>mop: warlock:metamorphosis?</t>
+  </si>
+  <si>
+    <t>macros</t>
+  </si>
+  <si>
+    <t>speed++</t>
+  </si>
+  <si>
+    <t>speed:reset</t>
+  </si>
+  <si>
+    <t>learn: warlock</t>
+  </si>
+  <si>
+    <t>learn: mage</t>
+  </si>
+  <si>
+    <t>Kilrog</t>
+  </si>
+  <si>
+    <t>Blink</t>
+  </si>
+  <si>
+    <t>Ice Block</t>
+  </si>
+  <si>
+    <t>learn: shaman</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>water walk</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>learn: hunter</t>
+  </si>
+  <si>
+    <t>vanilla: hunter</t>
+  </si>
+  <si>
+    <t>cheetah</t>
+  </si>
+  <si>
+    <t>Frost Nova</t>
+  </si>
+  <si>
+    <t>resurrection</t>
+  </si>
+  <si>
+    <t>server alterations</t>
+  </si>
+  <si>
+    <t>speed:ghost</t>
+  </si>
+  <si>
+    <t>xp:1,5 / 2</t>
+  </si>
+  <si>
+    <t>droprate: x3</t>
+  </si>
+  <si>
+    <t>crafts limit</t>
+  </si>
+  <si>
+    <t>health stone</t>
+  </si>
+  <si>
+    <t>add soul shard</t>
+  </si>
+  <si>
+    <t>learn: rogue</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>shadowstep</t>
+  </si>
+  <si>
+    <t>sinister strike</t>
+  </si>
+  <si>
+    <t>Rate.Drop.Item.*</t>
+  </si>
+  <si>
+    <t>Rate.XP.Kill, Rate.XP.Quest</t>
+  </si>
+  <si>
+    <t>Death.Ghost.RunSpeed.World</t>
+  </si>
+  <si>
+    <t>ai conf alterations</t>
+  </si>
+  <si>
+    <t>bots level</t>
+  </si>
+  <si>
+    <t>bots nb</t>
+  </si>
+  <si>
+    <t>AiPlayerbot.MinRandomBots</t>
+  </si>
+  <si>
+    <t>AiPlayerbot.RandomBotMinLevel</t>
+  </si>
+  <si>
+    <t>learn: DK</t>
+  </si>
+  <si>
+    <t>Death Grip</t>
+  </si>
+  <si>
+    <t>gouge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +972,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -801,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -815,6 +1052,7 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,9 +1355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI1150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H518" sqref="H518"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I530" sqref="I530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10532,7 +10770,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>611</v>
       </c>
@@ -10546,7 +10784,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>610</v>
       </c>
@@ -10560,7 +10798,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>609</v>
       </c>
@@ -10583,7 +10821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>608</v>
       </c>
@@ -10610,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>607</v>
       </c>
@@ -10633,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>606</v>
       </c>
@@ -10646,8 +10884,20 @@
       <c r="D518" s="1">
         <v>44713</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E518" s="7">
+        <v>1</v>
+      </c>
+      <c r="F518" s="7">
+        <v>3</v>
+      </c>
+      <c r="G518" s="7">
+        <v>4</v>
+      </c>
+      <c r="H518" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>605</v>
       </c>
@@ -10660,8 +10910,11 @@
       <c r="D519" s="1">
         <v>44714</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>604</v>
       </c>
@@ -10675,7 +10928,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>603</v>
       </c>
@@ -10688,8 +10941,23 @@
       <c r="D521" s="1">
         <v>44716</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F521" s="7">
+        <v>1</v>
+      </c>
+      <c r="G521" s="7">
+        <v>1</v>
+      </c>
+      <c r="H521" s="7">
+        <v>1</v>
+      </c>
+      <c r="M521">
+        <v>1</v>
+      </c>
+      <c r="N521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>602</v>
       </c>
@@ -10703,7 +10971,7 @@
         <v>44717</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>601</v>
       </c>
@@ -10716,8 +10984,17 @@
       <c r="D523" s="1">
         <v>44718</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F523" s="7">
+        <v>3</v>
+      </c>
+      <c r="G523" s="7">
+        <v>3</v>
+      </c>
+      <c r="H523" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>600</v>
       </c>
@@ -10730,8 +11007,17 @@
       <c r="D524" s="1">
         <v>44719</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F524" s="7">
+        <v>2</v>
+      </c>
+      <c r="G524" s="7">
+        <v>2</v>
+      </c>
+      <c r="H524" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>599</v>
       </c>
@@ -10744,8 +11030,20 @@
       <c r="D525" s="1">
         <v>44720</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E525" s="7">
+        <v>1</v>
+      </c>
+      <c r="F525" s="7">
+        <v>4</v>
+      </c>
+      <c r="G525" s="7">
+        <v>4</v>
+      </c>
+      <c r="H525" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>598</v>
       </c>
@@ -10758,8 +11056,20 @@
       <c r="D526" s="1">
         <v>44721</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F526" s="7">
+        <v>2</v>
+      </c>
+      <c r="G526" s="7">
+        <v>2</v>
+      </c>
+      <c r="H526" s="7">
+        <v>2</v>
+      </c>
+      <c r="N526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>597</v>
       </c>
@@ -10773,7 +11083,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>596</v>
       </c>
@@ -10786,8 +11096,17 @@
       <c r="D528" s="1">
         <v>44723</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F528" s="7">
+        <v>2</v>
+      </c>
+      <c r="G528" s="7">
+        <v>2</v>
+      </c>
+      <c r="H528" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>595</v>
       </c>
@@ -10800,8 +11119,11 @@
       <c r="D529" s="1">
         <v>44724</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>594</v>
       </c>
@@ -10815,7 +11137,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>593</v>
       </c>
@@ -10829,7 +11151,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>592</v>
       </c>
@@ -10843,7 +11165,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>591</v>
       </c>
@@ -10857,7 +11179,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>590</v>
       </c>
@@ -10871,7 +11193,7 @@
         <v>44729</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>589</v>
       </c>
@@ -10885,7 +11207,7 @@
         <v>44730</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>588</v>
       </c>
@@ -10899,7 +11221,7 @@
         <v>44731</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>587</v>
       </c>
@@ -10913,7 +11235,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>586</v>
       </c>
@@ -10927,7 +11249,7 @@
         <v>44733</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>585</v>
       </c>
@@ -10941,7 +11263,7 @@
         <v>44734</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>584</v>
       </c>
@@ -10955,7 +11277,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>583</v>
       </c>
@@ -10969,7 +11291,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>582</v>
       </c>
@@ -10983,7 +11305,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>581</v>
       </c>
@@ -10997,7 +11319,7 @@
         <v>44738</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>580</v>
       </c>
@@ -19347,6 +19669,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7B9694-6456-4536-A2E4-AA62B202B55D}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -19399,7 +20117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -19499,7 +20217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\slemoine\privé perso\PortableGit\lenopgm\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70A75AE-2AE3-474C-A017-826E17CA7E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21852" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21852" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="exercices" sheetId="4" r:id="rId5"/>
     <sheet name="croyances limitantes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>sccmadmin</author>
     <author>tc={015288D9-AB8B-483E-A627-BF04BBF923F0}</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="F42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="H49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="F61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="H61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="F141" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="F147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F174" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="F174" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F187" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="F187" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F188" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="F188" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G188" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="G188" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H197" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="H197" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="F232" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="H238" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="I238" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="I240" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,12 +507,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="I516" authorId="1" shapeId="0" xr:uid="{015288D9-AB8B-483E-A627-BF04BBF923F0}">
+    <comment ref="I516" authorId="1" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     no e</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -521,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="185">
   <si>
     <t>muscu</t>
   </si>
@@ -1068,11 +1076,20 @@
   <si>
     <t xml:space="preserve"> -heals</t>
   </si>
+  <si>
+    <t>pn flashes</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1153,7 +1170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1198,11 +1215,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1224,6 +1261,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,12 +1565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI1150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F546" sqref="F546"/>
+      <pane ySplit="1" topLeftCell="A555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K564" sqref="K564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,29 +1583,29 @@
     <col min="8" max="8" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.33203125" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" customWidth="1"/>
-    <col min="14" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" customWidth="1"/>
-    <col min="21" max="22" width="5.33203125" customWidth="1"/>
-    <col min="23" max="24" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.33203125" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" customWidth="1"/>
-    <col min="29" max="29" width="3.33203125" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" customWidth="1"/>
-    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" customWidth="1"/>
-    <col min="33" max="34" width="7.33203125" customWidth="1"/>
-    <col min="35" max="35" width="6.6640625" customWidth="1"/>
+    <col min="11" max="12" width="2.6640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" customWidth="1"/>
+    <col min="15" max="17" width="8.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="23" width="5.33203125" customWidth="1"/>
+    <col min="24" max="25" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" customWidth="1"/>
+    <col min="30" max="30" width="3.33203125" customWidth="1"/>
+    <col min="31" max="31" width="5.6640625" customWidth="1"/>
+    <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" customWidth="1"/>
+    <col min="34" max="35" width="7.33203125" customWidth="1"/>
+    <col min="36" max="36" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:36" x14ac:dyDescent="0.3">
       <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1585,65 +1627,68 @@
       <c r="K1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>22</v>
       </c>
@@ -1651,7 +1696,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -1695,7 +1740,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -1731,14 +1776,14 @@
         <v>44204</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -1765,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -1780,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -1789,7 +1834,7 @@
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1843,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -1807,7 +1852,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:36" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -1973,7 +2018,7 @@
       </c>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -1981,14 +2026,14 @@
         <v>44228</v>
       </c>
       <c r="F33" s="14"/>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>6</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -2002,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2056,7 @@
       </c>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -2019,11 +2064,11 @@
         <v>44231</v>
       </c>
       <c r="F36" s="14"/>
-      <c r="U36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -2031,11 +2076,11 @@
         <v>44232</v>
       </c>
       <c r="F37" s="14"/>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -2044,7 +2089,7 @@
       </c>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2098,7 @@
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -2062,7 +2107,7 @@
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -2071,7 +2116,7 @@
       </c>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -2088,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2141,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -2104,7 +2149,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -2121,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>24</v>
       </c>
@@ -2129,7 +2174,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>18</v>
       </c>
@@ -2146,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -2157,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>20</v>
       </c>
@@ -2174,24 +2219,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="1">
         <v>44245</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>25</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -2208,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -2219,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>24</v>
       </c>
@@ -2227,7 +2272,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>18</v>
       </c>
@@ -2235,7 +2280,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>19</v>
       </c>
@@ -2243,7 +2288,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>20</v>
       </c>
@@ -2254,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>21</v>
       </c>
@@ -2264,17 +2309,17 @@
       <c r="H57" t="s">
         <v>28</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>27</v>
       </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
       <c r="O57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -2282,7 +2327,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>23</v>
       </c>
@@ -2290,7 +2335,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>24</v>
       </c>
@@ -2298,7 +2343,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>18</v>
       </c>
@@ -2312,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>19</v>
       </c>
@@ -2323,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -2340,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>21</v>
       </c>
@@ -2348,7 +2393,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>22</v>
       </c>
@@ -2356,7 +2401,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>24</v>
       </c>
@@ -2384,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>22</v>
       </c>
@@ -2457,7 +2502,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>23</v>
       </c>
@@ -2465,7 +2510,7 @@
         <v>44268</v>
       </c>
     </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2518,7 @@
         <v>44269</v>
       </c>
     </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>18</v>
       </c>
@@ -2481,24 +2526,24 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="1">
         <v>44271</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>27</v>
       </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
       <c r="O76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>21</v>
       </c>
@@ -2526,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>22</v>
       </c>
@@ -2534,7 +2579,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2587,7 @@
         <v>44275</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2595,7 @@
         <v>44276</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>18</v>
       </c>
@@ -2558,7 +2603,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>19</v>
       </c>
@@ -2566,7 +2611,7 @@
         <v>44278</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>20</v>
       </c>
@@ -2576,11 +2621,11 @@
       <c r="F84">
         <v>0.5</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>21</v>
       </c>
@@ -2588,7 +2633,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>22</v>
       </c>
@@ -2599,7 +2644,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>23</v>
       </c>
@@ -2607,7 +2652,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>24</v>
       </c>
@@ -2615,7 +2660,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>18</v>
       </c>
@@ -2623,7 +2668,7 @@
         <v>44284</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2676,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>20</v>
       </c>
@@ -2648,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>21</v>
       </c>
@@ -2662,11 +2707,11 @@
       <c r="H92">
         <v>1</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2720,7 @@
       </c>
       <c r="F93" s="14"/>
     </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>23</v>
       </c>
@@ -2684,7 +2729,7 @@
       </c>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2738,7 @@
       </c>
       <c r="F95" s="14"/>
     </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>18</v>
       </c>
@@ -2707,11 +2752,11 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>19</v>
       </c>
@@ -2726,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>20</v>
       </c>
@@ -2735,7 +2780,7 @@
       </c>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>21</v>
       </c>
@@ -2746,17 +2791,17 @@
       <c r="G99">
         <v>1</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>29</v>
       </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
       <c r="O99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>23</v>
       </c>
@@ -2780,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>24</v>
       </c>
@@ -2789,7 +2834,7 @@
       </c>
       <c r="F102" s="14"/>
     </row>
-    <row r="103" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>18</v>
       </c>
@@ -2806,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>19</v>
       </c>
@@ -2820,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>20</v>
       </c>
@@ -2830,11 +2875,11 @@
       <c r="G105">
         <v>1</v>
       </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>21</v>
       </c>
@@ -2842,7 +2887,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="107" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>23</v>
       </c>
@@ -2867,7 +2912,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="109" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>24</v>
       </c>
@@ -2875,7 +2920,7 @@
         <v>44304</v>
       </c>
     </row>
-    <row r="110" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>18</v>
       </c>
@@ -2889,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>19</v>
       </c>
@@ -2903,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>20</v>
       </c>
@@ -2911,7 +2956,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>21</v>
       </c>
@@ -2919,24 +2964,24 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="1">
         <v>44309</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>29</v>
       </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
       <c r="O114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>23</v>
       </c>
@@ -2944,7 +2989,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>24</v>
       </c>
@@ -2952,7 +2997,7 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>18</v>
       </c>
@@ -2969,7 +3014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>19</v>
       </c>
@@ -2980,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +3033,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>21</v>
       </c>
@@ -2996,7 +3041,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +3049,7 @@
         <v>44316</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>23</v>
       </c>
@@ -3012,7 +3057,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>24</v>
       </c>
@@ -3020,7 +3065,7 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1000</v>
       </c>
@@ -3042,11 +3087,11 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>999</v>
       </c>
@@ -3069,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>998</v>
       </c>
@@ -3083,7 +3128,7 @@
         <v>44321</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>997</v>
       </c>
@@ -3106,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>996</v>
       </c>
@@ -3129,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>995</v>
       </c>
@@ -3143,7 +3188,7 @@
         <v>44324</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>994</v>
       </c>
@@ -3157,7 +3202,7 @@
         <v>44325</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>993</v>
       </c>
@@ -3173,11 +3218,11 @@
       <c r="H131">
         <v>1</v>
       </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>992</v>
       </c>
@@ -3191,7 +3236,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>991</v>
       </c>
@@ -3214,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>990</v>
       </c>
@@ -3229,7 +3274,7 @@
       </c>
       <c r="F134" s="14"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>989</v>
       </c>
@@ -3244,7 +3289,7 @@
       </c>
       <c r="F135" s="14"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>988</v>
       </c>
@@ -3259,7 +3304,7 @@
       </c>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>987</v>
       </c>
@@ -3273,11 +3318,11 @@
         <v>44332</v>
       </c>
       <c r="F137" s="14"/>
-      <c r="N137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>986</v>
       </c>
@@ -3295,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>985</v>
       </c>
@@ -3316,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>984</v>
       </c>
@@ -3340,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>983</v>
       </c>
@@ -3366,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>982</v>
       </c>
@@ -3389,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>981</v>
       </c>
@@ -3412,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>980</v>
       </c>
@@ -3432,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>979</v>
       </c>
@@ -3452,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>978</v>
       </c>
@@ -3466,7 +3511,7 @@
         <v>44341</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>977</v>
       </c>
@@ -3492,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>976</v>
       </c>
@@ -3514,11 +3559,11 @@
       <c r="H148" s="7">
         <v>2</v>
       </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>975</v>
       </c>
@@ -3539,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>974</v>
       </c>
@@ -3554,7 +3599,7 @@
       </c>
       <c r="F150" s="14"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>973</v>
       </c>
@@ -3568,11 +3613,11 @@
         <v>44346</v>
       </c>
       <c r="F151" s="14"/>
-      <c r="N151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>972</v>
       </c>
@@ -3590,7 +3635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>971</v>
       </c>
@@ -3614,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>970</v>
       </c>
@@ -3635,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>969</v>
       </c>
@@ -3656,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>968</v>
       </c>
@@ -3679,7 +3724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>967</v>
       </c>
@@ -3694,7 +3739,7 @@
       </c>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>966</v>
       </c>
@@ -3715,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>965</v>
       </c>
@@ -3736,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>964</v>
       </c>
@@ -3757,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>963</v>
       </c>
@@ -3772,7 +3817,7 @@
       </c>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>962</v>
       </c>
@@ -3787,7 +3832,7 @@
       </c>
       <c r="F162" s="14"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>961</v>
       </c>
@@ -3802,7 +3847,7 @@
       </c>
       <c r="F163" s="14"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>960</v>
       </c>
@@ -3817,7 +3862,7 @@
       </c>
       <c r="F164" s="14"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>959</v>
       </c>
@@ -3841,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>958</v>
       </c>
@@ -3861,17 +3906,17 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="M166">
-        <v>1</v>
-      </c>
       <c r="N166">
         <v>1</v>
       </c>
       <c r="O166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>957</v>
       </c>
@@ -3891,11 +3936,11 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="N167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>956</v>
       </c>
@@ -3910,7 +3955,7 @@
       </c>
       <c r="F168" s="14"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>955</v>
       </c>
@@ -3924,11 +3969,11 @@
         <v>44364</v>
       </c>
       <c r="F169" s="14"/>
-      <c r="N169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>954</v>
       </c>
@@ -3943,7 +3988,7 @@
       </c>
       <c r="F170" s="14"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>953</v>
       </c>
@@ -3967,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>952</v>
       </c>
@@ -3988,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>951</v>
       </c>
@@ -4012,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>950</v>
       </c>
@@ -4035,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>949</v>
       </c>
@@ -4050,7 +4095,7 @@
       </c>
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>948</v>
       </c>
@@ -4076,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>947</v>
       </c>
@@ -4102,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>946</v>
       </c>
@@ -4115,11 +4160,11 @@
       <c r="D178" s="1">
         <v>44373</v>
       </c>
-      <c r="N178">
+      <c r="O178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>945</v>
       </c>
@@ -4139,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>944</v>
       </c>
@@ -4162,7 +4207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>943</v>
       </c>
@@ -4185,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>942</v>
       </c>
@@ -4205,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>941</v>
       </c>
@@ -4219,7 +4264,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>940</v>
       </c>
@@ -4233,7 +4278,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>939</v>
       </c>
@@ -4247,7 +4292,7 @@
         <v>44380</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>938</v>
       </c>
@@ -4267,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>937</v>
       </c>
@@ -4293,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>936</v>
       </c>
@@ -4319,7 +4364,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>935</v>
       </c>
@@ -4342,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>934</v>
       </c>
@@ -4363,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>933</v>
       </c>
@@ -4378,7 +4423,7 @@
       </c>
       <c r="F191" s="14"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>932</v>
       </c>
@@ -4393,7 +4438,7 @@
       </c>
       <c r="F192" s="14"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>931</v>
       </c>
@@ -4408,7 +4453,7 @@
       </c>
       <c r="F193" s="14"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>930</v>
       </c>
@@ -4425,11 +4470,11 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="N194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>929</v>
       </c>
@@ -4447,7 +4492,7 @@
       </c>
       <c r="F195" s="14"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>928</v>
       </c>
@@ -4462,7 +4507,7 @@
       </c>
       <c r="F196" s="14"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>927</v>
       </c>
@@ -4486,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>926</v>
       </c>
@@ -4501,7 +4546,7 @@
       </c>
       <c r="F198" s="14"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>925</v>
       </c>
@@ -4516,7 +4561,7 @@
       </c>
       <c r="F199" s="14"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>924</v>
       </c>
@@ -4531,7 +4576,7 @@
       </c>
       <c r="F200" s="14"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>923</v>
       </c>
@@ -4552,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>922</v>
       </c>
@@ -4567,7 +4612,7 @@
       </c>
       <c r="F202" s="14"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>921</v>
       </c>
@@ -4582,7 +4627,7 @@
       </c>
       <c r="F203" s="14"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>920</v>
       </c>
@@ -4603,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>919</v>
       </c>
@@ -4618,7 +4663,7 @@
       </c>
       <c r="F205" s="14"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>918</v>
       </c>
@@ -4636,7 +4681,7 @@
       </c>
       <c r="F206" s="14"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>917</v>
       </c>
@@ -4657,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>916</v>
       </c>
@@ -5638,7 +5683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>867</v>
       </c>
@@ -5660,14 +5705,14 @@
       <c r="H257" s="7">
         <v>3</v>
       </c>
-      <c r="M257" t="s">
+      <c r="N257" t="s">
         <v>56</v>
       </c>
-      <c r="N257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>866</v>
       </c>
@@ -5680,11 +5725,11 @@
       <c r="D258" s="1">
         <v>44453</v>
       </c>
-      <c r="N258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>865</v>
       </c>
@@ -5704,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>864</v>
       </c>
@@ -5726,11 +5771,11 @@
       <c r="H260" s="7">
         <v>2</v>
       </c>
-      <c r="N260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>863</v>
       </c>
@@ -5744,7 +5789,7 @@
         <v>44456</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>862</v>
       </c>
@@ -5758,7 +5803,7 @@
         <v>44457</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>861</v>
       </c>
@@ -5781,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>860</v>
       </c>
@@ -5804,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>859</v>
       </c>
@@ -5819,7 +5864,7 @@
       </c>
       <c r="F265" s="14"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>858</v>
       </c>
@@ -5834,7 +5879,7 @@
       </c>
       <c r="F266" s="14"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>857</v>
       </c>
@@ -5849,7 +5894,7 @@
       </c>
       <c r="F267" s="14"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>856</v>
       </c>
@@ -5864,7 +5909,7 @@
       </c>
       <c r="F268" s="14"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>855</v>
       </c>
@@ -5878,11 +5923,11 @@
         <v>44464</v>
       </c>
       <c r="F269" s="14"/>
-      <c r="N269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>854</v>
       </c>
@@ -5896,11 +5941,11 @@
         <v>44465</v>
       </c>
       <c r="F270" s="14"/>
-      <c r="N270">
+      <c r="O270">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>853</v>
       </c>
@@ -5915,7 +5960,7 @@
       </c>
       <c r="F271" s="14"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>852</v>
       </c>
@@ -5929,7 +5974,7 @@
         <v>44467</v>
       </c>
       <c r="F272" s="14"/>
-      <c r="N272">
+      <c r="O272">
         <v>1</v>
       </c>
     </row>
@@ -6209,7 +6254,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>835</v>
       </c>
@@ -6223,7 +6268,7 @@
         <v>44484</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>834</v>
       </c>
@@ -6240,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>833</v>
       </c>
@@ -6263,7 +6308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>832</v>
       </c>
@@ -6286,7 +6331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>831</v>
       </c>
@@ -6309,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>830</v>
       </c>
@@ -6332,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>829</v>
       </c>
@@ -6352,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>828</v>
       </c>
@@ -6377,11 +6422,11 @@
       <c r="H296" s="7">
         <v>1</v>
       </c>
-      <c r="N296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>827</v>
       </c>
@@ -6395,7 +6440,7 @@
         <v>44492</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>826</v>
       </c>
@@ -6418,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>825</v>
       </c>
@@ -6441,7 +6486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>824</v>
       </c>
@@ -6466,11 +6511,11 @@
       <c r="H300" s="7">
         <v>2</v>
       </c>
-      <c r="N300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>823</v>
       </c>
@@ -6496,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>822</v>
       </c>
@@ -6522,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>821</v>
       </c>
@@ -6551,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>820</v>
       </c>
@@ -6567,14 +6612,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="N304">
-        <v>1</v>
-      </c>
-      <c r="O304" t="s">
+      <c r="O304">
+        <v>1</v>
+      </c>
+      <c r="P304" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>819</v>
       </c>
@@ -6588,7 +6633,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>818</v>
       </c>
@@ -6611,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>817</v>
       </c>
@@ -6634,7 +6679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>816</v>
       </c>
@@ -6656,17 +6701,17 @@
       <c r="H308" s="7">
         <v>1</v>
       </c>
-      <c r="M308">
-        <v>1</v>
-      </c>
       <c r="N308">
         <v>1</v>
       </c>
-      <c r="O308" t="s">
+      <c r="O308">
+        <v>1</v>
+      </c>
+      <c r="P308" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>815</v>
       </c>
@@ -6689,7 +6734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>814</v>
       </c>
@@ -6715,7 +6760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>813</v>
       </c>
@@ -6729,7 +6774,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>812</v>
       </c>
@@ -6749,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>811</v>
       </c>
@@ -6768,11 +6813,11 @@
       <c r="G313">
         <v>1</v>
       </c>
-      <c r="P313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>810</v>
       </c>
@@ -6798,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>809</v>
       </c>
@@ -6821,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>808</v>
       </c>
@@ -6835,7 +6880,7 @@
         <v>44511</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>807</v>
       </c>
@@ -6855,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>806</v>
       </c>
@@ -6878,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>805</v>
       </c>
@@ -6904,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>804</v>
       </c>
@@ -6930,7 +6975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>803</v>
       </c>
@@ -6959,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>802</v>
       </c>
@@ -6985,7 +7030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>801</v>
       </c>
@@ -7014,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>800</v>
       </c>
@@ -7040,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>799</v>
       </c>
@@ -7054,7 +7099,7 @@
         <v>44520</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>798</v>
       </c>
@@ -7074,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>797</v>
       </c>
@@ -7096,14 +7141,14 @@
       <c r="H327">
         <v>3</v>
       </c>
-      <c r="N327">
-        <v>1</v>
-      </c>
       <c r="O327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>796</v>
       </c>
@@ -7126,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>795</v>
       </c>
@@ -7148,11 +7193,11 @@
       <c r="G329" s="7">
         <v>1</v>
       </c>
-      <c r="P329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>794</v>
       </c>
@@ -7172,7 +7217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>793</v>
       </c>
@@ -7186,7 +7231,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>792</v>
       </c>
@@ -7206,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>791</v>
       </c>
@@ -7226,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>790</v>
       </c>
@@ -7252,7 +7297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>789</v>
       </c>
@@ -7278,7 +7323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>788</v>
       </c>
@@ -7304,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>787</v>
       </c>
@@ -7327,7 +7372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>786</v>
       </c>
@@ -7353,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>785</v>
       </c>
@@ -7367,7 +7412,7 @@
         <v>44534</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>784</v>
       </c>
@@ -7387,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>783</v>
       </c>
@@ -7415,11 +7460,11 @@
       <c r="I341" s="7">
         <v>2</v>
       </c>
-      <c r="N341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>782</v>
       </c>
@@ -7442,7 +7487,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>781</v>
       </c>
@@ -7464,11 +7509,11 @@
       <c r="H343" s="7">
         <v>2</v>
       </c>
-      <c r="N343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>780</v>
       </c>
@@ -7494,7 +7539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>779</v>
       </c>
@@ -7508,7 +7553,7 @@
         <v>44540</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>778</v>
       </c>
@@ -7522,7 +7567,7 @@
         <v>44541</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>777</v>
       </c>
@@ -7545,7 +7590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>776</v>
       </c>
@@ -7562,7 +7607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>775</v>
       </c>
@@ -7587,11 +7632,11 @@
       <c r="I349" s="7">
         <v>1</v>
       </c>
-      <c r="N349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>774</v>
       </c>
@@ -7613,11 +7658,11 @@
       <c r="H350">
         <v>1</v>
       </c>
-      <c r="N350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>773</v>
       </c>
@@ -7642,11 +7687,11 @@
       <c r="H351">
         <v>3</v>
       </c>
-      <c r="N351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>772</v>
       </c>
@@ -7936,7 +7981,7 @@
       </c>
       <c r="F368" s="14"/>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>755</v>
       </c>
@@ -7958,11 +8003,11 @@
       <c r="H369" s="7">
         <v>1</v>
       </c>
-      <c r="N369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>754</v>
       </c>
@@ -7987,9 +8032,6 @@
       <c r="H370" s="7">
         <v>2</v>
       </c>
-      <c r="M370">
-        <v>1</v>
-      </c>
       <c r="N370">
         <v>1</v>
       </c>
@@ -7999,8 +8041,11 @@
       <c r="P370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>753</v>
       </c>
@@ -8026,7 +8071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>752</v>
       </c>
@@ -8051,11 +8096,11 @@
       <c r="H372" s="7">
         <v>1</v>
       </c>
-      <c r="N372">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>751</v>
       </c>
@@ -8081,7 +8126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>750</v>
       </c>
@@ -8095,7 +8140,7 @@
         <v>44569</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>749</v>
       </c>
@@ -8115,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>748</v>
       </c>
@@ -8138,7 +8183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>747</v>
       </c>
@@ -8161,7 +8206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>746</v>
       </c>
@@ -8175,7 +8220,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>745</v>
       </c>
@@ -8198,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>744</v>
       </c>
@@ -8212,7 +8257,7 @@
         <v>44575</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>743</v>
       </c>
@@ -8226,7 +8271,7 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>742</v>
       </c>
@@ -8246,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>741</v>
       </c>
@@ -8269,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>740</v>
       </c>
@@ -8292,7 +8337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>739</v>
       </c>
@@ -8309,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>738</v>
       </c>
@@ -8332,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>737</v>
       </c>
@@ -8355,7 +8400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>736</v>
       </c>
@@ -8369,7 +8414,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>735</v>
       </c>
@@ -8392,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>734</v>
       </c>
@@ -8415,7 +8460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>733</v>
       </c>
@@ -8438,7 +8483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>732</v>
       </c>
@@ -8452,7 +8497,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>731</v>
       </c>
@@ -8475,7 +8520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>730</v>
       </c>
@@ -8498,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>729</v>
       </c>
@@ -8512,7 +8557,7 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>728</v>
       </c>
@@ -8529,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>727</v>
       </c>
@@ -8551,11 +8596,11 @@
       <c r="H397" s="7">
         <v>2</v>
       </c>
-      <c r="N397">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>726</v>
       </c>
@@ -8575,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>725</v>
       </c>
@@ -8592,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>724</v>
       </c>
@@ -8614,11 +8659,11 @@
       <c r="H400" s="7">
         <v>2</v>
       </c>
-      <c r="N400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>723</v>
       </c>
@@ -8637,11 +8682,11 @@
       <c r="G401" s="7">
         <v>2</v>
       </c>
-      <c r="N401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>722</v>
       </c>
@@ -8655,7 +8700,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>721</v>
       </c>
@@ -8675,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>720</v>
       </c>
@@ -8704,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>719</v>
       </c>
@@ -8730,7 +8775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>718</v>
       </c>
@@ -8752,11 +8797,11 @@
       <c r="H406" s="7">
         <v>1</v>
       </c>
-      <c r="N406">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>717</v>
       </c>
@@ -8782,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>716</v>
       </c>
@@ -8796,7 +8841,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>715</v>
       </c>
@@ -8810,7 +8855,7 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>714</v>
       </c>
@@ -8824,7 +8869,7 @@
         <v>44605</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>713</v>
       </c>
@@ -8844,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>712</v>
       </c>
@@ -8870,7 +8915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>711</v>
       </c>
@@ -8896,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>710</v>
       </c>
@@ -8922,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>709</v>
       </c>
@@ -8945,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>708</v>
       </c>
@@ -10337,7 +10382,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>643</v>
       </c>
@@ -10357,7 +10402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>642</v>
       </c>
@@ -10380,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>641</v>
       </c>
@@ -10403,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>640</v>
       </c>
@@ -10426,7 +10471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>639</v>
       </c>
@@ -10440,7 +10485,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>638</v>
       </c>
@@ -10457,7 +10502,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>637</v>
       </c>
@@ -10470,17 +10515,17 @@
       <c r="D487" s="1">
         <v>44682</v>
       </c>
-      <c r="M487">
-        <v>1</v>
-      </c>
       <c r="N487">
         <v>1</v>
       </c>
       <c r="O487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>636</v>
       </c>
@@ -10500,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>635</v>
       </c>
@@ -10519,11 +10564,11 @@
       <c r="G489">
         <v>1</v>
       </c>
-      <c r="N489">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>634</v>
       </c>
@@ -10549,7 +10594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>633</v>
       </c>
@@ -10572,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>632</v>
       </c>
@@ -10594,11 +10639,11 @@
       <c r="H492" s="7">
         <v>1</v>
       </c>
-      <c r="N492">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>631</v>
       </c>
@@ -10620,11 +10665,11 @@
       <c r="G493" s="7">
         <v>1</v>
       </c>
-      <c r="N493">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>630</v>
       </c>
@@ -10653,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>629</v>
       </c>
@@ -10673,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>628</v>
       </c>
@@ -10699,7 +10744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>627</v>
       </c>
@@ -10722,7 +10767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>626</v>
       </c>
@@ -10744,11 +10789,11 @@
       <c r="H498" s="7">
         <v>2</v>
       </c>
-      <c r="N498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>625</v>
       </c>
@@ -10771,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>624</v>
       </c>
@@ -10794,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>623</v>
       </c>
@@ -10808,7 +10853,7 @@
         <v>44696</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>622</v>
       </c>
@@ -10831,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>621</v>
       </c>
@@ -10854,7 +10899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>620</v>
       </c>
@@ -10880,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>619</v>
       </c>
@@ -10902,11 +10947,11 @@
       <c r="H505" s="7">
         <v>2</v>
       </c>
-      <c r="M505">
+      <c r="N505">
         <v>0.4</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>618</v>
       </c>
@@ -10920,7 +10965,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>617</v>
       </c>
@@ -10943,7 +10988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>616</v>
       </c>
@@ -10966,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>615</v>
       </c>
@@ -10992,7 +11037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>614</v>
       </c>
@@ -11018,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>613</v>
       </c>
@@ -11044,7 +11089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>612</v>
       </c>
@@ -11058,7 +11103,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>611</v>
       </c>
@@ -11072,7 +11117,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>610</v>
       </c>
@@ -11086,7 +11131,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>609</v>
       </c>
@@ -11109,7 +11154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>608</v>
       </c>
@@ -11136,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>607</v>
       </c>
@@ -11159,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>606</v>
       </c>
@@ -11185,7 +11230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>605</v>
       </c>
@@ -11198,11 +11243,11 @@
       <c r="D519" s="1">
         <v>44714</v>
       </c>
-      <c r="N519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>604</v>
       </c>
@@ -11216,7 +11261,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>603</v>
       </c>
@@ -11238,14 +11283,14 @@
       <c r="H521" s="7">
         <v>1</v>
       </c>
-      <c r="M521">
-        <v>1</v>
-      </c>
       <c r="N521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>602</v>
       </c>
@@ -11259,7 +11304,7 @@
         <v>44717</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>601</v>
       </c>
@@ -11282,7 +11327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>600</v>
       </c>
@@ -11305,7 +11350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>599</v>
       </c>
@@ -11331,7 +11376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>598</v>
       </c>
@@ -11353,11 +11398,11 @@
       <c r="H526" s="7">
         <v>2</v>
       </c>
-      <c r="N526">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>597</v>
       </c>
@@ -11371,7 +11416,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>596</v>
       </c>
@@ -11394,7 +11439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>595</v>
       </c>
@@ -11412,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>594</v>
       </c>
@@ -11430,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>593</v>
       </c>
@@ -11448,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>592</v>
       </c>
@@ -11466,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>591</v>
       </c>
@@ -11490,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>590</v>
       </c>
@@ -11505,7 +11550,7 @@
       </c>
       <c r="F534" s="18"/>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>589</v>
       </c>
@@ -11520,7 +11565,7 @@
       </c>
       <c r="F535" s="18"/>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>588</v>
       </c>
@@ -11535,7 +11580,7 @@
       </c>
       <c r="F536" s="18"/>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>587</v>
       </c>
@@ -11553,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>586</v>
       </c>
@@ -11571,7 +11616,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>585</v>
       </c>
@@ -11589,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>584</v>
       </c>
@@ -11606,17 +11651,17 @@
       <c r="J540" s="7">
         <v>1</v>
       </c>
-      <c r="M540">
-        <v>1</v>
-      </c>
       <c r="N540">
         <v>1</v>
       </c>
       <c r="O540">
         <v>1</v>
       </c>
-    </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>583</v>
       </c>
@@ -11631,7 +11676,7 @@
       </c>
       <c r="F541" s="18"/>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>582</v>
       </c>
@@ -11649,7 +11694,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>581</v>
       </c>
@@ -11664,7 +11709,7 @@
       </c>
       <c r="F543" s="18"/>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>580</v>
       </c>
@@ -11679,7 +11724,7 @@
       </c>
       <c r="F544" s="18"/>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>579</v>
       </c>
@@ -11700,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>578</v>
       </c>
@@ -11718,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>577</v>
       </c>
@@ -11731,9 +11776,9 @@
       <c r="D547" s="1">
         <v>44742</v>
       </c>
-      <c r="F547" s="19"/>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F547" s="18"/>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>576</v>
       </c>
@@ -11746,9 +11791,9 @@
       <c r="D548" s="1">
         <v>44743</v>
       </c>
-      <c r="F548" s="19"/>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F548" s="18"/>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>575</v>
       </c>
@@ -11761,9 +11806,9 @@
       <c r="D549" s="1">
         <v>44744</v>
       </c>
-      <c r="F549" s="19"/>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F549" s="18"/>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>574</v>
       </c>
@@ -11776,9 +11821,9 @@
       <c r="D550" s="1">
         <v>44745</v>
       </c>
-      <c r="F550" s="19"/>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F550" s="18"/>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>573</v>
       </c>
@@ -11791,9 +11836,12 @@
       <c r="D551" s="1">
         <v>44746</v>
       </c>
-      <c r="F551" s="19"/>
-    </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F551" s="18"/>
+      <c r="K551" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>572</v>
       </c>
@@ -11806,9 +11854,21 @@
       <c r="D552" s="1">
         <v>44747</v>
       </c>
-      <c r="F552" s="19"/>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F552" s="18"/>
+      <c r="H552">
+        <v>1</v>
+      </c>
+      <c r="I552">
+        <v>1</v>
+      </c>
+      <c r="K552" s="7">
+        <v>1</v>
+      </c>
+      <c r="L552" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>571</v>
       </c>
@@ -11821,9 +11881,12 @@
       <c r="D553" s="1">
         <v>44748</v>
       </c>
-      <c r="F553" s="19"/>
-    </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F553" s="18"/>
+      <c r="L553" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>570</v>
       </c>
@@ -11836,9 +11899,9 @@
       <c r="D554" s="1">
         <v>44749</v>
       </c>
-      <c r="F554" s="19"/>
-    </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F554" s="18"/>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>569</v>
       </c>
@@ -11851,9 +11914,24 @@
       <c r="D555" s="1">
         <v>44750</v>
       </c>
-      <c r="F555" s="19"/>
-    </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E555" s="7">
+        <v>1</v>
+      </c>
+      <c r="F555" s="18"/>
+      <c r="L555" s="7">
+        <v>1</v>
+      </c>
+      <c r="N555" t="s">
+        <v>29</v>
+      </c>
+      <c r="O555" t="s">
+        <v>183</v>
+      </c>
+      <c r="P555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>568</v>
       </c>
@@ -11866,9 +11944,15 @@
       <c r="D556" s="1">
         <v>44751</v>
       </c>
-      <c r="F556" s="19"/>
-    </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E556" s="7">
+        <v>1</v>
+      </c>
+      <c r="F556" s="18"/>
+      <c r="L556" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>567</v>
       </c>
@@ -11881,9 +11965,9 @@
       <c r="D557" s="1">
         <v>44752</v>
       </c>
-      <c r="F557" s="19"/>
-    </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F557" s="18"/>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>566</v>
       </c>
@@ -11896,9 +11980,12 @@
       <c r="D558" s="1">
         <v>44753</v>
       </c>
-      <c r="F558" s="19"/>
-    </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F558" s="18"/>
+      <c r="O558" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>565</v>
       </c>
@@ -11911,9 +11998,9 @@
       <c r="D559" s="1">
         <v>44754</v>
       </c>
-      <c r="F559" s="19"/>
-    </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F559" s="18"/>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>564</v>
       </c>
@@ -11926,9 +12013,18 @@
       <c r="D560" s="1">
         <v>44755</v>
       </c>
-      <c r="F560" s="19"/>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E560" s="7">
+        <v>1</v>
+      </c>
+      <c r="F560" s="18"/>
+      <c r="G560" s="24">
+        <v>1</v>
+      </c>
+      <c r="L560" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>563</v>
       </c>
@@ -11941,9 +12037,18 @@
       <c r="D561" s="1">
         <v>44756</v>
       </c>
-      <c r="F561" s="19"/>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E561" s="7">
+        <v>1</v>
+      </c>
+      <c r="F561" s="18"/>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="L561" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>562</v>
       </c>
@@ -11956,9 +12061,18 @@
       <c r="D562" s="1">
         <v>44757</v>
       </c>
-      <c r="F562" s="19"/>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E562" s="7">
+        <v>2</v>
+      </c>
+      <c r="F562" s="18"/>
+      <c r="G562" s="24">
+        <v>2</v>
+      </c>
+      <c r="L562" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
@@ -11971,9 +12085,12 @@
       <c r="D563" s="1">
         <v>44758</v>
       </c>
-      <c r="F563" s="19"/>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F563" s="18"/>
+      <c r="O563" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>560</v>
       </c>
@@ -11986,9 +12103,13 @@
       <c r="D564" s="1">
         <v>44759</v>
       </c>
-      <c r="F564" s="19"/>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E564" s="22"/>
+      <c r="F564" s="25"/>
+      <c r="O564" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>559</v>
       </c>
@@ -12001,9 +12122,10 @@
       <c r="D565" s="1">
         <v>44760</v>
       </c>
-      <c r="F565" s="19"/>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E565" s="22"/>
+      <c r="F565" s="23"/>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>558</v>
       </c>
@@ -12016,9 +12138,10 @@
       <c r="D566" s="1">
         <v>44761</v>
       </c>
-      <c r="F566" s="19"/>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E566" s="22"/>
+      <c r="F566" s="23"/>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>557</v>
       </c>
@@ -12031,9 +12154,10 @@
       <c r="D567" s="1">
         <v>44762</v>
       </c>
-      <c r="F567" s="19"/>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E567" s="22"/>
+      <c r="F567" s="23"/>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>556</v>
       </c>
@@ -12046,9 +12170,10 @@
       <c r="D568" s="1">
         <v>44763</v>
       </c>
-      <c r="F568" s="19"/>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E568" s="22"/>
+      <c r="F568" s="23"/>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>555</v>
       </c>
@@ -12061,9 +12186,10 @@
       <c r="D569" s="1">
         <v>44764</v>
       </c>
-      <c r="F569" s="19"/>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E569" s="22"/>
+      <c r="F569" s="23"/>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>554</v>
       </c>
@@ -12078,7 +12204,7 @@
       </c>
       <c r="F570" s="19"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>553</v>
       </c>
@@ -12093,7 +12219,7 @@
       </c>
       <c r="F571" s="19"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>552</v>
       </c>
@@ -12108,7 +12234,7 @@
       </c>
       <c r="F572" s="19"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>551</v>
       </c>
@@ -12123,7 +12249,7 @@
       </c>
       <c r="F573" s="19"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>550</v>
       </c>
@@ -12138,7 +12264,7 @@
       </c>
       <c r="F574" s="20"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>549</v>
       </c>
@@ -12152,7 +12278,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>548</v>
       </c>
@@ -20054,7 +20180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E78A30-73EB-439C-A66B-549E5321B8D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20203,7 +20329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7B9694-6456-4536-A2E4-AA62B202B55D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -20685,7 +20811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20738,7 +20864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20838,7 +20964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C8197-92B6-488B-84D4-EC2AF5466EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066EC81-586F-4089-B493-3243F8C7FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20760" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="187">
   <si>
     <t>muscu</t>
   </si>
@@ -1071,6 +1071,9 @@
   <si>
     <t>14h</t>
   </si>
+  <si>
+    <t>2.5</t>
+  </si>
 </sst>
 </file>
 
@@ -1225,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1245,12 +1248,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,8 +1556,8 @@
   <dimension ref="A1:AJ1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L569" sqref="L569"/>
+      <pane ySplit="1" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F579" sqref="F579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11849,7 +11851,7 @@
       <c r="K552" s="7">
         <v>1</v>
       </c>
-      <c r="L552" s="21">
+      <c r="L552" s="19">
         <v>1</v>
       </c>
     </row>
@@ -12002,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="F560" s="18"/>
-      <c r="G560" s="23">
+      <c r="G560" s="21">
         <v>1</v>
       </c>
       <c r="L560" s="7">
@@ -12050,7 +12052,7 @@
         <v>2</v>
       </c>
       <c r="F562" s="18"/>
-      <c r="G562" s="23">
+      <c r="G562" s="21">
         <v>2</v>
       </c>
       <c r="L562" s="7">
@@ -12088,8 +12090,8 @@
       <c r="D564" s="1">
         <v>44759</v>
       </c>
-      <c r="E564" s="22"/>
-      <c r="F564" s="24"/>
+      <c r="E564" s="20"/>
+      <c r="F564" s="22"/>
       <c r="I564">
         <v>0.2</v>
       </c>
@@ -12110,11 +12112,11 @@
       <c r="D565" s="1">
         <v>44760</v>
       </c>
-      <c r="E565" s="22">
-        <v>1</v>
-      </c>
-      <c r="F565" s="24"/>
-      <c r="G565" s="23">
+      <c r="E565" s="20">
+        <v>1</v>
+      </c>
+      <c r="F565" s="22"/>
+      <c r="G565" s="21">
         <v>1</v>
       </c>
       <c r="L565" s="7">
@@ -12134,8 +12136,8 @@
       <c r="D566" s="1">
         <v>44761</v>
       </c>
-      <c r="E566" s="22"/>
-      <c r="F566" s="24"/>
+      <c r="E566" s="20"/>
+      <c r="F566" s="22"/>
       <c r="O566" t="s">
         <v>185</v>
       </c>
@@ -12153,10 +12155,10 @@
       <c r="D567" s="1">
         <v>44762</v>
       </c>
-      <c r="E567" s="22">
-        <v>1</v>
-      </c>
-      <c r="F567" s="24"/>
+      <c r="E567" s="20">
+        <v>1</v>
+      </c>
+      <c r="F567" s="22"/>
       <c r="G567">
         <v>1</v>
       </c>
@@ -12174,14 +12176,14 @@
       <c r="D568" s="1">
         <v>44763</v>
       </c>
-      <c r="E568" s="22">
-        <v>1</v>
-      </c>
-      <c r="F568" s="24"/>
-      <c r="G568" s="23">
-        <v>1</v>
-      </c>
-      <c r="H568" s="23">
+      <c r="E568" s="20">
+        <v>1</v>
+      </c>
+      <c r="F568" s="22"/>
+      <c r="G568" s="21">
+        <v>1</v>
+      </c>
+      <c r="H568" s="21">
         <v>0.5</v>
       </c>
       <c r="L568" s="7">
@@ -12201,8 +12203,8 @@
       <c r="D569" s="1">
         <v>44764</v>
       </c>
-      <c r="E569" s="22"/>
-      <c r="F569" s="24"/>
+      <c r="E569" s="20"/>
+      <c r="F569" s="22"/>
       <c r="L569" s="7">
         <v>1</v>
       </c>
@@ -12220,7 +12222,13 @@
       <c r="D570" s="1">
         <v>44765</v>
       </c>
-      <c r="F570" s="19"/>
+      <c r="F570" s="18"/>
+      <c r="H570" t="s">
+        <v>186</v>
+      </c>
+      <c r="I570">
+        <v>1</v>
+      </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571">
@@ -12235,7 +12243,7 @@
       <c r="D571" s="1">
         <v>44766</v>
       </c>
-      <c r="F571" s="19"/>
+      <c r="F571" s="18"/>
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572">
@@ -12250,7 +12258,13 @@
       <c r="D572" s="1">
         <v>44767</v>
       </c>
-      <c r="F572" s="19"/>
+      <c r="F572" s="18"/>
+      <c r="H572">
+        <v>3</v>
+      </c>
+      <c r="I572">
+        <v>2</v>
+      </c>
     </row>
     <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573">
@@ -12265,7 +12279,10 @@
       <c r="D573" s="1">
         <v>44768</v>
       </c>
-      <c r="F573" s="19"/>
+      <c r="F573" s="18"/>
+      <c r="O573" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574">
@@ -12280,7 +12297,7 @@
       <c r="D574" s="1">
         <v>44769</v>
       </c>
-      <c r="F574" s="20"/>
+      <c r="F574" s="23"/>
     </row>
     <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575">
@@ -12295,6 +12312,22 @@
       <c r="D575" s="1">
         <v>44770</v>
       </c>
+      <c r="E575" s="7">
+        <v>1</v>
+      </c>
+      <c r="F575" s="14"/>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575">
+        <v>5</v>
+      </c>
+      <c r="I575">
+        <v>1</v>
+      </c>
+      <c r="L575" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576">
@@ -12309,8 +12342,15 @@
       <c r="D576" s="1">
         <v>44771</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E576" s="7">
+        <v>1</v>
+      </c>
+      <c r="F576" s="14"/>
+      <c r="G576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>547</v>
       </c>
@@ -12323,8 +12363,9 @@
       <c r="D577" s="1">
         <v>44772</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F577" s="14"/>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>546</v>
       </c>
@@ -12337,8 +12378,12 @@
       <c r="D578" s="1">
         <v>44773</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F578" s="14"/>
+      <c r="I578">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>545</v>
       </c>
@@ -12351,8 +12396,21 @@
       <c r="D579" s="1">
         <v>44774</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E579" s="7">
+        <v>1</v>
+      </c>
+      <c r="F579" s="14"/>
+      <c r="G579">
+        <v>1</v>
+      </c>
+      <c r="H579">
+        <v>0.5</v>
+      </c>
+      <c r="I579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>544</v>
       </c>
@@ -12366,7 +12424,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>543</v>
       </c>
@@ -12380,7 +12438,7 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>542</v>
       </c>
@@ -12394,7 +12452,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>541</v>
       </c>
@@ -12408,7 +12466,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>540</v>
       </c>
@@ -12422,7 +12480,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>539</v>
       </c>
@@ -12436,7 +12494,7 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>538</v>
       </c>
@@ -12450,7 +12508,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>537</v>
       </c>
@@ -12464,7 +12522,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>536</v>
       </c>
@@ -12478,7 +12536,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>535</v>
       </c>
@@ -12492,7 +12550,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>534</v>
       </c>
@@ -12506,7 +12564,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>533</v>
       </c>
@@ -12520,7 +12578,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>532</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA22AC-EEC6-41C5-A903-2CD5C88D3F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BE9AC-852C-4A2C-96FC-12B154107727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="215">
   <si>
     <t>muscu</t>
   </si>
@@ -1201,6 +1201,18 @@
   <si>
     <t>10h</t>
   </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>10h30</t>
+  </si>
+  <si>
+    <t>14h30</t>
+  </si>
 </sst>
 </file>
 
@@ -1827,8 +1839,8 @@
   <dimension ref="A1:AK1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R667" sqref="R667"/>
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R681" sqref="R681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1848,7 @@
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="8" width="2" customWidth="1"/>
     <col min="9" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
@@ -15048,7 +15060,15 @@
       <c r="D669" s="1">
         <v>44864</v>
       </c>
-      <c r="F669" s="41"/>
+      <c r="F669" s="41">
+        <v>1</v>
+      </c>
+      <c r="I669" s="4">
+        <v>1</v>
+      </c>
+      <c r="J669" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A670">
@@ -15063,6 +15083,15 @@
       <c r="D670" s="1">
         <v>44865</v>
       </c>
+      <c r="F670" s="43">
+        <v>1</v>
+      </c>
+      <c r="H670" s="34">
+        <v>1</v>
+      </c>
+      <c r="I670" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A671">
@@ -15077,6 +15106,9 @@
       <c r="D671" s="1">
         <v>44866</v>
       </c>
+      <c r="P671" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="672" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A672">
@@ -15091,8 +15123,17 @@
       <c r="D672" s="1">
         <v>44867</v>
       </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F672" s="35">
+        <v>2</v>
+      </c>
+      <c r="H672" s="34">
+        <v>2</v>
+      </c>
+      <c r="I672" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>451</v>
       </c>
@@ -15105,8 +15146,17 @@
       <c r="D673" s="1">
         <v>44868</v>
       </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F673" s="35">
+        <v>2</v>
+      </c>
+      <c r="H673" s="34">
+        <v>1</v>
+      </c>
+      <c r="I673" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>450</v>
       </c>
@@ -15119,8 +15169,20 @@
       <c r="D674" s="1">
         <v>44869</v>
       </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F674" s="28">
+        <v>1</v>
+      </c>
+      <c r="H674" s="34">
+        <v>2</v>
+      </c>
+      <c r="I674" s="34">
+        <v>1</v>
+      </c>
+      <c r="R674" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>449</v>
       </c>
@@ -15133,8 +15195,11 @@
       <c r="D675" s="1">
         <v>44870</v>
       </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H675" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>448</v>
       </c>
@@ -15147,8 +15212,11 @@
       <c r="D676" s="1">
         <v>44871</v>
       </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F676" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>447</v>
       </c>
@@ -15161,8 +15229,23 @@
       <c r="D677" s="1">
         <v>44872</v>
       </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F677" s="28">
+        <v>3</v>
+      </c>
+      <c r="H677" s="34">
+        <v>2</v>
+      </c>
+      <c r="I677" s="34">
+        <v>3</v>
+      </c>
+      <c r="J677" s="4">
+        <v>1</v>
+      </c>
+      <c r="R677" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="678" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>446</v>
       </c>
@@ -15175,8 +15258,20 @@
       <c r="D678" s="1">
         <v>44873</v>
       </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F678" s="28">
+        <v>2</v>
+      </c>
+      <c r="H678" s="34">
+        <v>1</v>
+      </c>
+      <c r="I678" s="4">
+        <v>1</v>
+      </c>
+      <c r="J678" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>445</v>
       </c>
@@ -15189,8 +15284,20 @@
       <c r="D679" s="1">
         <v>44874</v>
       </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F679" s="28">
+        <v>3</v>
+      </c>
+      <c r="H679" s="34">
+        <v>3</v>
+      </c>
+      <c r="I679" s="34">
+        <v>2</v>
+      </c>
+      <c r="R679" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="680" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>444</v>
       </c>
@@ -15203,8 +15310,20 @@
       <c r="D680" s="1">
         <v>44875</v>
       </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F680" s="28">
+        <v>1</v>
+      </c>
+      <c r="H680" s="34">
+        <v>1</v>
+      </c>
+      <c r="I680" s="34">
+        <v>1</v>
+      </c>
+      <c r="R680" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="681" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>443</v>
       </c>
@@ -15218,7 +15337,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>442</v>
       </c>
@@ -15232,7 +15351,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>441</v>
       </c>
@@ -15246,7 +15365,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>440</v>
       </c>
@@ -15260,7 +15379,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>439</v>
       </c>
@@ -15274,7 +15393,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>438</v>
       </c>
@@ -15288,7 +15407,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>437</v>
       </c>
@@ -15302,7 +15421,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>436</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BE9AC-852C-4A2C-96FC-12B154107727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B135D9B-78A9-47FB-8C16-0E12774FD4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="215">
   <si>
     <t>muscu</t>
   </si>
@@ -1839,8 +1839,8 @@
   <dimension ref="A1:AK1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R681" sqref="R681"/>
+      <pane ySplit="1" topLeftCell="A668" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F687" sqref="F687"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,8 +1849,9 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="8" width="2" customWidth="1"/>
-    <col min="9" max="9" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
     <col min="10" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" style="7" customWidth="1"/>
     <col min="12" max="13" width="2.7109375" style="7" customWidth="1"/>
@@ -15378,6 +15379,15 @@
       <c r="D684" s="1">
         <v>44879</v>
       </c>
+      <c r="F684" s="35">
+        <v>2</v>
+      </c>
+      <c r="H684" s="34">
+        <v>2</v>
+      </c>
+      <c r="I684" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="685" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A685">
@@ -15392,6 +15402,15 @@
       <c r="D685" s="1">
         <v>44880</v>
       </c>
+      <c r="F685" s="7">
+        <v>2</v>
+      </c>
+      <c r="H685">
+        <v>1</v>
+      </c>
+      <c r="I685">
+        <v>1</v>
+      </c>
     </row>
     <row r="686" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A686">
@@ -15406,6 +15425,21 @@
       <c r="D686" s="1">
         <v>44881</v>
       </c>
+      <c r="F686" s="35">
+        <v>4</v>
+      </c>
+      <c r="H686" s="34">
+        <v>3</v>
+      </c>
+      <c r="I686" s="34">
+        <v>4</v>
+      </c>
+      <c r="J686" s="4">
+        <v>1</v>
+      </c>
+      <c r="R686" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="687" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A687">
@@ -15419,6 +15453,10 @@
       </c>
       <c r="D687" s="1">
         <v>44882</v>
+      </c>
+      <c r="F687" s="4"/>
+      <c r="J687" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.25">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B135D9B-78A9-47FB-8C16-0E12774FD4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2584FCC-A04B-4EBA-9D41-0620F5996392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={EA205C01-AAA8-49C7-A3EB-A88889911AC3}</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="221">
   <si>
     <t>muscu</t>
   </si>
@@ -1213,6 +1213,24 @@
   <si>
     <t>14h30</t>
   </si>
+  <si>
+    <t>(humex)</t>
+  </si>
+  <si>
+    <t>DSM</t>
+  </si>
+  <si>
+    <t>testing PAO-26142 patch additionalDetails</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>kotlin</t>
+  </si>
+  <si>
+    <t>tars authent s3 + aide Gurvan</t>
+  </si>
 </sst>
 </file>
 
@@ -1256,7 +1274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1519,6 +1543,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1836,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK1150"/>
+  <dimension ref="A1:AL1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A668" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F687" sqref="F687"/>
+      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T710" sqref="T710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,35 +1874,35 @@
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="9" max="10" width="2.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" style="7" customWidth="1"/>
     <col min="12" max="13" width="2.7109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" customWidth="1"/>
     <col min="16" max="18" width="8.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" customWidth="1"/>
-    <col min="20" max="20" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" customWidth="1"/>
-    <col min="23" max="24" width="5.28515625" customWidth="1"/>
-    <col min="25" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" customWidth="1"/>
-    <col min="33" max="33" width="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" customWidth="1"/>
-    <col min="35" max="36" width="7.28515625" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" customWidth="1"/>
+    <col min="24" max="25" width="5.28515625" customWidth="1"/>
+    <col min="26" max="27" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.28515625" customWidth="1"/>
+    <col min="31" max="31" width="5.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.28515625" customWidth="1"/>
+    <col min="33" max="33" width="5.7109375" customWidth="1"/>
+    <col min="34" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" customWidth="1"/>
+    <col min="36" max="37" width="7.28515625" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:38" x14ac:dyDescent="0.25">
       <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1916,53 +1942,59 @@
       <c r="R1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" t="s">
-        <v>2</v>
-      </c>
       <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" t="s">
         <v>3</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>23</v>
       </c>
@@ -1984,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -2014,7 +2046,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -2031,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -2058,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>23</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -2087,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2145,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -2123,7 +2155,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2165,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -2308,7 +2340,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>18</v>
       </c>
@@ -2324,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -2348,7 +2380,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>21</v>
       </c>
@@ -2357,11 +2389,11 @@
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="W36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -2374,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -2384,7 +2416,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>24</v>
       </c>
@@ -2394,7 +2426,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2436,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -2414,7 +2446,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>20</v>
       </c>
@@ -2431,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2471,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>22</v>
       </c>
@@ -2447,7 +2479,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>23</v>
       </c>
@@ -2464,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>24</v>
       </c>
@@ -2472,7 +2504,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>19</v>
       </c>
@@ -15472,8 +15504,17 @@
       <c r="D688" s="1">
         <v>44883</v>
       </c>
-    </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F688" s="7">
+        <v>1</v>
+      </c>
+      <c r="H688" s="34">
+        <v>1</v>
+      </c>
+      <c r="I688" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>435</v>
       </c>
@@ -15487,7 +15528,7 @@
         <v>44884</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>434</v>
       </c>
@@ -15500,8 +15541,14 @@
       <c r="D690" s="1">
         <v>44885</v>
       </c>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H690" s="24">
+        <v>1</v>
+      </c>
+      <c r="J690" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>433</v>
       </c>
@@ -15514,8 +15561,23 @@
       <c r="D691" s="1">
         <v>44886</v>
       </c>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F691" s="7">
+        <v>1</v>
+      </c>
+      <c r="H691" s="24">
+        <v>2</v>
+      </c>
+      <c r="I691" s="24">
+        <v>3</v>
+      </c>
+      <c r="J691" s="4">
+        <v>1</v>
+      </c>
+      <c r="R691" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="692" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>432</v>
       </c>
@@ -15528,8 +15590,17 @@
       <c r="D692" s="1">
         <v>44887</v>
       </c>
-    </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F692" s="7">
+        <v>2</v>
+      </c>
+      <c r="H692" s="24">
+        <v>2</v>
+      </c>
+      <c r="I692" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>431</v>
       </c>
@@ -15542,8 +15613,20 @@
       <c r="D693" s="1">
         <v>44888</v>
       </c>
-    </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F693" s="7">
+        <v>1</v>
+      </c>
+      <c r="H693" s="24">
+        <v>1</v>
+      </c>
+      <c r="I693" s="24">
+        <v>1</v>
+      </c>
+      <c r="R693" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="694" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>430</v>
       </c>
@@ -15556,8 +15639,17 @@
       <c r="D694" s="1">
         <v>44889</v>
       </c>
-    </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F694" s="35">
+        <v>4</v>
+      </c>
+      <c r="H694" s="34">
+        <v>3</v>
+      </c>
+      <c r="I694" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>429</v>
       </c>
@@ -15571,7 +15663,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>428</v>
       </c>
@@ -15585,7 +15677,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>427</v>
       </c>
@@ -15598,8 +15690,17 @@
       <c r="D697" s="1">
         <v>44892</v>
       </c>
-    </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F697" s="7">
+        <v>1</v>
+      </c>
+      <c r="H697">
+        <v>1</v>
+      </c>
+      <c r="I697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>426</v>
       </c>
@@ -15612,8 +15713,11 @@
       <c r="D698" s="1">
         <v>44893</v>
       </c>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F698" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>425</v>
       </c>
@@ -15626,8 +15730,11 @@
       <c r="D699" s="1">
         <v>44894</v>
       </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>424</v>
       </c>
@@ -15640,8 +15747,18 @@
       <c r="D700" s="1">
         <v>44895</v>
       </c>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F700" s="35">
+        <v>3</v>
+      </c>
+      <c r="G700" s="7"/>
+      <c r="H700" s="34">
+        <v>2</v>
+      </c>
+      <c r="I700" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>423</v>
       </c>
@@ -15654,8 +15771,20 @@
       <c r="D701" s="1">
         <v>44896</v>
       </c>
-    </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F701" s="7">
+        <v>1</v>
+      </c>
+      <c r="H701">
+        <v>1</v>
+      </c>
+      <c r="I701">
+        <v>1</v>
+      </c>
+      <c r="R701" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="702" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>422</v>
       </c>
@@ -15668,8 +15797,17 @@
       <c r="D702" s="1">
         <v>44897</v>
       </c>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F702" s="7">
+        <v>1</v>
+      </c>
+      <c r="H702">
+        <v>1</v>
+      </c>
+      <c r="I702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>421</v>
       </c>
@@ -15682,8 +15820,14 @@
       <c r="D703" s="1">
         <v>44898</v>
       </c>
-    </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F703" s="7">
+        <v>1</v>
+      </c>
+      <c r="P703" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="704" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>420</v>
       </c>
@@ -15696,8 +15840,14 @@
       <c r="D704" s="1">
         <v>44899</v>
       </c>
-    </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F704" s="7">
+        <v>1</v>
+      </c>
+      <c r="P704" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="705" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>419</v>
       </c>
@@ -15710,8 +15860,9 @@
       <c r="D705" s="1">
         <v>44900</v>
       </c>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F705" s="7"/>
+    </row>
+    <row r="706" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>418</v>
       </c>
@@ -15724,8 +15875,17 @@
       <c r="D706" s="1">
         <v>44901</v>
       </c>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F706" s="35">
+        <v>3</v>
+      </c>
+      <c r="H706" s="34">
+        <v>2</v>
+      </c>
+      <c r="I706" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>417</v>
       </c>
@@ -15738,8 +15898,23 @@
       <c r="D707" s="1">
         <v>44902</v>
       </c>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F707" s="7">
+        <v>1</v>
+      </c>
+      <c r="H707">
+        <v>1</v>
+      </c>
+      <c r="I707">
+        <v>2</v>
+      </c>
+      <c r="J707">
+        <v>2</v>
+      </c>
+      <c r="T707" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="708" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>416</v>
       </c>
@@ -15752,8 +15927,23 @@
       <c r="D708" s="1">
         <v>44903</v>
       </c>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F708" s="7">
+        <v>3</v>
+      </c>
+      <c r="H708">
+        <v>2</v>
+      </c>
+      <c r="I708">
+        <v>2</v>
+      </c>
+      <c r="R708" t="s">
+        <v>190</v>
+      </c>
+      <c r="T708" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="709" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>415</v>
       </c>
@@ -15766,8 +15956,24 @@
       <c r="D709" s="1">
         <v>44904</v>
       </c>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F709" s="7">
+        <v>3</v>
+      </c>
+      <c r="H709">
+        <v>2</v>
+      </c>
+      <c r="I709">
+        <v>2</v>
+      </c>
+      <c r="R709" s="46"/>
+      <c r="S709" t="s">
+        <v>219</v>
+      </c>
+      <c r="T709" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="710" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>414</v>
       </c>
@@ -15781,7 +15987,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>413</v>
       </c>
@@ -15795,7 +16001,7 @@
         <v>44906</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>412</v>
       </c>
@@ -15809,7 +16015,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>411</v>
       </c>
@@ -15823,7 +16029,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>410</v>
       </c>
@@ -15837,7 +16043,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>409</v>
       </c>
@@ -15851,7 +16057,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>408</v>
       </c>
@@ -15865,7 +16071,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>407</v>
       </c>
@@ -15879,7 +16085,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>406</v>
       </c>
@@ -15893,7 +16099,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>405</v>
       </c>
@@ -15907,7 +16113,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>404</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1909,8 +1909,8 @@
   <dimension ref="A1:AL1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A702" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G718" sqref="G718"/>
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I735" sqref="I735"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16213,7 +16213,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>403</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>402</v>
       </c>
@@ -16240,8 +16240,17 @@
       <c r="D722" s="1">
         <v>44917</v>
       </c>
-    </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F722" s="7">
+        <v>2</v>
+      </c>
+      <c r="H722">
+        <v>2</v>
+      </c>
+      <c r="I722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>401</v>
       </c>
@@ -16254,8 +16263,17 @@
       <c r="D723" s="1">
         <v>44918</v>
       </c>
-    </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F723" s="7">
+        <v>1</v>
+      </c>
+      <c r="I723">
+        <v>1</v>
+      </c>
+      <c r="J723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>400</v>
       </c>
@@ -16269,7 +16287,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>399</v>
       </c>
@@ -16283,7 +16301,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>398</v>
       </c>
@@ -16297,7 +16315,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>397</v>
       </c>
@@ -16310,8 +16328,17 @@
       <c r="D727" s="1">
         <v>44922</v>
       </c>
-    </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F727" s="7">
+        <v>2</v>
+      </c>
+      <c r="H727">
+        <v>1</v>
+      </c>
+      <c r="I727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>396</v>
       </c>
@@ -16324,8 +16351,11 @@
       <c r="D728" s="1">
         <v>44923</v>
       </c>
-    </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F728" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>395</v>
       </c>
@@ -16339,7 +16369,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>394</v>
       </c>
@@ -16353,7 +16383,7 @@
         <v>44925</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>393</v>
       </c>
@@ -16367,7 +16397,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>392</v>
       </c>
@@ -16380,8 +16410,17 @@
       <c r="D732" s="1">
         <v>44927</v>
       </c>
-    </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E732" s="7">
+        <v>1</v>
+      </c>
+      <c r="H732">
+        <v>1</v>
+      </c>
+      <c r="I732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>391</v>
       </c>
@@ -16395,7 +16434,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>390</v>
       </c>
@@ -16408,8 +16447,17 @@
       <c r="D734" s="1">
         <v>44929</v>
       </c>
-    </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F734" s="7">
+        <v>2</v>
+      </c>
+      <c r="H734">
+        <v>2</v>
+      </c>
+      <c r="I734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>389</v>
       </c>
@@ -16423,7 +16471,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>388</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF2EFFA-4FDF-4390-9269-4F90A6DC32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A990F9-B8E6-4EB8-931F-06EB1CBAC1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22128" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
-    <sheet name="DSM" sheetId="10" r:id="rId2"/>
-    <sheet name="indep" sheetId="9" r:id="rId3"/>
-    <sheet name="wow-bm" sheetId="8" r:id="rId4"/>
-    <sheet name="busyme" sheetId="7" r:id="rId5"/>
-    <sheet name="Brendon" sheetId="6" r:id="rId6"/>
-    <sheet name="exercices" sheetId="4" r:id="rId7"/>
-    <sheet name="croyances limitantes" sheetId="5" r:id="rId8"/>
+    <sheet name="réunions++" sheetId="11" r:id="rId2"/>
+    <sheet name="DSM" sheetId="10" r:id="rId3"/>
+    <sheet name="indep" sheetId="9" r:id="rId4"/>
+    <sheet name="wow-bm" sheetId="8" r:id="rId5"/>
+    <sheet name="busyme" sheetId="7" r:id="rId6"/>
+    <sheet name="Brendon" sheetId="6" r:id="rId7"/>
+    <sheet name="exercices" sheetId="4" r:id="rId8"/>
+    <sheet name="croyances limitantes" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -568,7 +569,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="248">
   <si>
     <t>muscu</t>
   </si>
@@ -1285,6 +1286,36 @@
   </si>
   <si>
     <t>NR, review fareGroup x2, review NPE token, 121 Laura</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>en profiter pour repérer/noter les US/anos qui m'intéressent sur le sprint à venir</t>
+  </si>
+  <si>
+    <t>préparer à l'écrit + time-boxer</t>
+  </si>
+  <si>
+    <t>* départ Julie Brandel (poste SM/manager)</t>
+  </si>
+  <si>
+    <t>* potentiel besoin nouveau poste SM</t>
+  </si>
+  <si>
+    <t>* potentiel besoin lead-tests</t>
+  </si>
+  <si>
+    <t>remontée besoins projet</t>
+  </si>
+  <si>
+    <t>18/1/23 remontée d'infos :</t>
+  </si>
+  <si>
+    <t>DIAC / check trains / discover backlog</t>
+  </si>
+  <si>
+    <t>pink fohawk</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1607,6 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1926,9 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A729" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T749" sqref="T749"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A739" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V749" sqref="V749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16539,7 +16571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="737" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>387</v>
       </c>
@@ -16562,7 +16594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>386</v>
       </c>
@@ -16576,7 +16608,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="739" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>385</v>
       </c>
@@ -16602,7 +16634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>384</v>
       </c>
@@ -16628,7 +16660,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="741" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>383</v>
       </c>
@@ -16654,7 +16686,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="742" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>382</v>
       </c>
@@ -16686,7 +16718,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="743" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>381</v>
       </c>
@@ -16712,7 +16744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="744" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>380</v>
       </c>
@@ -16727,7 +16759,7 @@
       </c>
       <c r="S744" s="49"/>
     </row>
-    <row r="745" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>379</v>
       </c>
@@ -16750,7 +16782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>378</v>
       </c>
@@ -16767,7 +16799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>377</v>
       </c>
@@ -16790,7 +16822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>376</v>
       </c>
@@ -16819,7 +16851,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="749" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>375</v>
       </c>
@@ -16832,8 +16864,17 @@
       <c r="D749" s="1">
         <v>44944</v>
       </c>
-    </row>
-    <row r="750" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="K749" s="50">
+        <v>1</v>
+      </c>
+      <c r="S749" t="s">
+        <v>244</v>
+      </c>
+      <c r="U749" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="750" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>374</v>
       </c>
@@ -16847,7 +16888,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="751" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>373</v>
       </c>
@@ -16861,7 +16902,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="752" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>372</v>
       </c>
@@ -22299,6 +22340,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30405CE-66E7-4705-AB6B-29E60510EE85}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15972E90-BF25-4DD6-AB9B-435616E31F54}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -22389,7 +22484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -22554,7 +22649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -22703,12 +22798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22825,357 +22920,362 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C52" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" t="s">
-        <v>157</v>
-      </c>
-      <c r="E52" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C53" s="13" t="s">
-        <v>106</v>
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C54" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C55" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C56" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="13" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="13" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C63" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D65" s="13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D66" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D67" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D69" s="13" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D70" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="13" t="s">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="13" t="s">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="13" t="s">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="13" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D78" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D80" s="13" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>139</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C89" s="16" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C90" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -23185,7 +23285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -23248,7 +23348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -23348,7 +23448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA991B75-A91D-4AF4-A08B-1D7BF0101A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F69A82-BA69-4083-BF45-DB33D6A1D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -1058,6 +1058,7 @@
           </rPr>
           <t xml:space="preserve">tonnerre
 cassebrique
+? force
 </t>
         </r>
         <r>
@@ -1160,6 +1161,745 @@
           </rPr>
           <t xml:space="preserve">? coupe
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT2" authorId="0" shapeId="0" xr:uid="{6E714F59-2106-42DF-A033-0BD5A793CC78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lanceflamme
+cru-aile
+dracogriffe
+…?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{295DF6FB-2DE9-4A51-85F7-88CA01BDDA68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ball'ombre
+psyko
+rafale
+soin</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{2D1723D0-EED1-441C-9F85-7E34BBD3032F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tonnerre
+cassebrique
+? force
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>? repos
+? malédiction
+? hypnose</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{E960C277-04D7-447B-B55E-8318773AF247}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">séïsme
+vol
+surf
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">? coupe
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{03B4FF64-803C-407A-99A3-2B5C683597A3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tonnerre
+vol
+…</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB2" authorId="0" shapeId="0" xr:uid="{92D76044-8752-41DC-AD8C-84DE01A88CCF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">séïsme
+roulade
+damoclès
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{C11F6569-057D-4F1D-9F9C-521B3BDFD304}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">séïsme
+surf
+poursuite
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>? force
+? mania</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>? laserglace</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT3" authorId="0" shapeId="0" xr:uid="{82C48B13-BDC7-461B-9EB4-0BA01ADEBEAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>feu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW3" authorId="0" shapeId="0" xr:uid="{5CF72776-4E36-4BC9-8FF3-FF56F435CDFB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC3" authorId="0" shapeId="0" xr:uid="{C13CEB35-6C7F-42EA-BED1-2262E2EF1C64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT4" authorId="0" shapeId="0" xr:uid="{7EEBB677-A266-4CC4-AF6E-94285D2620E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW4" authorId="0" shapeId="0" xr:uid="{AD1D4C35-8679-43A3-9A1D-638571492195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX4" authorId="0" shapeId="0" xr:uid="{025FCD60-ED05-4E5D-9068-8BCB26410FB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV6" authorId="0" shapeId="0" xr:uid="{FB086C68-3D76-4EA9-9276-811748453EC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+tonnerre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX6" authorId="0" shapeId="0" xr:uid="{34F95488-EADF-409A-A8C2-7DADC0D14712}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>elec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW7" authorId="0" shapeId="0" xr:uid="{7509C678-352B-4EA3-B18A-25D7FD84D6F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB7" authorId="0" shapeId="0" xr:uid="{06551068-E693-4236-8700-CA3046E2ECDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC7" authorId="0" shapeId="0" xr:uid="{AC03F63F-82EB-41B3-92ED-2667A2D6E12B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW8" authorId="0" shapeId="0" xr:uid="{4631053D-0F15-477E-BD7E-2F3B750ED591}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB8" authorId="0" shapeId="0" xr:uid="{AC2E2E7B-E755-4FF4-BDB6-C1DE17A44F39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC8" authorId="0" shapeId="0" xr:uid="{EFD76360-4ADC-46A4-96C2-3E1D26C4FFFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme :+surf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT9" authorId="0" shapeId="0" xr:uid="{8A53DAC3-B6AA-4CD2-BBE0-073119EDE6A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>feu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV9" authorId="0" shapeId="0" xr:uid="{84C550DE-D2FC-4228-9EF5-490E7591A027}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> :+cassebrique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT10" authorId="0" shapeId="0" xr:uid="{F363E26E-EAF5-4688-90CA-1037FB202991}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>feu, vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW10" authorId="0" shapeId="0" xr:uid="{420A2951-078D-4B3F-8820-ACCD7044A391}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX10" authorId="0" shapeId="0" xr:uid="{07156FE5-5F8F-4F9F-876E-1DF9020ED570}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB10" authorId="0" shapeId="0" xr:uid="{30B17B19-2196-4B8D-8479-C5013D66E28E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>roche</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV11" authorId="0" shapeId="0" xr:uid="{98A7AC65-E65C-4411-BE05-61C255CDFD6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> :+cassebrique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT12" authorId="0" shapeId="0" xr:uid="{8ABEA8C9-BB2F-481C-9603-07B98C9952F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>feu, vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW12" authorId="0" shapeId="0" xr:uid="{D4545E81-D1E1-4499-9260-E6E0ADF7072D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX12" authorId="0" shapeId="0" xr:uid="{9C790511-4957-4697-95BB-E6ADDE8EF4AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>vol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW13" authorId="0" shapeId="0" xr:uid="{EE719828-B80A-44BC-97B2-36BBBED40040}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY13" authorId="0" shapeId="0" xr:uid="{64A08867-3896-45F2-B8D4-DC6301236BB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC13" authorId="0" shapeId="0" xr:uid="{B21C8A49-71F6-47F9-B79B-0BF1705D20C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU14" authorId="0" shapeId="0" xr:uid="{D46EA5AC-BC73-4CAD-93C6-D3BCD21FCB0E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ball'ombre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY14" authorId="0" shapeId="0" xr:uid="{7905AE7B-5427-40CE-8ADD-9C8B01745CA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>morsure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC14" authorId="0" shapeId="0" xr:uid="{07DAA2B0-55CA-4342-A9D1-3F2E6028DF60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+poursuite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0" shapeId="0" xr:uid="{82D7C79D-14F7-4475-80EA-AAFD3E055D09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> :+cassebrique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0" shapeId="0" xr:uid="{AED04AFC-3DBA-4105-A6DF-24AA53C164AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>séïsme</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0" shapeId="0" xr:uid="{23CF3F6D-7B0C-460F-8523-55FA6FD016C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+séïsme :+surf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW16" authorId="0" shapeId="0" xr:uid="{28D749C6-4643-47A8-B135-55E17A8959E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+surf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC16" authorId="0" shapeId="0" xr:uid="{7736E454-526A-4A5F-944C-478F9FE2E492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+surf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY17" authorId="0" shapeId="0" xr:uid="{4FE93990-D006-45EB-B3A2-94CFA57343E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>morsure</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC17" authorId="0" shapeId="0" xr:uid="{58379661-0E7D-48E0-A69F-CBFC8B9CE4A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+poursuite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV19" authorId="0" shapeId="0" xr:uid="{A2747001-F2C8-4CDF-A453-7D2F411BE941}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>:+tonnerre</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX19" authorId="0" shapeId="0" xr:uid="{0117BB4F-86AC-42DF-A87A-3733F60AC74B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>elec</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB19" authorId="0" shapeId="0" xr:uid="{50AAFC7D-25A9-48C5-890C-3B71778272E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>roche</t>
         </r>
       </text>
     </comment>
@@ -1283,7 +2023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="738">
   <si>
     <t>muscu</t>
   </si>
@@ -2939,9 +3679,6 @@
   </si>
   <si>
     <t>dentiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">màj dep / </t>
   </si>
   <si>
     <t>màj dep: redisson/kryo (pb mvn instances-manager)</t>
@@ -3506,12 +4243,90 @@
   <si>
     <t>? ouragan</t>
   </si>
+  <si>
+    <t xml:space="preserve">27568 màj dep / </t>
+  </si>
+  <si>
+    <t>morsure</t>
+  </si>
+  <si>
+    <t>grolem</t>
+  </si>
+  <si>
+    <t>versus+</t>
+  </si>
+  <si>
+    <t>versus-</t>
+  </si>
+  <si>
+    <t>dracf+alak+ectop</t>
+  </si>
+  <si>
+    <t>cccp: error/warning 28529</t>
+  </si>
+  <si>
+    <t>ADVANTAGE nvelle prop° tarifaire 28449</t>
+  </si>
+  <si>
+    <t>cru-aile</t>
+  </si>
+  <si>
+    <t>dracogriffe</t>
+  </si>
+  <si>
+    <t>(feu)</t>
+  </si>
+  <si>
+    <t>psyko</t>
+  </si>
+  <si>
+    <t>rafale psy</t>
+  </si>
+  <si>
+    <t>soin</t>
+  </si>
+  <si>
+    <t>casse-brique</t>
+  </si>
+  <si>
+    <t>? force</t>
+  </si>
+  <si>
+    <t>? hypnose</t>
+  </si>
+  <si>
+    <t>? malédiction</t>
+  </si>
+  <si>
+    <t>? coupe</t>
+  </si>
+  <si>
+    <t>(vol)</t>
+  </si>
+  <si>
+    <t>(elec)</t>
+  </si>
+  <si>
+    <t>? surf</t>
+  </si>
+  <si>
+    <t>cage-éclair</t>
+  </si>
+  <si>
+    <t>? confusion</t>
+  </si>
+  <si>
+    <t>bec vrille</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3569,8 +4384,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3676,6 +4497,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5757"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3836,7 +4675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3951,9 +4790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3962,6 +4798,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16311,40 +17189,41 @@
   <dimension ref="A1:AM1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A797" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T811" sqref="T811"/>
+      <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U821" sqref="U821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="2.44140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" customWidth="1"/>
-    <col min="9" max="10" width="2.33203125" customWidth="1"/>
-    <col min="11" max="14" width="2.6640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" customWidth="1"/>
+    <col min="9" max="10" width="2.44140625" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="7" customWidth="1"/>
+    <col min="12" max="14" width="2.5546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
     <col min="16" max="16" width="7.5546875" customWidth="1"/>
-    <col min="17" max="19" width="8.33203125" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.33203125" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" customWidth="1"/>
-    <col min="25" max="26" width="5.33203125" customWidth="1"/>
-    <col min="27" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.33203125" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" customWidth="1"/>
-    <col min="32" max="32" width="5.6640625" customWidth="1"/>
-    <col min="33" max="33" width="3.33203125" customWidth="1"/>
-    <col min="34" max="34" width="5.6640625" customWidth="1"/>
+    <col min="17" max="19" width="8.44140625" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.44140625" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" customWidth="1"/>
+    <col min="25" max="26" width="5.44140625" customWidth="1"/>
+    <col min="27" max="28" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.44140625" customWidth="1"/>
+    <col min="32" max="32" width="5.5546875" customWidth="1"/>
+    <col min="33" max="33" width="3.44140625" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" customWidth="1"/>
     <col min="35" max="35" width="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" customWidth="1"/>
-    <col min="37" max="38" width="7.33203125" customWidth="1"/>
-    <col min="39" max="39" width="6.6640625" customWidth="1"/>
+    <col min="37" max="38" width="7.44140625" customWidth="1"/>
+    <col min="39" max="39" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:39" x14ac:dyDescent="0.3">
@@ -32228,7 +33107,7 @@
         <v>548</v>
       </c>
       <c r="U796" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="797" spans="1:21" x14ac:dyDescent="0.3">
@@ -32265,7 +33144,7 @@
         <v>19</v>
       </c>
       <c r="U798" t="s">
-        <v>551</v>
+        <v>712</v>
       </c>
     </row>
     <row r="799" spans="1:21" x14ac:dyDescent="0.3">
@@ -32291,7 +33170,7 @@
         <v>27</v>
       </c>
       <c r="U799" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="800" spans="1:21" x14ac:dyDescent="0.3">
@@ -32367,8 +33246,8 @@
       <c r="K803" s="7">
         <v>24</v>
       </c>
-      <c r="U803" t="s">
-        <v>593</v>
+      <c r="U803" s="24" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="804" spans="1:21" x14ac:dyDescent="0.3">
@@ -32400,7 +33279,7 @@
         <v>550</v>
       </c>
       <c r="U804" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="805" spans="1:21" x14ac:dyDescent="0.3">
@@ -32465,8 +33344,8 @@
       <c r="D807" s="1">
         <v>45002</v>
       </c>
-      <c r="U807" t="s">
-        <v>633</v>
+      <c r="U807" s="24" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="808" spans="1:21" x14ac:dyDescent="0.3">
@@ -32567,7 +33446,7 @@
         <v>1</v>
       </c>
       <c r="T811" s="13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="812" spans="1:21" x14ac:dyDescent="0.3">
@@ -32583,6 +33462,9 @@
       <c r="D812" s="1">
         <v>45007</v>
       </c>
+      <c r="U812" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="813" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A813">
@@ -32597,6 +33479,15 @@
       <c r="D813" s="1">
         <v>45008</v>
       </c>
+      <c r="I813">
+        <v>1</v>
+      </c>
+      <c r="J813">
+        <v>1</v>
+      </c>
+      <c r="U813" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="814" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A814">
@@ -32611,6 +33502,18 @@
       <c r="D814" s="1">
         <v>45009</v>
       </c>
+      <c r="F814" s="35">
+        <v>4</v>
+      </c>
+      <c r="H814" s="34">
+        <v>3</v>
+      </c>
+      <c r="I814" s="34">
+        <v>3</v>
+      </c>
+      <c r="U814" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="815" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A815">
@@ -32625,6 +33528,15 @@
       <c r="D815" s="1">
         <v>45010</v>
       </c>
+      <c r="F815" s="35">
+        <v>5</v>
+      </c>
+      <c r="H815" s="34">
+        <v>5</v>
+      </c>
+      <c r="I815" s="34">
+        <v>5</v>
+      </c>
     </row>
     <row r="816" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A816">
@@ -32639,8 +33551,14 @@
       <c r="D816" s="1">
         <v>45011</v>
       </c>
-    </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I816" s="24">
+        <v>1</v>
+      </c>
+      <c r="J816">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>307</v>
       </c>
@@ -32653,8 +33571,20 @@
       <c r="D817" s="1">
         <v>45012</v>
       </c>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F817" s="7">
+        <v>1</v>
+      </c>
+      <c r="H817">
+        <v>1</v>
+      </c>
+      <c r="I817" s="24">
+        <v>1</v>
+      </c>
+      <c r="U817" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="818" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>306</v>
       </c>
@@ -32667,8 +33597,14 @@
       <c r="D818" s="1">
         <v>45013</v>
       </c>
-    </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="K818" s="7">
+        <v>1</v>
+      </c>
+      <c r="U818" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="819" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>305</v>
       </c>
@@ -32681,8 +33617,23 @@
       <c r="D819" s="1">
         <v>45014</v>
       </c>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F819" s="7">
+        <v>1</v>
+      </c>
+      <c r="I819">
+        <v>1</v>
+      </c>
+      <c r="J819">
+        <v>1</v>
+      </c>
+      <c r="K819" s="7">
+        <v>2</v>
+      </c>
+      <c r="U819" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="820" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>304</v>
       </c>
@@ -32695,8 +33646,14 @@
       <c r="D820" s="1">
         <v>45015</v>
       </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F820" s="7">
+        <v>2</v>
+      </c>
+      <c r="U820" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="821" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>303</v>
       </c>
@@ -32709,8 +33666,14 @@
       <c r="D821" s="1">
         <v>45016</v>
       </c>
-    </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F821" s="7">
+        <v>1</v>
+      </c>
+      <c r="U821" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="822" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>302</v>
       </c>
@@ -32723,8 +33686,11 @@
       <c r="D822" s="1">
         <v>45017</v>
       </c>
-    </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F822" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="823" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>301</v>
       </c>
@@ -32737,8 +33703,17 @@
       <c r="D823" s="1">
         <v>45018</v>
       </c>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E823" s="7">
+        <v>1</v>
+      </c>
+      <c r="F823" s="7">
+        <v>2</v>
+      </c>
+      <c r="H823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>300</v>
       </c>
@@ -32751,8 +33726,20 @@
       <c r="D824" s="1">
         <v>45019</v>
       </c>
-    </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F824" s="7">
+        <v>1</v>
+      </c>
+      <c r="H824">
+        <v>1</v>
+      </c>
+      <c r="I824">
+        <v>3</v>
+      </c>
+      <c r="U824" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="825" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>299</v>
       </c>
@@ -32765,8 +33752,20 @@
       <c r="D825" s="1">
         <v>45020</v>
       </c>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F825" s="7">
+        <v>2</v>
+      </c>
+      <c r="H825">
+        <v>2</v>
+      </c>
+      <c r="I825">
+        <v>2</v>
+      </c>
+      <c r="U825" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="826" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>298</v>
       </c>
@@ -32780,7 +33779,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>297</v>
       </c>
@@ -32794,7 +33793,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>296</v>
       </c>
@@ -32808,7 +33807,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>295</v>
       </c>
@@ -32822,7 +33821,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>294</v>
       </c>
@@ -32836,7 +33835,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>293</v>
       </c>
@@ -32850,7 +33849,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>292</v>
       </c>
@@ -37161,6 +38160,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -37177,10 +38177,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37539,12 +38539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.44140625" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" customWidth="1"/>
+    <col min="2" max="2" width="76.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -37553,7 +38555,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="13" t="s">
         <v>221</v>
       </c>
     </row>
@@ -37573,12 +38575,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="48" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="13" t="s">
         <v>226</v>
       </c>
     </row>
@@ -37631,13 +38633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:T68"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="13"/>
+    <col min="2" max="2" width="11.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -37798,13 +38800,13 @@
       </c>
       <c r="H16" s="59"/>
       <c r="J16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L16" t="s">
+        <v>607</v>
+      </c>
+      <c r="M16" t="s">
         <v>608</v>
-      </c>
-      <c r="M16" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
@@ -37819,16 +38821,16 @@
       </c>
       <c r="H17" s="59"/>
       <c r="J17" s="63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L17" t="s">
+        <v>609</v>
+      </c>
+      <c r="M17" t="s">
         <v>610</v>
-      </c>
-      <c r="M17" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
@@ -37843,10 +38845,10 @@
       </c>
       <c r="H18" s="59"/>
       <c r="J18" s="65" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
@@ -37861,13 +38863,13 @@
       </c>
       <c r="H19" s="59"/>
       <c r="J19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K19" t="s">
+        <v>615</v>
+      </c>
+      <c r="L19" t="s">
         <v>616</v>
-      </c>
-      <c r="L19" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
@@ -37882,10 +38884,10 @@
       </c>
       <c r="H20" s="59"/>
       <c r="J20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
@@ -37900,10 +38902,10 @@
       </c>
       <c r="H21" s="59"/>
       <c r="J21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
@@ -37918,10 +38920,10 @@
       </c>
       <c r="H22" s="59"/>
       <c r="J22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
@@ -37936,13 +38938,13 @@
       </c>
       <c r="H23" s="59"/>
       <c r="J23" s="24" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
@@ -37954,19 +38956,19 @@
       </c>
       <c r="H24" s="59"/>
       <c r="J24" s="65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="M24" t="s">
         <v>646</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="M24" t="s">
-        <v>647</v>
-      </c>
       <c r="N24" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
@@ -37978,19 +38980,19 @@
       </c>
       <c r="H25" s="59"/>
       <c r="J25" s="65" t="s">
+        <v>634</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>636</v>
-      </c>
       <c r="L25" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
@@ -38002,28 +39004,28 @@
       </c>
       <c r="H26" s="59"/>
       <c r="J26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P26" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q26" t="s">
         <v>619</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>620</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
+        <v>636</v>
+      </c>
+      <c r="T26" t="s">
         <v>621</v>
-      </c>
-      <c r="S26" t="s">
-        <v>637</v>
-      </c>
-      <c r="T26" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
@@ -38035,16 +39037,16 @@
       </c>
       <c r="H27" s="59"/>
       <c r="J27" s="63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L27" t="s">
+        <v>642</v>
+      </c>
+      <c r="M27" t="s">
         <v>643</v>
-      </c>
-      <c r="M27" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
@@ -38059,10 +39061,10 @@
         <v>503</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
@@ -38074,7 +39076,7 @@
       </c>
       <c r="H29" s="59"/>
       <c r="J29" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
@@ -38086,10 +39088,10 @@
       </c>
       <c r="H30" s="59"/>
       <c r="J30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.3">
@@ -38110,37 +39112,37 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>534</v>
       </c>
       <c r="H35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I35" t="s">
         <v>571</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>572</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>573</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" s="56" t="s">
         <v>574</v>
       </c>
-      <c r="L35" s="56" t="s">
+      <c r="M35" t="s">
         <v>575</v>
-      </c>
-      <c r="M35" t="s">
-        <v>576</v>
       </c>
       <c r="N35" t="s">
         <v>502</v>
@@ -38149,18 +39151,18 @@
         <v>546</v>
       </c>
       <c r="P35" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q35" t="s">
         <v>579</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C36" t="s">
         <v>326</v>
@@ -38186,10 +39188,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C37" t="s">
         <v>326</v>
@@ -38209,10 +39211,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E38" t="s">
         <v>326</v>
@@ -38241,10 +39243,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C39" t="s">
         <v>326</v>
@@ -38276,10 +39278,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E40" t="s">
         <v>326</v>
@@ -38296,10 +39298,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
         <v>326</v>
@@ -38337,10 +39339,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E42" t="s">
         <v>326</v>
@@ -38360,10 +39362,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E43" t="s">
         <v>326</v>
@@ -38383,67 +39385,67 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>622</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" t="s">
         <v>624</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>625</v>
       </c>
-      <c r="D45" t="s">
-        <v>626</v>
-      </c>
       <c r="E45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>626</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>628</v>
-      </c>
       <c r="E46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C47" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="76" t="s">
-        <v>582</v>
-      </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92" t="s">
+        <v>581</v>
+      </c>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="92"/>
+      <c r="T49" s="92"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
@@ -38464,60 +39466,60 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="D51" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="D51" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="E51" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F51" s="59"/>
       <c r="G51" s="59"/>
       <c r="H51" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="J51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="K51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="L51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="M51" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="I51" s="59" t="s">
+      <c r="N51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="P51" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="J51" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="K51" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="L51" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="M51" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="N51" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="O51" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="P51" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="Q51" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R51" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S51" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
@@ -38528,24 +39530,24 @@
       <c r="H52" s="59"/>
       <c r="I52" s="59"/>
       <c r="J52" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K52" s="59"/>
       <c r="L52" s="59"/>
       <c r="M52" s="59"/>
       <c r="N52" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O52" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P52" s="59"/>
       <c r="Q52" s="59"/>
       <c r="R52" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="S52" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="S52" s="59" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -38556,24 +39558,24 @@
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F53" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="I53" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="I53" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="J53" s="59"/>
       <c r="K53" s="59"/>
       <c r="L53" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M53" s="59"/>
       <c r="N53" s="59"/>
@@ -38589,26 +39591,26 @@
       </c>
       <c r="B54" s="59"/>
       <c r="C54" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="G54" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="G54" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="H54" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I54" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J54" s="59"/>
       <c r="K54" s="59"/>
       <c r="L54" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M54" s="59"/>
       <c r="N54" s="59"/>
@@ -38622,13 +39624,13 @@
       <c r="A55" s="58"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
       <c r="G55" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H55" s="59"/>
       <c r="I55" s="59"/>
@@ -38639,48 +39641,48 @@
       <c r="N55" s="59"/>
       <c r="O55" s="59"/>
       <c r="P55" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q55" s="59"/>
       <c r="R55" s="59"/>
       <c r="S55" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B56" s="59"/>
       <c r="C56" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G56" s="59"/>
       <c r="H56" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I56" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J56" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K56" s="59"/>
       <c r="L56" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M56" s="59"/>
       <c r="N56" s="59"/>
       <c r="O56" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P56" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q56" s="59"/>
       <c r="R56" s="59"/>
@@ -38688,23 +39690,23 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B57" s="59"/>
       <c r="C57" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
       <c r="G57" s="59"/>
       <c r="H57" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
@@ -38712,7 +39714,7 @@
       <c r="M57" s="59"/>
       <c r="N57" s="59"/>
       <c r="O57" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P57" s="59"/>
       <c r="Q57" s="59"/>
@@ -38726,32 +39728,32 @@
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
       <c r="G58" s="59"/>
       <c r="H58" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I58" s="59"/>
       <c r="J58" s="59"/>
       <c r="K58" s="59"/>
       <c r="L58" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M58" s="59"/>
       <c r="N58" s="59"/>
       <c r="O58" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P58" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q58" s="59"/>
       <c r="R58" s="59"/>
       <c r="S58" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -38761,7 +39763,7 @@
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
       <c r="D59" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -38776,50 +39778,50 @@
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
       <c r="Q59" s="59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R59" s="59"/>
       <c r="S59" s="59"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="H60" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="G60" s="59" t="s">
+      <c r="I60" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="H60" s="59" t="s">
-        <v>590</v>
-      </c>
-      <c r="I60" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="J60" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K60" s="59"/>
       <c r="L60" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="M60" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="M60" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="N60" s="59"/>
       <c r="O60" s="59"/>
       <c r="P60" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q60" s="59"/>
       <c r="R60" s="59"/>
       <c r="S60" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -38829,7 +39831,7 @@
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -38837,21 +39839,21 @@
       <c r="H61" s="59"/>
       <c r="I61" s="59"/>
       <c r="J61" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K61" s="59"/>
       <c r="L61" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="M61" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="N61" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="M61" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="N61" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="O61" s="59"/>
       <c r="P61" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q61" s="59"/>
       <c r="R61" s="59"/>
@@ -38859,12 +39861,12 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -38872,21 +39874,21 @@
       <c r="H62" s="59"/>
       <c r="I62" s="59"/>
       <c r="J62" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K62" s="59"/>
       <c r="L62" s="59"/>
       <c r="M62" s="59"/>
       <c r="N62" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O62" s="59"/>
       <c r="P62" s="59"/>
       <c r="Q62" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R62" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S62" s="59"/>
     </row>
@@ -38896,39 +39898,39 @@
       </c>
       <c r="B63" s="59"/>
       <c r="C63" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D63" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E63" s="59"/>
       <c r="F63" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G63" s="59"/>
       <c r="H63" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I63" s="59"/>
       <c r="J63" s="59"/>
       <c r="K63" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="L63" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="L63" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="M63" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N63" s="59"/>
       <c r="O63" s="59"/>
       <c r="P63" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="Q63" s="59"/>
       <c r="R63" s="59"/>
       <c r="S63" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -38938,26 +39940,26 @@
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="G64" s="59" t="s">
         <v>590</v>
-      </c>
-      <c r="G64" s="59" t="s">
-        <v>591</v>
       </c>
       <c r="H64" s="59"/>
       <c r="I64" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J64" s="59"/>
       <c r="K64" s="59"/>
       <c r="L64" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M64" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N64" s="59"/>
       <c r="O64" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P64" s="59"/>
       <c r="Q64" s="59"/>
@@ -38969,7 +39971,7 @@
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -38977,23 +39979,23 @@
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
       <c r="J65" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K65" s="59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L65" s="59"/>
       <c r="M65" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N65" s="59"/>
       <c r="O65" s="59"/>
       <c r="P65" s="59"/>
       <c r="Q65" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R65" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S65" s="59"/>
     </row>
@@ -39002,7 +40004,7 @@
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -39010,21 +40012,21 @@
       <c r="H66" s="59"/>
       <c r="I66" s="59"/>
       <c r="J66" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K66" s="59"/>
       <c r="L66" s="59"/>
       <c r="M66" s="59"/>
       <c r="N66" s="59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O66" s="59"/>
       <c r="P66" s="59"/>
       <c r="Q66" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R66" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="S66" s="59"/>
     </row>
@@ -39033,31 +40035,31 @@
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
       <c r="D67" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
       <c r="G67" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H67" s="59"/>
       <c r="I67" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J67" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K67" s="59"/>
       <c r="L67" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M67" s="59"/>
       <c r="N67" s="59"/>
       <c r="O67" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="P67" s="59" t="s">
         <v>590</v>
-      </c>
-      <c r="P67" s="59" t="s">
-        <v>591</v>
       </c>
       <c r="Q67" s="59"/>
       <c r="R67" s="59"/>
@@ -39068,28 +40070,28 @@
       <c r="B68"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="76"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="76" t="s">
-        <v>582</v>
-      </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92" t="s">
+        <v>581</v>
+      </c>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="92"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="76"/>
-      <c r="B72" s="76"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
@@ -39106,48 +40108,48 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="57" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B73" s="59"/>
       <c r="C73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="D73" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="D73" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
       <c r="G73" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="H73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="I73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="K73" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="H73" s="59" t="s">
+      <c r="L73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="M73" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="N73" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="I73" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="J73" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="K73" s="59" t="s">
-        <v>591</v>
-      </c>
-      <c r="L73" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="M73" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="N73" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="O73" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -39156,20 +40158,20 @@
       <c r="F74" s="59"/>
       <c r="G74" s="59"/>
       <c r="H74" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I74" s="59"/>
       <c r="J74" s="59"/>
       <c r="K74" s="59"/>
       <c r="L74" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M74" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N74" s="59"/>
       <c r="O74" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -39178,22 +40180,22 @@
       </c>
       <c r="B75" s="59"/>
       <c r="C75" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D75" s="59"/>
       <c r="E75" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="F75" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="F75" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="G75" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H75" s="59"/>
       <c r="I75" s="59"/>
       <c r="J75" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K75" s="59"/>
       <c r="L75" s="59"/>
@@ -39205,12 +40207,12 @@
       <c r="A76" s="58"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G76" s="59"/>
       <c r="H76" s="59"/>
@@ -39220,42 +40222,42 @@
       <c r="L76" s="59"/>
       <c r="M76" s="59"/>
       <c r="N76" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O76" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B77" s="59"/>
       <c r="C77" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D77" s="59"/>
       <c r="E77" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F77" s="59"/>
       <c r="G77" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H77" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I77" s="59"/>
       <c r="J77" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K77" s="59"/>
       <c r="L77" s="59"/>
       <c r="M77" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N77" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O77" s="59"/>
     </row>
@@ -39266,28 +40268,28 @@
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E78" s="59"/>
       <c r="F78" s="59"/>
       <c r="G78" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H78" s="59"/>
       <c r="I78" s="59"/>
       <c r="J78" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K78" s="59"/>
       <c r="L78" s="59"/>
       <c r="M78" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N78" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="O78" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="O78" s="59" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -39297,7 +40299,7 @@
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E79" s="59"/>
       <c r="F79" s="59"/>
@@ -39313,37 +40315,37 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="G80" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="H80" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="G80" s="59" t="s">
-        <v>590</v>
-      </c>
-      <c r="H80" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="I80" s="59"/>
       <c r="J80" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="K80" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="K80" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="L80" s="59"/>
       <c r="M80" s="59"/>
       <c r="N80" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="O80" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="O80" s="59" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -39353,50 +40355,50 @@
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E81" s="59"/>
       <c r="F81" s="59"/>
       <c r="G81" s="59"/>
       <c r="H81" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I81" s="59"/>
       <c r="J81" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="K81" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="L81" s="59" t="s">
         <v>589</v>
-      </c>
-      <c r="K81" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="L81" s="59" t="s">
-        <v>590</v>
       </c>
       <c r="M81" s="59"/>
       <c r="N81" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O81" s="59"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E82" s="59"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I82" s="59"/>
       <c r="J82" s="59"/>
       <c r="K82" s="59"/>
       <c r="L82" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M82" s="59"/>
       <c r="N82" s="59"/>
@@ -39408,35 +40410,35 @@
       </c>
       <c r="B83" s="59"/>
       <c r="C83" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D83" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E83" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F83" s="59"/>
       <c r="G83" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H83" s="59"/>
       <c r="I83" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="J83" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="J83" s="59" t="s">
-        <v>590</v>
-      </c>
       <c r="K83" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L83" s="59"/>
       <c r="M83" s="59"/>
       <c r="N83" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O83" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -39445,23 +40447,23 @@
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="F84" s="59" t="s">
         <v>590</v>
-      </c>
-      <c r="F84" s="59" t="s">
-        <v>591</v>
       </c>
       <c r="G84" s="59"/>
       <c r="H84" s="59"/>
       <c r="I84" s="59"/>
       <c r="J84" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K84" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L84" s="59"/>
       <c r="M84" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N84" s="59"/>
       <c r="O84" s="59"/>
@@ -39471,27 +40473,27 @@
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E85" s="59"/>
       <c r="F85" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G85" s="59"/>
       <c r="H85" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I85" s="59"/>
       <c r="J85" s="59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K85" s="59"/>
       <c r="L85" s="59"/>
       <c r="M85" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="N85" s="59" t="s">
         <v>590</v>
-      </c>
-      <c r="N85" s="59" t="s">
-        <v>591</v>
       </c>
       <c r="O85" s="59"/>
     </row>
@@ -39515,45 +40517,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0DC9AF-78AB-4B77-B0F2-64C17F06A0B7}">
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:BC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AL3" sqref="AL3"/>
+    <sheetView tabSelected="1" topLeftCell="AN4" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="6" width="6.5546875" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="2" max="7" width="6.5546875" customWidth="1"/>
     <col min="8" max="8" width="6.44140625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="13" max="29" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="29" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2.88671875" customWidth="1"/>
     <col min="31" max="32" width="11.5546875" style="69"/>
-    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.21875" customWidth="1"/>
-    <col min="39" max="39" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+    <row r="1" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
       <c r="M1" s="64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
@@ -39574,8 +40574,8 @@
       <c r="AD1" s="66"/>
       <c r="AE1" s="64"/>
     </row>
-    <row r="2" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76"/>
+    <row r="2" spans="1:55" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="92"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -39606,40 +40606,75 @@
       <c r="AD2" s="69"/>
       <c r="AG2" s="69"/>
       <c r="AH2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AI2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AJ2" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AK2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AL2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM2" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AN2" s="24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AO2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>714</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>717</v>
+      </c>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV2" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="AW2" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AY2" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="BA2" s="88" t="s">
+        <v>666</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>714</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="59"/>
       <c r="B3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C3" s="60">
         <v>2</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E3" s="58"/>
       <c r="F3" s="60">
@@ -39649,17 +40684,17 @@
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
       <c r="K3" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L3" s="59"/>
       <c r="M3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N3" s="60">
         <v>2</v>
       </c>
       <c r="O3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P3" s="58"/>
       <c r="Q3" s="58"/>
@@ -39667,66 +40702,93 @@
         <v>2</v>
       </c>
       <c r="S3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W3" s="67">
         <v>0</v>
       </c>
       <c r="X3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z3" s="60">
         <v>2</v>
       </c>
       <c r="AA3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC3" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AD3" s="75">
         <v>3</v>
       </c>
       <c r="AE3" s="69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF3" s="68" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AG3" s="69"/>
       <c r="AH3" s="4" t="s">
         <v>538</v>
       </c>
       <c r="AK3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="24" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP3" s="3"/>
+      <c r="AQ3">
+        <v>1.5</v>
+      </c>
+      <c r="AR3" s="80" t="s">
+        <v>704</v>
+      </c>
+      <c r="AS3" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW3" s="24">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3">
+        <f>SUM(AT3:AY3)</f>
+        <v>2.1</v>
+      </c>
+      <c r="BA3" s="89"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
@@ -39736,10 +40798,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L4" s="59"/>
       <c r="M4" s="58"/>
@@ -39750,7 +40812,7 @@
       <c r="R4" s="58"/>
       <c r="S4" s="58"/>
       <c r="T4" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U4" s="58"/>
       <c r="V4" s="58"/>
@@ -39759,12 +40821,12 @@
         <v>2</v>
       </c>
       <c r="Y4" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z4" s="58"/>
       <c r="AA4" s="58"/>
       <c r="AB4" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC4" s="60">
         <v>2</v>
@@ -39776,11 +40838,11 @@
         <v>540</v>
       </c>
       <c r="AF4" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AG4" s="69"/>
       <c r="AH4" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AI4" s="4" t="s">
         <v>541</v>
@@ -39788,27 +40850,58 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN4" s="4"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP4" s="3"/>
+      <c r="AQ4">
+        <v>2.5</v>
+      </c>
+      <c r="AR4" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="AS4" s="74" t="s">
+        <v>669</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY4" s="4"/>
+      <c r="AZ4">
+        <f t="shared" ref="AZ4:AZ19" si="0">SUM(AT4:AY4)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="60">
         <v>2</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G5" s="58"/>
       <c r="H5" s="60">
@@ -39825,13 +40918,13 @@
         <v>2</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R5" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S5" s="60">
         <v>2</v>
@@ -39839,7 +40932,7 @@
       <c r="T5" s="58"/>
       <c r="U5" s="58"/>
       <c r="V5" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W5" s="58"/>
       <c r="X5" s="58"/>
@@ -39852,29 +40945,54 @@
         <v>2</v>
       </c>
       <c r="AE5" s="69" t="s">
-        <v>706</v>
-      </c>
-      <c r="AF5" s="77" t="s">
-        <v>678</v>
+        <v>705</v>
+      </c>
+      <c r="AF5" s="76" t="s">
+        <v>677</v>
       </c>
       <c r="AG5" s="69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AH5" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AK5" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AM5" s="3"/>
       <c r="AN5" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AO5" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="80" t="s">
+        <v>705</v>
+      </c>
+      <c r="AS5" s="84" t="s">
+        <v>677</v>
+      </c>
+      <c r="AT5" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="AW5" s="3"/>
+      <c r="AY5" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="90"/>
+      <c r="BB5"/>
+      <c r="BC5" s="36" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -39883,11 +41001,11 @@
       </c>
       <c r="E6" s="58"/>
       <c r="F6" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I6" s="58">
         <v>2</v>
@@ -39897,21 +41015,21 @@
       </c>
       <c r="L6" s="59"/>
       <c r="M6" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N6" s="58"/>
       <c r="O6" s="58"/>
       <c r="P6" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q6" s="60">
         <v>2</v>
       </c>
       <c r="R6" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S6" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T6" s="58"/>
       <c r="U6" s="58"/>
@@ -39932,29 +41050,54 @@
         <v>510</v>
       </c>
       <c r="AF6" s="71" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AG6" s="69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH6" s="3"/>
       <c r="AJ6" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AL6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP6" s="3"/>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="79" t="s">
+        <v>510</v>
+      </c>
+      <c r="AS6" s="84" t="s">
+        <v>676</v>
+      </c>
+      <c r="AT6" s="3"/>
+      <c r="AV6" s="24">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="4"/>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4"/>
+      <c r="AZ6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="3"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D7" s="60">
         <v>2</v>
@@ -39963,13 +41106,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G7" s="58">
         <v>2</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I7" s="60">
         <v>2</v>
@@ -39977,13 +41120,13 @@
       <c r="K7" s="58"/>
       <c r="L7" s="59"/>
       <c r="M7" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
       <c r="P7" s="58"/>
       <c r="Q7" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R7" s="58"/>
       <c r="S7" s="58"/>
@@ -39999,54 +41142,82 @@
       <c r="AA7" s="58"/>
       <c r="AB7" s="58"/>
       <c r="AC7" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AD7" s="75">
         <v>2</v>
       </c>
       <c r="AE7" s="69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AF7" s="71" t="s">
         <v>508</v>
       </c>
       <c r="AG7" s="69" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AH7" s="3"/>
       <c r="AK7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AM7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP7" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="79" t="s">
+        <v>698</v>
+      </c>
+      <c r="AS7" s="85" t="s">
+        <v>508</v>
+      </c>
+      <c r="AT7" s="3"/>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3"/>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H8" s="58">
         <v>2</v>
       </c>
       <c r="I8" s="58"/>
       <c r="K8" s="64" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L8" s="59"/>
       <c r="M8" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
@@ -40055,17 +41226,17 @@
       </c>
       <c r="Q8" s="58"/>
       <c r="R8" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S8" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T8" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U8" s="58"/>
       <c r="V8" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W8" s="58"/>
       <c r="X8" s="58"/>
@@ -40084,23 +41255,57 @@
       <c r="AE8" s="69" t="s">
         <v>538</v>
       </c>
-      <c r="AF8" s="78" t="s">
-        <v>676</v>
+      <c r="AF8" s="77" t="s">
+        <v>675</v>
       </c>
       <c r="AG8" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AK8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="AN8" s="4"/>
+        <v>692</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="AO8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP8" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="AS8" s="86" t="s">
+        <v>675</v>
+      </c>
+      <c r="AT8" s="4"/>
+      <c r="AW8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA8" s="89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="60">
         <v>2</v>
@@ -40114,12 +41319,12 @@
         <v>2</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58"/>
       <c r="K9" s="64" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="60">
@@ -40135,7 +41340,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T9" s="58"/>
       <c r="U9" s="58"/>
@@ -40153,24 +41358,49 @@
         <v>2</v>
       </c>
       <c r="AE9" s="69" t="s">
-        <v>707</v>
-      </c>
-      <c r="AF9" s="78" t="s">
-        <v>675</v>
+        <v>706</v>
+      </c>
+      <c r="AF9" s="77" t="s">
+        <v>674</v>
       </c>
       <c r="AG9" s="69"/>
       <c r="AH9" s="24" t="s">
         <v>538</v>
       </c>
       <c r="AJ9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="24"/>
       <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9" s="3"/>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="80" t="s">
+        <v>706</v>
+      </c>
+      <c r="AS9" s="82" t="s">
+        <v>674</v>
+      </c>
+      <c r="AT9" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="3"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
       <c r="B10" s="58"/>
       <c r="C10" s="60">
@@ -40178,10 +41408,10 @@
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G10" s="58"/>
       <c r="H10" s="60">
@@ -40194,7 +41424,7 @@
       <c r="L10" s="59"/>
       <c r="M10" s="58"/>
       <c r="N10" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O10" s="58"/>
       <c r="P10" s="58"/>
@@ -40206,7 +41436,7 @@
       <c r="T10" s="58"/>
       <c r="U10" s="58"/>
       <c r="V10" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
@@ -40214,7 +41444,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA10" s="58"/>
       <c r="AB10" s="58"/>
@@ -40225,26 +41455,57 @@
         <v>3</v>
       </c>
       <c r="AE10" s="69" t="s">
-        <v>708</v>
-      </c>
-      <c r="AF10" s="78" t="s">
-        <v>683</v>
+        <v>707</v>
+      </c>
+      <c r="AF10" s="77" t="s">
+        <v>682</v>
       </c>
       <c r="AG10" s="69"/>
       <c r="AH10" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AJ10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP10" t="s">
+        <v>511</v>
+      </c>
+      <c r="AQ10">
+        <v>1.5</v>
+      </c>
+      <c r="AR10" s="79" t="s">
+        <v>707</v>
+      </c>
+      <c r="AS10" s="82" t="s">
+        <v>682</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY10" s="4"/>
+      <c r="AZ10">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BA10" s="89"/>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K11" s="64" t="s">
         <v>67</v>
       </c>
@@ -40276,32 +41537,53 @@
       <c r="AE11" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="AF11" s="79" t="s">
-        <v>679</v>
+      <c r="AF11" s="78" t="s">
+        <v>678</v>
       </c>
       <c r="AG11" s="69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AJ11" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AM11" s="24"/>
       <c r="AN11" s="24"/>
       <c r="AO11" s="4"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11" s="4"/>
+      <c r="AQ11">
+        <v>1.5</v>
+      </c>
+      <c r="AR11" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="AS11" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA11" s="90"/>
+      <c r="BB11" s="4"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K12" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
       <c r="P12" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R12" s="60">
         <v>2</v>
@@ -40314,7 +41596,7 @@
       </c>
       <c r="U12" s="58"/>
       <c r="V12" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W12" s="60">
         <v>2</v>
@@ -40322,7 +41604,7 @@
       <c r="X12" s="58"/>
       <c r="Y12" s="58"/>
       <c r="Z12" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA12" s="58"/>
       <c r="AB12" s="58"/>
@@ -40335,31 +41617,61 @@
       <c r="AE12" s="69" t="s">
         <v>509</v>
       </c>
-      <c r="AF12" s="78" t="s">
-        <v>682</v>
+      <c r="AF12" s="77" t="s">
+        <v>681</v>
       </c>
       <c r="AG12" s="69"/>
       <c r="AH12" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="4"/>
       <c r="AL12" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AN12" s="24"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12" s="3"/>
+      <c r="AQ12">
+        <v>1.5</v>
+      </c>
+      <c r="AR12" s="79" t="s">
+        <v>509</v>
+      </c>
+      <c r="AS12" s="82" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY12" s="24"/>
+      <c r="AZ12">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="BA12" s="90">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="3"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K13" s="64" t="s">
         <v>190</v>
       </c>
       <c r="L13" s="59"/>
       <c r="M13" s="58"/>
       <c r="N13" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O13" s="58"/>
       <c r="P13" s="58"/>
@@ -40367,14 +41679,14 @@
       <c r="R13" s="58"/>
       <c r="S13" s="58"/>
       <c r="T13" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U13" s="58"/>
       <c r="V13" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W13" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X13" s="60">
         <v>2</v>
@@ -40390,10 +41702,10 @@
         <v>3</v>
       </c>
       <c r="AE13" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AF13" s="70" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AG13" s="69"/>
       <c r="AI13" s="24" t="s">
@@ -40401,22 +41713,53 @@
       </c>
       <c r="AJ13" s="4"/>
       <c r="AK13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AM13" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="AN13" s="24"/>
+        <v>692</v>
+      </c>
+      <c r="AN13" s="24" t="s">
+        <v>692</v>
+      </c>
       <c r="AO13" s="4"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP13" s="4"/>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="79" t="s">
+        <v>708</v>
+      </c>
+      <c r="AS13" s="84" t="s">
+        <v>680</v>
+      </c>
+      <c r="AU13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K14" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L14" s="59"/>
       <c r="M14" s="58"/>
       <c r="N14" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O14" s="58"/>
       <c r="P14" s="58"/>
@@ -40430,7 +41773,7 @@
       <c r="V14" s="58"/>
       <c r="W14" s="58"/>
       <c r="X14" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y14" s="58"/>
       <c r="Z14" s="58"/>
@@ -40448,22 +41791,50 @@
         <v>541</v>
       </c>
       <c r="AF14" s="70" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AG14" s="69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AI14" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AN14" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ14">
+        <v>1.5</v>
+      </c>
+      <c r="AR14" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="AS14" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="AU14" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="24"/>
+      <c r="AY14" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="BA14" s="91"/>
+      <c r="BB14"/>
+      <c r="BC14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K15" s="64" t="s">
         <v>66</v>
       </c>
@@ -40480,18 +41851,18 @@
       </c>
       <c r="Q15" s="58"/>
       <c r="R15" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S15" s="58"/>
       <c r="T15" s="58"/>
       <c r="U15" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V15" s="60">
         <v>2</v>
       </c>
       <c r="W15" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X15" s="58"/>
       <c r="Y15" s="58"/>
@@ -40501,7 +41872,7 @@
       <c r="AA15" s="58"/>
       <c r="AB15" s="58"/>
       <c r="AC15" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AD15" s="75">
         <v>2</v>
@@ -40510,24 +41881,56 @@
         <v>511</v>
       </c>
       <c r="AF15" s="70" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AG15" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AH15" s="3"/>
       <c r="AJ15" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AK15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AQ15">
+        <v>2.5</v>
+      </c>
+      <c r="AR15" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="AS15" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="AT15" s="3"/>
+      <c r="AV15" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA15" s="90">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K16" s="64"/>
       <c r="L16" s="59"/>
       <c r="M16" s="58"/>
@@ -40549,11 +41952,11 @@
         <v>2</v>
       </c>
       <c r="W16" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X16" s="58"/>
       <c r="Y16" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Z16" s="58"/>
       <c r="AA16" s="58"/>
@@ -40566,23 +41969,55 @@
         <v>508</v>
       </c>
       <c r="AF16" s="70" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AG16" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AH16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="AN16" s="4"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP16" s="3"/>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="81" t="s">
+        <v>508</v>
+      </c>
+      <c r="AS16" s="85" t="s">
+        <v>686</v>
+      </c>
+      <c r="AT16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BA16" s="91">
+        <v>1E-4</v>
+      </c>
+      <c r="BB16" s="3"/>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K17" s="64"/>
       <c r="L17" s="59"/>
       <c r="M17" s="58"/>
@@ -40595,14 +42030,14 @@
       <c r="R17" s="58"/>
       <c r="S17" s="58"/>
       <c r="T17" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U17" s="67">
         <v>0</v>
       </c>
       <c r="V17" s="58"/>
       <c r="W17" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X17" s="58"/>
       <c r="Y17" s="58"/>
@@ -40618,22 +42053,48 @@
         <v>1</v>
       </c>
       <c r="AE17" s="69" t="s">
-        <v>649</v>
-      </c>
-      <c r="AF17" s="77" t="s">
-        <v>685</v>
+        <v>648</v>
+      </c>
+      <c r="AF17" s="76" t="s">
+        <v>684</v>
       </c>
       <c r="AG17" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AM17" s="24"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AN17" s="24" t="s">
+        <v>713</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="81" t="s">
+        <v>648</v>
+      </c>
+      <c r="AS17" s="85" t="s">
+        <v>684</v>
+      </c>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="24"/>
+      <c r="AY17" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BB17"/>
+      <c r="BC17" s="39">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K18" s="64"/>
       <c r="L18" s="59"/>
       <c r="M18" s="58"/>
@@ -40657,32 +42118,49 @@
       <c r="Y18" s="58"/>
       <c r="Z18" s="58"/>
       <c r="AA18" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB18" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AC18" s="58"/>
       <c r="AD18" s="58">
         <v>0</v>
       </c>
       <c r="AE18" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF18" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AG18" s="69"/>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AM18" s="24"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="80" t="s">
+        <v>709</v>
+      </c>
+      <c r="AS18" s="87" t="s">
+        <v>685</v>
+      </c>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="24"/>
+      <c r="AZ18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB18"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K19" s="64"/>
       <c r="L19" s="59"/>
       <c r="M19" s="58"/>
       <c r="N19" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
@@ -40694,11 +42172,11 @@
         <v>2</v>
       </c>
       <c r="T19" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U19" s="58"/>
       <c r="V19" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W19" s="58"/>
       <c r="X19" s="58"/>
@@ -40715,24 +42193,51 @@
         <v>2</v>
       </c>
       <c r="AE19" s="69" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF19" s="71" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AG19" s="69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AJ19" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AL19" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AM19" s="24"/>
       <c r="AN19" s="24"/>
-    </row>
-    <row r="20" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP19" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="79" t="s">
+        <v>569</v>
+      </c>
+      <c r="AS19" s="84" t="s">
+        <v>683</v>
+      </c>
+      <c r="AV19" s="24">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY19" s="24"/>
+      <c r="AZ19">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="BB19" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -40740,17 +42245,56 @@
       <c r="E20" s="59"/>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AS20" t="s">
+        <v>715</v>
+      </c>
+      <c r="AT20">
+        <f>SUM(AT3:AT19)</f>
+        <v>5.4</v>
+      </c>
+      <c r="AU20">
+        <f>SUM(AU3:AU19)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" ref="AV20:AY20" si="1">SUM(AV3:AV19)</f>
+        <v>5.2</v>
+      </c>
+      <c r="AW20">
+        <f>SUM(AW3:AW19)</f>
+        <v>8.5</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="BA20">
+        <f>SUM(BA3:BA19)</f>
+        <v>3.1001000000000003</v>
+      </c>
+      <c r="BB20">
+        <f>SUM(BB3:BB19)</f>
+        <v>5.4</v>
+      </c>
+      <c r="BC20">
+        <f>SUM(BC3:BC19)</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="59"/>
       <c r="B21" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C21" s="60">
         <v>2</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E21" s="60">
         <v>2</v>
@@ -40761,13 +42305,13 @@
         <v>100</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M21" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N21" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P21" s="72">
         <v>2</v>
@@ -40776,13 +42320,13 @@
         <v>2</v>
       </c>
       <c r="R21" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T21" s="68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="V21" s="68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Y21" s="73">
         <v>4</v>
@@ -40791,32 +42335,59 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF21" t="s">
         <v>499</v>
       </c>
       <c r="AG21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AH21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AI21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AJ21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AK21" s="69" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+      <c r="AT21">
+        <v>100</v>
+      </c>
+      <c r="AU21">
+        <v>120</v>
+      </c>
+      <c r="AV21">
+        <v>110</v>
+      </c>
+      <c r="AW21">
+        <v>80</v>
+      </c>
+      <c r="AX21">
+        <v>100</v>
+      </c>
+      <c r="AY21">
+        <v>81</v>
+      </c>
+      <c r="BA21">
+        <v>100</v>
+      </c>
+      <c r="BB21" s="24">
+        <v>45</v>
+      </c>
+      <c r="BC21" s="24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="59"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -40824,22 +42395,22 @@
         <v>2</v>
       </c>
       <c r="G22" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K22">
         <v>120</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N22" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U22" s="72">
         <v>2</v>
       </c>
       <c r="X22" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA22" s="72">
         <v>2</v>
@@ -40848,38 +42419,65 @@
         <v>2</v>
       </c>
       <c r="AE22" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF22" s="48" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG22" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AH22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AI22" s="13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AJ22" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AK22" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="AT22">
+        <v>534</v>
+      </c>
+      <c r="AU22">
+        <v>490</v>
+      </c>
+      <c r="AV22">
+        <v>500</v>
+      </c>
+      <c r="AW22" s="24">
+        <v>600</v>
+      </c>
+      <c r="AX22" s="24">
+        <v>580</v>
+      </c>
+      <c r="AY22" s="24">
+        <v>540</v>
+      </c>
+      <c r="BA22">
+        <v>515</v>
+      </c>
+      <c r="BB22" s="24">
+        <v>495</v>
+      </c>
+      <c r="BC22" s="24">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="59"/>
       <c r="B23" s="60">
         <v>2</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F23" s="60">
         <v>2</v>
@@ -40889,22 +42487,22 @@
         <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M23" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N23" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S23" s="72">
         <v>2</v>
       </c>
       <c r="T23" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V23" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y23" s="72">
         <v>2</v>
@@ -40913,47 +42511,77 @@
         <v>0</v>
       </c>
       <c r="AC23" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AD23" s="75"/>
       <c r="AE23" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF23" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="AF23" s="48" t="s">
-        <v>653</v>
-      </c>
       <c r="AG23" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AH23" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AI23" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ23" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AK23" s="13" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>716</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>3</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23" s="24">
+        <v>3</v>
+      </c>
+      <c r="AX23" s="24">
+        <v>2</v>
+      </c>
+      <c r="AY23" s="24">
+        <v>2</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23" s="24">
+        <v>6</v>
+      </c>
+      <c r="BC23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="59"/>
       <c r="B24" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D24" s="60">
         <v>2</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G24" s="60">
         <v>2</v>
@@ -40962,7 +42590,7 @@
         <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N24" s="72">
         <v>2</v>
@@ -40971,25 +42599,25 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF24" s="48" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AH24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AI24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AK24" t="s">
         <v>651</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>651</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="59"/>
       <c r="B25" s="60">
         <v>2</v>
@@ -41007,28 +42635,28 @@
         <v>110</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N25" s="68">
         <v>0</v>
       </c>
       <c r="T25" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U25" s="68">
         <v>0</v>
       </c>
       <c r="V25" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W25" s="68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="X25" s="72">
         <v>2</v>
       </c>
       <c r="Z25" s="68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AA25" s="72">
         <v>2</v>
@@ -41037,22 +42665,40 @@
         <v>2</v>
       </c>
       <c r="AE25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF25" s="48" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AJ25" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AK25" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AT25" t="s">
+        <v>614</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>656</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>615</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>615</v>
+      </c>
+      <c r="AY25" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="59"/>
       <c r="B26" s="58"/>
       <c r="C26" s="60">
@@ -41060,7 +42706,7 @@
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F26" s="60">
         <v>0</v>
@@ -41070,28 +42716,28 @@
         <v>80</v>
       </c>
       <c r="L26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N26" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O26" s="72">
         <v>2</v>
       </c>
       <c r="P26" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R26" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S26" s="73">
         <v>4</v>
       </c>
       <c r="T26" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V26" s="68" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Y26" s="72">
         <v>2</v>
@@ -41100,45 +42746,63 @@
         <v>0</v>
       </c>
       <c r="AE26" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AF26" s="48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AH26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AJ26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AK26" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>720</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>723</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>726</v>
+      </c>
+      <c r="AW26" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>736</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K27">
         <v>81</v>
       </c>
       <c r="L27" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M27" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N27" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P27" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q27" s="73">
         <v>4</v>
       </c>
       <c r="R27" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T27" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y27" s="72">
         <v>2</v>
@@ -41147,48 +42811,63 @@
         <v>0</v>
       </c>
       <c r="AE27" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AJ27" t="s">
         <v>531</v>
       </c>
       <c r="AK27" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>721</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>724</v>
+      </c>
+      <c r="AV27" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="AW27" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="AX27" s="36" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K28">
         <v>100</v>
       </c>
       <c r="L28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q28" s="72">
         <v>2</v>
       </c>
       <c r="R28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="T28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W28" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X28" s="72">
         <v>2</v>
@@ -41197,21 +42876,36 @@
         <v>2</v>
       </c>
       <c r="AE28" s="36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AJ28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AK28" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>722</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>725</v>
+      </c>
+      <c r="AV28" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="AW28" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="K29">
         <v>110</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N29" s="72">
         <v>2</v>
@@ -41220,12 +42914,18 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>729</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="L30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M30" s="72">
         <v>2</v>
@@ -41237,34 +42937,84 @@
         <v>2</v>
       </c>
       <c r="R30" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S30" s="72">
         <v>2</v>
       </c>
       <c r="T30" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U30" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W30" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Y30" s="72">
         <v>2</v>
       </c>
       <c r="AC30" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AD30" s="75"/>
       <c r="AE30" s="36" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="AV30" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>714</v>
+      </c>
+      <c r="M31" s="72">
+        <v>2</v>
+      </c>
+      <c r="N31" s="72">
+        <v>2</v>
+      </c>
+      <c r="P31" s="73">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>0</v>
+      </c>
+      <c r="R31" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="S31" s="72">
+        <v>2</v>
+      </c>
+      <c r="U31" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="V31" s="73">
+        <v>4</v>
+      </c>
+      <c r="W31" s="68" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y31" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z31" s="72">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="68" t="s">
+        <v>591</v>
+      </c>
+      <c r="AX31" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="L32" s="74" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
@@ -41288,10 +43038,13 @@
         <v>326</v>
       </c>
       <c r="AD32" s="74"/>
-    </row>
-    <row r="33" spans="12:30" x14ac:dyDescent="0.3">
+      <c r="AX32" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="12:50" x14ac:dyDescent="0.3">
       <c r="L33" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
@@ -41317,6 +43070,14 @@
       <c r="AB33" s="74"/>
       <c r="AC33" s="74"/>
       <c r="AD33" s="74"/>
+      <c r="AX33" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="34" spans="12:50" x14ac:dyDescent="0.3">
+      <c r="AX34" s="48" t="s">
+        <v>737</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -41734,9 +43495,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EDFA20-9B1A-49BE-971D-676850DB260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C853918E-D9DA-4205-AEB8-B1B200FF6DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
     <sheet name="DSM" sheetId="10" r:id="rId2"/>
     <sheet name="pokemon" sheetId="14" r:id="rId3"/>
     <sheet name="pk table" sheetId="15" r:id="rId4"/>
-    <sheet name="réunions++" sheetId="11" r:id="rId5"/>
-    <sheet name="bm-midj" sheetId="13" r:id="rId6"/>
-    <sheet name="bm emulation" sheetId="12" r:id="rId7"/>
-    <sheet name="busyme" sheetId="7" r:id="rId8"/>
-    <sheet name="bm-wow" sheetId="8" r:id="rId9"/>
-    <sheet name="indep" sheetId="9" r:id="rId10"/>
-    <sheet name="Brendon" sheetId="6" r:id="rId11"/>
-    <sheet name="exercices" sheetId="4" r:id="rId12"/>
-    <sheet name="croyances limitantes" sheetId="5" r:id="rId13"/>
+    <sheet name="cgpt" sheetId="16" r:id="rId5"/>
+    <sheet name="réunions++" sheetId="11" r:id="rId6"/>
+    <sheet name="bm-midj" sheetId="13" r:id="rId7"/>
+    <sheet name="bm emulation" sheetId="12" r:id="rId8"/>
+    <sheet name="busyme" sheetId="7" r:id="rId9"/>
+    <sheet name="bm-wow" sheetId="8" r:id="rId10"/>
+    <sheet name="indep" sheetId="9" r:id="rId11"/>
+    <sheet name="Brendon" sheetId="6" r:id="rId12"/>
+    <sheet name="exercices" sheetId="4" r:id="rId13"/>
+    <sheet name="croyances limitantes" sheetId="5" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'bm emulation'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'bm emulation'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2268,6 +2269,121 @@
         </r>
       </text>
     </comment>
+    <comment ref="AT55" authorId="0" shapeId="0" xr:uid="{F0BEB565-CF6A-4374-BF03-D1963F03B84C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>lanceflamme
+cru-aile
+dracogriffe
+…?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU55" authorId="0" shapeId="0" xr:uid="{A1BC5835-860D-4237-B724-3CBF6BE4770D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tonnerre
+cassebrique
+? force
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>? repos
+? malédiction
+? hypnose</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV55" authorId="0" shapeId="0" xr:uid="{3A7D1333-BD9C-4A3C-88F4-4E5904657ADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">séïsme
+vol
+surf
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">? coupe
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW55" authorId="0" shapeId="0" xr:uid="{E0D12EC3-6C5A-4EBA-B726-F3020AF6F5F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tonnerre
+vol
+…</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY55" authorId="0" shapeId="0" xr:uid="{ED2F3185-4A21-459B-BAB5-4040817DAD12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ball'ombre
+psyko
+rafale
+soin</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2291,7 +2407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="766">
   <si>
     <t>muscu</t>
   </si>
@@ -4644,23 +4760,50 @@
     <t>review 28385, rétro-testeur</t>
   </si>
   <si>
-    <t>metrique "messages consumed" absente 28829</t>
-  </si>
-  <si>
     <t>feu sol com</t>
   </si>
   <si>
-    <t>2+1</t>
-  </si>
-  <si>
     <t>spe</t>
+  </si>
+  <si>
+    <t>metrique "messages consumed" absente 28829, incident prod BGP, passeport de prod</t>
+  </si>
+  <si>
+    <t>(hypnose)</t>
+  </si>
+  <si>
+    <t>(ball'ombre)</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>force rapide</t>
+  </si>
+  <si>
+    <t>elec+</t>
+  </si>
+  <si>
+    <t>To create a Windows software that continuously records the computer screen like a dashcam, you can use a screen recording library such as OBS (Open Broadcaster Software) or FFmpeg. Both of these libraries are open-source and free to use.
+Here are the general steps you can follow to create this software:
+    Install OBS or FFmpeg on your computer.
+    Write a script or program that starts the screen recording when the software is launched.
+    Set up the recording settings such as frame rate, resolution, and video format.
+    Continuously record the computer screen while the software is running.
+    Implement a function that allows the user to save the last 5 recorded minutes. To do this, you will need to have the software continuously recording the screen in a loop, but only saving the last 5 minutes of the recording. One way to do this is to use a circular buffer, where the oldest frames are replaced with the newest frames once the buffer reaches a certain size.
+    Add a user interface to the software that allows the user to start and stop the recording and save the last 5 minutes.
+    Test the software thoroughly to ensure it works as expected.
+Note that screen recording software can be resource-intensive, so make sure to optimize the software for performance to avoid any lag or other issues.</t>
+  </si>
+  <si>
+    <t>I want to create a windows software continuously recording the computer screen like a dashcam, so that when the user chooses so it can save tha last 5 recorded minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4729,6 +4872,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5018,7 +5168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5212,6 +5362,11 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18533,7 +18688,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A803" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R828" sqref="R828"/>
+      <selection pane="bottomLeft" activeCell="U828" sqref="U828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35147,6 +35302,15 @@
       <c r="D827" s="1">
         <v>45022</v>
       </c>
+      <c r="F827" s="7">
+        <v>1</v>
+      </c>
+      <c r="H827">
+        <v>1</v>
+      </c>
+      <c r="I827">
+        <v>1</v>
+      </c>
       <c r="P827" t="s">
         <v>189</v>
       </c>
@@ -35157,7 +35321,7 @@
         <v>189</v>
       </c>
       <c r="U827" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="828" spans="1:21" x14ac:dyDescent="0.25">
@@ -35172,6 +35336,12 @@
       </c>
       <c r="D828" s="1">
         <v>45023</v>
+      </c>
+      <c r="I828">
+        <v>1</v>
+      </c>
+      <c r="J828">
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:21" x14ac:dyDescent="0.25">
@@ -39535,6 +39705,155 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -39699,7 +40018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -39762,7 +40081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -39862,7 +40181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -40787,32 +41106,32 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110" t="s">
         <v>581</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="110"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
@@ -41437,28 +41756,28 @@
       <c r="B68"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="105" t="s">
+      <c r="A71" s="110"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="110" t="s">
         <v>581</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
+      <c r="D71" s="110"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="110"/>
+      <c r="H71" s="110"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="105"/>
-      <c r="B72" s="105"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
@@ -41884,10 +42203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0DC9AF-78AB-4B77-B0F2-64C17F06A0B7}">
-  <dimension ref="A1:BD49"/>
+  <dimension ref="A1:BD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ16" workbookViewId="0">
-      <selection activeCell="AS48" sqref="AS48"/>
+    <sheetView topLeftCell="AF22" workbookViewId="0">
+      <selection activeCell="AX57" sqref="AX57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41910,15 +42229,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
       <c r="M1" s="64" t="s">
@@ -41944,7 +42263,7 @@
       <c r="AE1" s="64"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
+      <c r="A2" s="110"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -42136,7 +42455,7 @@
         <v>704</v>
       </c>
       <c r="AS3" s="100" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AT3" s="4">
         <v>1.1000000000000001</v>
@@ -44710,6 +45029,9 @@
       <c r="AA36" s="74"/>
       <c r="AB36" s="74"/>
       <c r="AC36" s="74"/>
+      <c r="AU36" t="s">
+        <v>760</v>
+      </c>
       <c r="AY36" s="4" t="s">
         <v>656</v>
       </c>
@@ -44718,6 +45040,9 @@
       <c r="AT37" s="4" t="s">
         <v>721</v>
       </c>
+      <c r="AU37" t="s">
+        <v>759</v>
+      </c>
       <c r="AV37" t="s">
         <v>753</v>
       </c>
@@ -44807,14 +45132,14 @@
       <c r="AU41">
         <v>1.5</v>
       </c>
-      <c r="AV41" s="88" t="s">
-        <v>758</v>
+      <c r="AV41" s="88">
+        <v>3</v>
       </c>
       <c r="AW41">
         <v>1</v>
       </c>
-      <c r="AX41" s="88" t="s">
-        <v>758</v>
+      <c r="AX41" s="88">
+        <v>3</v>
       </c>
       <c r="AY41">
         <v>0</v>
@@ -44833,7 +45158,7 @@
       <c r="AR42" s="94">
         <v>0.95</v>
       </c>
-      <c r="AS42" s="13" t="s">
+      <c r="AS42" s="16" t="s">
         <v>568</v>
       </c>
       <c r="AT42" s="103" t="s">
@@ -44860,7 +45185,7 @@
       <c r="AR43" s="94">
         <v>0.95</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AS43" s="91" t="s">
         <v>569</v>
       </c>
       <c r="AT43" s="95" t="s">
@@ -44878,7 +45203,7 @@
     </row>
     <row r="44" spans="8:51" x14ac:dyDescent="0.25">
       <c r="AN44" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AO44" t="s">
         <v>510</v>
@@ -44892,7 +45217,7 @@
       <c r="AR44" s="94">
         <v>1</v>
       </c>
-      <c r="AS44" s="48" t="s">
+      <c r="AS44" s="105" t="s">
         <v>561</v>
       </c>
       <c r="AT44" s="88"/>
@@ -44919,7 +45244,7 @@
       <c r="AR45" s="94">
         <v>1</v>
       </c>
-      <c r="AS45" s="13" t="s">
+      <c r="AS45" s="16" t="s">
         <v>562</v>
       </c>
       <c r="AT45" s="104" t="s">
@@ -44971,7 +45296,7 @@
       <c r="AR47" s="94">
         <v>1</v>
       </c>
-      <c r="AS47" s="13" t="s">
+      <c r="AS47" s="16" t="s">
         <v>564</v>
       </c>
       <c r="AT47" s="104" t="s">
@@ -45044,6 +45369,206 @@
         <v>497</v>
       </c>
       <c r="AY49" s="88"/>
+    </row>
+    <row r="50" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT50">
+        <v>1</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>761</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AW50">
+        <v>1</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AS51" t="s">
+        <v>762</v>
+      </c>
+      <c r="AT51" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>760</v>
+      </c>
+      <c r="AV51" s="91" t="s">
+        <v>568</v>
+      </c>
+      <c r="AW51" s="91" t="s">
+        <v>569</v>
+      </c>
+      <c r="AY51" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT52" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV52" s="105" t="s">
+        <v>565</v>
+      </c>
+      <c r="AW52" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AX52" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="AY52" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT53" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AU53" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="AV53" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AW53" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AX53" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY53" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT54" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AU54" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AV54" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AW54" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="AX54" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AY54" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT55" t="s">
+        <v>606</v>
+      </c>
+      <c r="AU55" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="AV55" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="AW55" t="s">
+        <v>601</v>
+      </c>
+      <c r="AX55" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AS56" t="s">
+        <v>763</v>
+      </c>
+      <c r="AT56" s="91" t="s">
+        <v>568</v>
+      </c>
+      <c r="AU56" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AV56" s="91" t="s">
+        <v>569</v>
+      </c>
+      <c r="AW56" s="108" t="s">
+        <v>732</v>
+      </c>
+      <c r="AX56" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="AY56" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT57" s="107" t="s">
+        <v>721</v>
+      </c>
+      <c r="AU57" s="36" t="s">
+        <v>759</v>
+      </c>
+      <c r="AV57" s="105" t="s">
+        <v>565</v>
+      </c>
+      <c r="AW57" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AX57" s="109" t="s">
+        <v>754</v>
+      </c>
+      <c r="AY57" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="58" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT58" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AU58" s="107" t="s">
+        <v>726</v>
+      </c>
+      <c r="AV58" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="AW58" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="AX58" s="106" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY58" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="59" spans="41:51" x14ac:dyDescent="0.25">
+      <c r="AT59" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AU59" s="107" t="s">
+        <v>615</v>
+      </c>
+      <c r="AV59" s="107" t="s">
+        <v>649</v>
+      </c>
+      <c r="AW59" s="93" t="s">
+        <v>734</v>
+      </c>
+      <c r="AX59" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AY59" s="4" t="s">
+        <v>725</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -45078,6 +45603,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA823053-9862-4722-85BE-9EB9DAA91F86}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -45181,7 +45729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -45470,7 +46018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
@@ -47653,7 +48201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
@@ -48163,153 +48711,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFE47C-4C61-4351-A6F8-CB3063A8D2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38830F41-0943-484D-AED5-E05B2E789928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18450" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2407,7 +2407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="777">
   <si>
     <t>muscu</t>
   </si>
@@ -4827,6 +4827,9 @@
   </si>
   <si>
     <t>PAO-28585 remontée des ancillaryServiceEligibilities</t>
+  </si>
+  <si>
+    <t>11h, 18h</t>
   </si>
 </sst>
 </file>
@@ -18726,8 +18729,8 @@
   <dimension ref="A1:AM1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A826" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I847" sqref="I847"/>
+      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E868" sqref="E868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35815,8 +35818,17 @@
       <c r="D848" s="1">
         <v>45043</v>
       </c>
-    </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F848" s="7">
+        <v>3</v>
+      </c>
+      <c r="H848">
+        <v>3</v>
+      </c>
+      <c r="I848">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="849" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>275</v>
       </c>
@@ -35829,8 +35841,20 @@
       <c r="D849" s="1">
         <v>45044</v>
       </c>
-    </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F849" s="7">
+        <v>1</v>
+      </c>
+      <c r="H849">
+        <v>1</v>
+      </c>
+      <c r="I849">
+        <v>1</v>
+      </c>
+      <c r="S849" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="850" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>274</v>
       </c>
@@ -35844,7 +35868,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>273</v>
       </c>
@@ -35858,7 +35882,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>272</v>
       </c>
@@ -35872,7 +35896,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>271</v>
       </c>
@@ -35886,7 +35910,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>270</v>
       </c>
@@ -35900,7 +35924,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>269</v>
       </c>
@@ -35914,7 +35938,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>268</v>
       </c>
@@ -35928,7 +35952,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>267</v>
       </c>
@@ -35942,7 +35966,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>266</v>
       </c>
@@ -35955,8 +35979,14 @@
       <c r="D858" s="1">
         <v>45053</v>
       </c>
-    </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F858" s="7">
+        <v>1</v>
+      </c>
+      <c r="H858">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>265</v>
       </c>
@@ -35969,8 +35999,14 @@
       <c r="D859" s="1">
         <v>45054</v>
       </c>
-    </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F859" s="7">
+        <v>1</v>
+      </c>
+      <c r="H859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>264</v>
       </c>
@@ -35983,8 +36019,14 @@
       <c r="D860" s="1">
         <v>45055</v>
       </c>
-    </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="I860">
+        <v>1</v>
+      </c>
+      <c r="J860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>263</v>
       </c>
@@ -35997,8 +36039,14 @@
       <c r="D861" s="1">
         <v>45056</v>
       </c>
-    </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F861" s="7">
+        <v>2</v>
+      </c>
+      <c r="H861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>262</v>
       </c>
@@ -36011,8 +36059,14 @@
       <c r="D862" s="1">
         <v>45057</v>
       </c>
-    </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F862" s="7">
+        <v>1</v>
+      </c>
+      <c r="H862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>261</v>
       </c>
@@ -36026,7 +36080,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>260</v>
       </c>
@@ -36040,7 +36094,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>259</v>
       </c>
@@ -36053,8 +36107,17 @@
       <c r="D865" s="1">
         <v>45060</v>
       </c>
-    </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E865" s="7">
+        <v>1</v>
+      </c>
+      <c r="F865" s="7">
+        <v>1</v>
+      </c>
+      <c r="H865">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="866" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>258</v>
       </c>
@@ -36067,8 +36130,18 @@
       <c r="D866" s="1">
         <v>45061</v>
       </c>
-    </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E866" s="7">
+        <v>1</v>
+      </c>
+      <c r="F866" s="7"/>
+      <c r="H866">
+        <v>1</v>
+      </c>
+      <c r="Q866" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="867" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>257</v>
       </c>
@@ -36081,8 +36154,17 @@
       <c r="D867" s="1">
         <v>45062</v>
       </c>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F867" s="7">
+        <v>4</v>
+      </c>
+      <c r="I867">
+        <v>4</v>
+      </c>
+      <c r="J867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>256</v>
       </c>
@@ -36095,8 +36177,17 @@
       <c r="D868" s="1">
         <v>45063</v>
       </c>
-    </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F868" s="7">
+        <v>1</v>
+      </c>
+      <c r="I868">
+        <v>1</v>
+      </c>
+      <c r="J868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>255</v>
       </c>
@@ -36110,7 +36201,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>254</v>
       </c>
@@ -36124,7 +36215,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>253</v>
       </c>
@@ -36138,7 +36229,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>252</v>
       </c>
@@ -36152,7 +36243,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>251</v>
       </c>
@@ -36166,7 +36257,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>250</v>
       </c>
@@ -36180,7 +36271,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>249</v>
       </c>
@@ -36194,7 +36285,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>248</v>
       </c>
@@ -36208,7 +36299,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>247</v>
       </c>
@@ -36222,7 +36313,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>246</v>
       </c>
@@ -36236,7 +36327,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>245</v>
       </c>
@@ -36250,7 +36341,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>244</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE14E88-529E-4A25-83B5-76426A02A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECD064-AE75-4659-A30F-737F4A7D5D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
     <sheet name="DSM" sheetId="10" r:id="rId2"/>
-    <sheet name="cgpt" sheetId="16" r:id="rId3"/>
-    <sheet name="réunions++" sheetId="11" r:id="rId4"/>
-    <sheet name="bm-midj" sheetId="13" r:id="rId5"/>
-    <sheet name="bm emulation" sheetId="12" r:id="rId6"/>
-    <sheet name="busyme" sheetId="7" r:id="rId7"/>
-    <sheet name="bm-wow" sheetId="8" r:id="rId8"/>
-    <sheet name="indep" sheetId="9" r:id="rId9"/>
-    <sheet name="Brendon" sheetId="6" r:id="rId10"/>
-    <sheet name="exercices" sheetId="4" r:id="rId11"/>
-    <sheet name="croyances limitantes" sheetId="5" r:id="rId12"/>
-    <sheet name="pk table" sheetId="15" r:id="rId13"/>
-    <sheet name="pokemon" sheetId="14" r:id="rId14"/>
-    <sheet name="popculture" sheetId="17" r:id="rId15"/>
-    <sheet name="memdeck" sheetId="18" r:id="rId16"/>
-    <sheet name="shadowrun" sheetId="19" r:id="rId17"/>
-    <sheet name="SR scenars" sheetId="20" r:id="rId18"/>
+    <sheet name="mission" sheetId="21" r:id="rId3"/>
+    <sheet name="cgpt" sheetId="16" r:id="rId4"/>
+    <sheet name="réunions++" sheetId="11" r:id="rId5"/>
+    <sheet name="bm-midj" sheetId="13" r:id="rId6"/>
+    <sheet name="bm emulation" sheetId="12" r:id="rId7"/>
+    <sheet name="busyme" sheetId="7" r:id="rId8"/>
+    <sheet name="bm-wow" sheetId="8" r:id="rId9"/>
+    <sheet name="indep" sheetId="9" r:id="rId10"/>
+    <sheet name="Brendon" sheetId="6" r:id="rId11"/>
+    <sheet name="exercices" sheetId="4" r:id="rId12"/>
+    <sheet name="croyances limitantes" sheetId="5" r:id="rId13"/>
+    <sheet name="pk table" sheetId="15" r:id="rId14"/>
+    <sheet name="pokemon" sheetId="14" r:id="rId15"/>
+    <sheet name="popculture" sheetId="17" r:id="rId16"/>
+    <sheet name="memdeck" sheetId="18" r:id="rId17"/>
+    <sheet name="shadowrun" sheetId="19" r:id="rId18"/>
+    <sheet name="SR scenars" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'bm emulation'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'bm emulation'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2511,7 +2512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1225">
   <si>
     <t>muscu</t>
   </si>
@@ -7141,6 +7142,93 @@
   </si>
   <si>
     <t>note d'install° patch 169.1, workday, mob 31376 billing 3123, review TARS 3123</t>
+  </si>
+  <si>
+    <t>review 30663</t>
+  </si>
+  <si>
+    <t>robin 31531, décom° api deprecated 29696</t>
+  </si>
+  <si>
+    <t>1to1</t>
+  </si>
+  <si>
+    <t>review Fabienne 30663, cadrage déco RR, stratégie tests Stargate, robin 31531, décom° api deprecated 29696</t>
+  </si>
+  <si>
+    <t>(annonce départ Zahra)</t>
+  </si>
+  <si>
+    <t>(annonce départ Laura)</t>
+  </si>
+  <si>
+    <t>review TARS Gurvan PAOBOOST-272, début mig°TARS 31340, refinement, cré point API robin 31531</t>
+  </si>
+  <si>
+    <t>review TARS Gurvan PAOBOOST-272, début mig°TARS 31340</t>
+  </si>
+  <si>
+    <t>chocolats</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>💨</t>
+  </si>
+  <si>
+    <t>la routourne va tourner / Ribery</t>
+  </si>
+  <si>
+    <t>mais ça va bien s'passer</t>
+  </si>
+  <si>
+    <t>à la piscine je suis petit, mais dans ta bouche je suis cozy…</t>
+  </si>
+  <si>
+    <t>Muffin Song - I wanna die, die, die !</t>
+  </si>
+  <si>
+    <t>j'veux mourir !</t>
+  </si>
+  <si>
+    <t>pas du matin</t>
+  </si>
+  <si>
+    <t>chats</t>
+  </si>
+  <si>
+    <t>Gilles</t>
+  </si>
+  <si>
+    <t>Bodo</t>
+  </si>
+  <si>
+    <t>Yann S.</t>
+  </si>
+  <si>
+    <t>JB R.</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>arrêt maladie</t>
+  </si>
+  <si>
+    <t>kiss strat. prop°, one2on, routourne, mig°TARS 31340, migraine</t>
+  </si>
+  <si>
+    <t>mig°TARS 31340</t>
+  </si>
+  <si>
+    <t>mig°TARS 31340, conf décoRR, point API 31531</t>
+  </si>
+  <si>
+    <t>réus, mob 28577 toggl° deprecated</t>
+  </si>
+  <si>
+    <t>review Lucie, review Fabienne 31683</t>
   </si>
 </sst>
 </file>
@@ -21027,8 +21115,8 @@
   <dimension ref="A1:AO1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1024" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1032" sqref="H1032"/>
+      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1059" sqref="F1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42099,13 +42187,13 @@
         <v>1</v>
       </c>
       <c r="F1031">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1031">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I1031">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O1031" t="s">
         <v>1151</v>
@@ -42124,6 +42212,15 @@
       <c r="D1032" s="1">
         <v>45227</v>
       </c>
+      <c r="E1032">
+        <v>1</v>
+      </c>
+      <c r="H1032">
+        <v>1</v>
+      </c>
+      <c r="I1032">
+        <v>1</v>
+      </c>
     </row>
     <row r="1033" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1033">
@@ -42138,6 +42235,15 @@
       <c r="D1033" s="1">
         <v>45228</v>
       </c>
+      <c r="E1033">
+        <v>1</v>
+      </c>
+      <c r="H1033">
+        <v>1</v>
+      </c>
+      <c r="I1033">
+        <v>1</v>
+      </c>
     </row>
     <row r="1034" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1034">
@@ -42152,6 +42258,24 @@
       <c r="D1034" s="1">
         <v>45229</v>
       </c>
+      <c r="F1034">
+        <v>3</v>
+      </c>
+      <c r="G1034">
+        <v>1</v>
+      </c>
+      <c r="H1034">
+        <v>2</v>
+      </c>
+      <c r="I1034">
+        <v>2</v>
+      </c>
+      <c r="O1034" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W1034" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="1035" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1035">
@@ -42166,6 +42290,18 @@
       <c r="D1035" s="1">
         <v>45230</v>
       </c>
+      <c r="F1035">
+        <v>1</v>
+      </c>
+      <c r="O1035" t="s">
+        <v>1219</v>
+      </c>
+      <c r="V1035" t="s">
+        <v>1198</v>
+      </c>
+      <c r="W1035" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="1036" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1036">
@@ -42180,6 +42316,12 @@
       <c r="D1036" s="1">
         <v>45231</v>
       </c>
+      <c r="J1036">
+        <v>1</v>
+      </c>
+      <c r="O1036" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="1037" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1037">
@@ -42194,6 +42336,21 @@
       <c r="D1037" s="1">
         <v>45232</v>
       </c>
+      <c r="F1037">
+        <v>3</v>
+      </c>
+      <c r="H1037">
+        <v>2</v>
+      </c>
+      <c r="I1037">
+        <v>2</v>
+      </c>
+      <c r="O1037" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W1037" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="1038" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1038">
@@ -42208,6 +42365,9 @@
       <c r="D1038" s="1">
         <v>45233</v>
       </c>
+      <c r="V1038" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="1039" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1039">
@@ -42237,7 +42397,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1041">
         <v>83</v>
       </c>
@@ -42250,8 +42410,11 @@
       <c r="D1041" s="1">
         <v>45236</v>
       </c>
-    </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1042">
         <v>82</v>
       </c>
@@ -42264,8 +42427,14 @@
       <c r="D1042" s="1">
         <v>45237</v>
       </c>
-    </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="S1042" t="s">
+        <v>184</v>
+      </c>
+      <c r="W1042" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1043">
         <v>81</v>
       </c>
@@ -42278,8 +42447,29 @@
       <c r="D1043" s="1">
         <v>45238</v>
       </c>
-    </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1043">
+        <v>3</v>
+      </c>
+      <c r="H1043">
+        <v>3</v>
+      </c>
+      <c r="I1043">
+        <v>4</v>
+      </c>
+      <c r="J1043">
+        <v>1</v>
+      </c>
+      <c r="O1043" t="s">
+        <v>1151</v>
+      </c>
+      <c r="V1043" t="s">
+        <v>1201</v>
+      </c>
+      <c r="W1043" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1044">
         <v>80</v>
       </c>
@@ -42292,8 +42482,23 @@
       <c r="D1044" s="1">
         <v>45239</v>
       </c>
-    </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="O1044" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R1044" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1044" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1044" t="s">
+        <v>189</v>
+      </c>
+      <c r="W1044" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1045">
         <v>79</v>
       </c>
@@ -42307,7 +42512,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1046">
         <v>78</v>
       </c>
@@ -42321,7 +42526,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1047">
         <v>77</v>
       </c>
@@ -42335,7 +42540,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1048">
         <v>76</v>
       </c>
@@ -42348,8 +42553,14 @@
       <c r="D1048" s="1">
         <v>45243</v>
       </c>
-    </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1048">
+        <v>1</v>
+      </c>
+      <c r="U1048" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1049">
         <v>75</v>
       </c>
@@ -42362,8 +42573,20 @@
       <c r="D1049" s="1">
         <v>45244</v>
       </c>
-    </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1049">
+        <v>2</v>
+      </c>
+      <c r="H1049">
+        <v>1</v>
+      </c>
+      <c r="I1049">
+        <v>1</v>
+      </c>
+      <c r="W1049" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1050">
         <v>74</v>
       </c>
@@ -42376,8 +42599,23 @@
       <c r="D1050" s="1">
         <v>45245</v>
       </c>
-    </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1050">
+        <v>3</v>
+      </c>
+      <c r="H1050">
+        <v>3</v>
+      </c>
+      <c r="I1050">
+        <v>3</v>
+      </c>
+      <c r="O1050" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W1050" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1051">
         <v>73</v>
       </c>
@@ -42390,8 +42628,23 @@
       <c r="D1051" s="1">
         <v>45246</v>
       </c>
-    </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1051">
+        <v>2</v>
+      </c>
+      <c r="H1051">
+        <v>1</v>
+      </c>
+      <c r="I1051">
+        <v>1</v>
+      </c>
+      <c r="O1051" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W1051" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1052">
         <v>72</v>
       </c>
@@ -42404,8 +42657,12 @@
       <c r="D1052" s="1">
         <v>45247</v>
       </c>
-    </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1052" s="4"/>
+      <c r="W1052" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1053">
         <v>71</v>
       </c>
@@ -42418,8 +42675,9 @@
       <c r="D1053" s="1">
         <v>45248</v>
       </c>
-    </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1053" s="4"/>
+    </row>
+    <row r="1054" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1054">
         <v>70</v>
       </c>
@@ -42432,8 +42690,15 @@
       <c r="D1054" s="1">
         <v>45249</v>
       </c>
-    </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1054">
+        <v>1</v>
+      </c>
+      <c r="F1054" s="4"/>
+      <c r="I1054">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1055">
         <v>69</v>
       </c>
@@ -42447,7 +42712,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1056">
         <v>68</v>
       </c>
@@ -42460,8 +42725,23 @@
       <c r="D1056" s="1">
         <v>45251</v>
       </c>
-    </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1056">
+        <v>2</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056">
+        <v>1</v>
+      </c>
+      <c r="O1056" t="s">
+        <v>1151</v>
+      </c>
+      <c r="W1056" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1057">
         <v>67</v>
       </c>
@@ -42474,8 +42754,20 @@
       <c r="D1057" s="1">
         <v>45252</v>
       </c>
-    </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1057">
+        <v>3</v>
+      </c>
+      <c r="H1057">
+        <v>2</v>
+      </c>
+      <c r="I1057">
+        <v>2</v>
+      </c>
+      <c r="O1057" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1058">
         <v>66</v>
       </c>
@@ -42488,8 +42780,14 @@
       <c r="D1058" s="1">
         <v>45253</v>
       </c>
-    </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1058">
+        <v>1</v>
+      </c>
+      <c r="O1058" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1059">
         <v>65</v>
       </c>
@@ -42503,7 +42801,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1060">
         <v>64</v>
       </c>
@@ -42517,7 +42815,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1061">
         <v>63</v>
       </c>
@@ -42531,7 +42829,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1062">
         <v>62</v>
       </c>
@@ -42545,7 +42843,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1063">
         <v>61</v>
       </c>
@@ -42559,7 +42857,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1064">
         <v>60</v>
       </c>
@@ -42573,7 +42871,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1065">
         <v>59</v>
       </c>
@@ -42587,7 +42885,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1066">
         <v>58</v>
       </c>
@@ -42601,7 +42899,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1067">
         <v>57</v>
       </c>
@@ -42615,7 +42913,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1068">
         <v>56</v>
       </c>
@@ -42629,7 +42927,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1069">
         <v>55</v>
       </c>
@@ -42643,7 +42941,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1070">
         <v>54</v>
       </c>
@@ -42657,7 +42955,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1071">
         <v>53</v>
       </c>
@@ -42671,7 +42969,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1072">
         <v>52</v>
       </c>
@@ -43630,6 +43928,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="28">
+        <v>470</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <f>SUM(365-52*2-F5)</f>
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="28">
+        <v>10000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="28">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F1:F3)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="27" t="str">
+        <f>_xlfn.CONCAT(ROUNDDOWN(100*B8/(B1*B2),0),"%")</f>
+        <v>51%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="25">
+        <f>B1*(1-B4/100)*B2-B3</f>
+        <v>76292</v>
+      </c>
+      <c r="C7" s="25">
+        <f>ROUNDDOWN(B7/12,0)</f>
+        <v>6357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8">
+        <f>ROUNDDOWN(B7/1.45,0)</f>
+        <v>52615</v>
+      </c>
+      <c r="C8" s="11">
+        <f>B8/12</f>
+        <v>4384.583333333333</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f>_xlfn.CONCAT(ROUNDDOWN(100*F7*12/(B1*B2),0),"%")</f>
+        <v>34%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="11" t="str">
+        <f>_xlfn.CONCAT("+",ROUNDDOWN(((C8/F7)-1)*100,0),"%")</f>
+        <v>+51%</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -43692,7 +44155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -43792,7 +44255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -43832,7 +44295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:BD64"/>
   <sheetViews>
@@ -47291,7 +47754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T86"/>
   <sheetViews>
@@ -49177,7 +49640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -49751,7 +50214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E184"/>
   <sheetViews>
@@ -51297,7 +51760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -52060,7 +52523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -52142,7 +52605,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52191,7 +52654,7 @@
         <v>226</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>1106</v>
@@ -52214,7 +52677,7 @@
         <v>323</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>1105</v>
@@ -52237,7 +52700,7 @@
         <v>224</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>316</v>
@@ -52260,7 +52723,7 @@
         <v>323</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>316</v>
@@ -52303,7 +52766,7 @@
         <v>323</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>316</v>
@@ -52491,6 +52954,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC8ED46-ADAD-4E1A-9502-D3A35C274165}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B14" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -52513,7 +53098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -52585,7 +53170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -52874,7 +53459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
@@ -55057,7 +55642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E95"/>
   <sheetViews>
@@ -55569,7 +56154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -55716,169 +56301,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="28">
-        <v>470</v>
-      </c>
-      <c r="C1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2">
-        <f>SUM(365-52*2-F5)</f>
-        <v>216</v>
-      </c>
-      <c r="C2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="28">
-        <v>10000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="28">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5">
-        <f>SUM(F1:F3)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="27" t="str">
-        <f>_xlfn.CONCAT(ROUNDDOWN(100*B8/(B1*B2),0),"%")</f>
-        <v>51%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="25">
-        <f>B1*(1-B4/100)*B2-B3</f>
-        <v>76292</v>
-      </c>
-      <c r="C7" s="25">
-        <f>ROUNDDOWN(B7/12,0)</f>
-        <v>6357</v>
-      </c>
-      <c r="D7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8">
-        <f>ROUNDDOWN(B7/1.45,0)</f>
-        <v>52615</v>
-      </c>
-      <c r="C8" s="11">
-        <f>B8/12</f>
-        <v>4384.583333333333</v>
-      </c>
-      <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f>_xlfn.CONCAT(ROUNDDOWN(100*F7*12/(B1*B2),0),"%")</f>
-        <v>34%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="11" t="str">
-        <f>_xlfn.CONCAT("+",ROUNDDOWN(((C8/F7)-1)*100,0),"%")</f>
-        <v>+51%</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/track.xlsx
+++ b/track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ECD064-AE75-4659-A30F-737F4A7D5D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C01DE19-04C6-49EA-AFF1-B8C18E4F116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22176" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -2512,7 +2512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="1230">
   <si>
     <t>muscu</t>
   </si>
@@ -7225,10 +7225,25 @@
     <t>mig°TARS 31340, conf décoRR, point API 31531</t>
   </si>
   <si>
-    <t>réus, mob 28577 toggl° deprecated</t>
-  </si>
-  <si>
     <t>review Lucie, review Fabienne 31683</t>
+  </si>
+  <si>
+    <t>réus, mob 31118 toggl° deprecated</t>
+  </si>
+  <si>
+    <t>full réus</t>
+  </si>
+  <si>
+    <t>réus</t>
+  </si>
+  <si>
+    <t>(congé)</t>
+  </si>
+  <si>
+    <t>dépl. Paris</t>
+  </si>
+  <si>
+    <t>31340 mig°bdd, 31118 depr°150: FT</t>
   </si>
 </sst>
 </file>
@@ -21115,39 +21130,39 @@
   <dimension ref="A1:AO1150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1033" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1059" sqref="F1059"/>
+      <pane ySplit="1" topLeftCell="A1058" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1085" sqref="J1085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="10" width="2.109375" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" customWidth="1"/>
+    <col min="7" max="10" width="2.33203125" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="16" width="2.5546875" customWidth="1"/>
     <col min="17" max="17" width="4.5546875" customWidth="1"/>
     <col min="18" max="18" width="7.5546875" customWidth="1"/>
-    <col min="19" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="6.109375" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.109375" customWidth="1"/>
+    <col min="19" max="21" width="8.33203125" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" customWidth="1"/>
     <col min="26" max="26" width="5.5546875" customWidth="1"/>
-    <col min="27" max="28" width="5.109375" customWidth="1"/>
-    <col min="29" max="30" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.109375" customWidth="1"/>
+    <col min="27" max="28" width="5.33203125" customWidth="1"/>
+    <col min="29" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" customWidth="1"/>
     <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.109375" customWidth="1"/>
+    <col min="33" max="33" width="6.33203125" customWidth="1"/>
     <col min="34" max="34" width="5.5546875" customWidth="1"/>
-    <col min="35" max="35" width="3.109375" customWidth="1"/>
+    <col min="35" max="35" width="3.33203125" customWidth="1"/>
     <col min="36" max="36" width="5.5546875" customWidth="1"/>
     <col min="37" max="37" width="3" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
-    <col min="39" max="40" width="7.109375" customWidth="1"/>
+    <col min="39" max="40" width="7.33203125" customWidth="1"/>
     <col min="41" max="41" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -42511,6 +42526,9 @@
       <c r="D1045" s="1">
         <v>45240</v>
       </c>
+      <c r="W1045" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="1046" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1046">
@@ -42559,6 +42577,9 @@
       <c r="U1048" t="s">
         <v>189</v>
       </c>
+      <c r="W1048" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="1049" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1049">
@@ -42659,7 +42680,7 @@
       </c>
       <c r="F1052" s="4"/>
       <c r="W1052" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1053" spans="1:23" x14ac:dyDescent="0.3">
@@ -42738,10 +42759,10 @@
         <v>1151</v>
       </c>
       <c r="W1056" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1057">
         <v>67</v>
       </c>
@@ -42766,8 +42787,11 @@
       <c r="O1057" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1058" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="W1057" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1058">
         <v>66</v>
       </c>
@@ -42781,13 +42805,22 @@
         <v>45253</v>
       </c>
       <c r="F1058">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H1058">
+        <v>4</v>
+      </c>
+      <c r="I1058">
+        <v>4</v>
       </c>
       <c r="O1058" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1059" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="W1058" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1059">
         <v>65</v>
       </c>
@@ -42800,8 +42833,11 @@
       <c r="D1059" s="1">
         <v>45254</v>
       </c>
-    </row>
-    <row r="1060" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="W1059" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1060">
         <v>64</v>
       </c>
@@ -42815,7 +42851,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="1061" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1061">
         <v>63</v>
       </c>
@@ -42829,7 +42865,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="1062" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1062">
         <v>62</v>
       </c>
@@ -42842,8 +42878,20 @@
       <c r="D1062" s="1">
         <v>45257</v>
       </c>
-    </row>
-    <row r="1063" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1062">
+        <v>2</v>
+      </c>
+      <c r="H1062">
+        <v>2</v>
+      </c>
+      <c r="I1062">
+        <v>2</v>
+      </c>
+      <c r="W1062" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1063">
         <v>61</v>
       </c>
@@ -42856,8 +42904,11 @@
       <c r="D1063" s="1">
         <v>45258</v>
       </c>
-    </row>
-    <row r="1064" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="W1063" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1064">
         <v>60</v>
       </c>
@@ -42870,8 +42921,20 @@
       <c r="D1064" s="1">
         <v>45259</v>
       </c>
-    </row>
-    <row r="1065" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1064">
+        <v>4</v>
+      </c>
+      <c r="H1064">
+        <v>4</v>
+      </c>
+      <c r="I1064">
+        <v>5</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1065">
         <v>59</v>
       </c>
@@ -42884,8 +42947,17 @@
       <c r="D1065" s="1">
         <v>45260</v>
       </c>
-    </row>
-    <row r="1066" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1065">
+        <v>1</v>
+      </c>
+      <c r="H1065">
+        <v>1</v>
+      </c>
+      <c r="I1065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1066">
         <v>58</v>
       </c>
@@ -42898,8 +42970,11 @@
       <c r="D1066" s="1">
         <v>45261</v>
       </c>
-    </row>
-    <row r="1067" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1066">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1067">
         <v>57</v>
       </c>
@@ -42912,8 +42987,14 @@
       <c r="D1067" s="1">
         <v>45262</v>
       </c>
-    </row>
-    <row r="1068" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E1067">
+        <v>1</v>
+      </c>
+      <c r="I1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1068">
         <v>56</v>
       </c>
@@ -42926,8 +43007,17 @@
       <c r="D1068" s="1">
         <v>45263</v>
       </c>
-    </row>
-    <row r="1069" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1068">
+        <v>2</v>
+      </c>
+      <c r="H1068">
+        <v>2</v>
+      </c>
+      <c r="I1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1069">
         <v>55</v>
       </c>
@@ -42940,8 +43030,14 @@
       <c r="D1069" s="1">
         <v>45264</v>
       </c>
-    </row>
-    <row r="1070" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1069">
+        <v>1</v>
+      </c>
+      <c r="S1069" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1070">
         <v>54</v>
       </c>
@@ -42954,8 +43050,20 @@
       <c r="D1070" s="1">
         <v>45265</v>
       </c>
-    </row>
-    <row r="1071" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1070">
+        <v>1</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+      <c r="I1070">
+        <v>1</v>
+      </c>
+      <c r="W1070" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1071">
         <v>53</v>
       </c>
@@ -42968,8 +43076,20 @@
       <c r="D1071" s="1">
         <v>45266</v>
       </c>
-    </row>
-    <row r="1072" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1071">
+        <v>2</v>
+      </c>
+      <c r="H1071">
+        <v>2</v>
+      </c>
+      <c r="I1071">
+        <v>2</v>
+      </c>
+      <c r="O1071" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1072">
         <v>52</v>
       </c>
@@ -42982,8 +43102,20 @@
       <c r="D1072" s="1">
         <v>45267</v>
       </c>
-    </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1072">
+        <v>3</v>
+      </c>
+      <c r="H1072">
+        <v>3</v>
+      </c>
+      <c r="I1072">
+        <v>3</v>
+      </c>
+      <c r="O1072" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1073">
         <v>51</v>
       </c>
@@ -42996,8 +43128,14 @@
       <c r="D1073" s="1">
         <v>45268</v>
       </c>
-    </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I1073">
+        <v>1</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1074">
         <v>50</v>
       </c>
@@ -43010,8 +43148,11 @@
       <c r="D1074" s="1">
         <v>45269</v>
       </c>
-    </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1075">
         <v>49</v>
       </c>
@@ -43024,8 +43165,23 @@
       <c r="D1075" s="1">
         <v>45270</v>
       </c>
-    </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1075">
+        <v>1</v>
+      </c>
+      <c r="H1075">
+        <v>1</v>
+      </c>
+      <c r="I1075">
+        <v>2</v>
+      </c>
+      <c r="J1075">
+        <v>1</v>
+      </c>
+      <c r="R1075" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1076">
         <v>48</v>
       </c>
@@ -43038,8 +43194,17 @@
       <c r="D1076" s="1">
         <v>45271</v>
       </c>
-    </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1076">
+        <v>2</v>
+      </c>
+      <c r="H1076">
+        <v>1</v>
+      </c>
+      <c r="I1076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1077">
         <v>47</v>
       </c>
@@ -43052,8 +43217,17 @@
       <c r="D1077" s="1">
         <v>45272</v>
       </c>
-    </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1077">
+        <v>4</v>
+      </c>
+      <c r="H1077">
+        <v>2</v>
+      </c>
+      <c r="I1077">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1078">
         <v>46</v>
       </c>
@@ -43066,8 +43240,20 @@
       <c r="D1078" s="1">
         <v>45273</v>
       </c>
-    </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1078">
+        <v>2</v>
+      </c>
+      <c r="H1078">
+        <v>2</v>
+      </c>
+      <c r="I1078">
+        <v>2</v>
+      </c>
+      <c r="O1078" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1079">
         <v>45</v>
       </c>
@@ -43081,7 +43267,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1080">
         <v>44</v>
       </c>
@@ -43094,8 +43280,20 @@
       <c r="D1080" s="1">
         <v>45275</v>
       </c>
-    </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1080">
+        <v>5</v>
+      </c>
+      <c r="H1080">
+        <v>4</v>
+      </c>
+      <c r="I1080">
+        <v>4</v>
+      </c>
+      <c r="O1080" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1081">
         <v>43</v>
       </c>
@@ -43109,7 +43307,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1082">
         <v>42</v>
       </c>
@@ -43123,7 +43321,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1083">
         <v>41</v>
       </c>
@@ -43137,7 +43335,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1084">
         <v>40</v>
       </c>
@@ -43151,7 +43349,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1085">
         <v>39</v>
       </c>
@@ -43164,8 +43362,20 @@
       <c r="D1085" s="1">
         <v>45280</v>
       </c>
-    </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1085">
+        <v>1</v>
+      </c>
+      <c r="F1085">
+        <v>4</v>
+      </c>
+      <c r="H1085">
+        <v>4</v>
+      </c>
+      <c r="I1085">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1086">
         <v>38</v>
       </c>
@@ -43179,7 +43389,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1087">
         <v>37</v>
       </c>
@@ -43193,7 +43403,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1088">
         <v>36</v>
       </c>
@@ -43941,7 +44151,7 @@
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -44306,20 +44516,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="6.5546875" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="13" max="29" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.88671875" customWidth="1"/>
+    <col min="13" max="29" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.6640625" customWidth="1"/>
     <col min="31" max="32" width="11.5546875" style="48"/>
     <col min="34" max="34" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.109375" customWidth="1"/>
-    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.109375" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.33203125" customWidth="1"/>
     <col min="44" max="44" width="9.5546875" customWidth="1"/>
-    <col min="54" max="54" width="11.109375"/>
+    <col min="54" max="54" width="11.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -47764,7 +47974,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="9"/>
+    <col min="2" max="2" width="11.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -51770,10 +51980,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" customWidth="1"/>
-    <col min="5" max="5" width="53.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51942,7 +52152,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="41">
         <v>8</v>
       </c>
@@ -52050,7 +52260,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="41">
         <v>14</v>
       </c>
@@ -52150,7 +52360,7 @@
       </c>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="41">
         <v>20</v>
       </c>
@@ -52533,7 +52743,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -52605,15 +52815,15 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -52673,9 +52883,6 @@
       <c r="A5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
       <c r="C5">
         <v>6</v>
       </c>
@@ -52697,10 +52904,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>316</v>
@@ -52717,14 +52924,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>323</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
       <c r="E7" t="s">
         <v>316</v>
       </c>
@@ -52740,10 +52944,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
+        <v>220</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>316</v>
@@ -52760,13 +52964,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>323</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>316</v>
@@ -52785,12 +52989,6 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
       <c r="E10" t="s">
         <v>1112</v>
       </c>
@@ -53472,7 +53670,7 @@
     <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="3.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/track.xlsx
+++ b/track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel_lemoine\privé_perso\PortableGit\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91087B21-6B68-479D-91FC-1CA59725E74C}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20790" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -1065,6 +1065,20 @@
             <charset val="1"/>
           </rPr>
           <t>levé 6h (Emma Junior&amp;co)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1249" authorId="5" shapeId="0" xr:uid="{C839E0AB-FD92-4FF7-97B7-9041C1916888}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nulty, randomYT</t>
         </r>
       </text>
     </comment>
@@ -2678,7 +2692,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="1288">
   <si>
     <t>muscu</t>
   </si>
@@ -21522,7 +21536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1245" sqref="J1245"/>
+      <selection pane="bottomLeft" activeCell="K1249" sqref="K1249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21532,7 +21546,7 @@
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="10" width="2.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="3" customWidth="1"/>
     <col min="13" max="16" width="2.5703125" customWidth="1"/>
     <col min="17" max="17" width="4.5703125" customWidth="1"/>
@@ -46335,7 +46349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1233" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1233" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1233" t="s">
         <v>21</v>
       </c>
@@ -46352,7 +46366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1234" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1234" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1234" t="s">
         <v>22</v>
       </c>
@@ -46372,7 +46386,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1235" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1235" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1235" t="s">
         <v>23</v>
       </c>
@@ -46392,7 +46406,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="1236" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1236" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1236" t="s">
         <v>24</v>
       </c>
@@ -46412,7 +46426,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="1237" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1237" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1237" t="s">
         <v>18</v>
       </c>
@@ -46423,7 +46437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1238" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1238" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1238" t="s">
         <v>19</v>
       </c>
@@ -46434,7 +46448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1239" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1239" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1239" t="s">
         <v>20</v>
       </c>
@@ -46445,7 +46459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1240" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1240" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1240" t="s">
         <v>21</v>
       </c>
@@ -46456,7 +46470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1241" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1241" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1241" t="s">
         <v>22</v>
       </c>
@@ -46467,7 +46481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="1242" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1242" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1242" t="s">
         <v>23</v>
       </c>
@@ -46478,7 +46492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1243" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1243" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1243" t="s">
         <v>24</v>
       </c>
@@ -46489,7 +46503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1244" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1244" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1244" t="s">
         <v>18</v>
       </c>
@@ -46502,64 +46516,118 @@
       <c r="J1244">
         <v>1</v>
       </c>
-    </row>
-    <row r="1245" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1244" s="36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1245" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1245" t="s">
         <v>19</v>
       </c>
       <c r="D1245" s="1">
         <v>45440</v>
       </c>
-    </row>
-    <row r="1246" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1245" s="36">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1246" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1246" t="s">
         <v>20</v>
       </c>
       <c r="D1246" s="1">
         <v>45441</v>
       </c>
-    </row>
-    <row r="1247" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I1246">
+        <v>1</v>
+      </c>
+      <c r="J1246">
+        <v>1</v>
+      </c>
+      <c r="K1246" s="36">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1247" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1247" t="s">
         <v>21</v>
       </c>
       <c r="D1247" s="1">
         <v>45442</v>
       </c>
-    </row>
-    <row r="1248" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1247" s="36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1248" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1248" t="s">
         <v>22</v>
       </c>
       <c r="D1248" s="1">
         <v>45443</v>
       </c>
-    </row>
-    <row r="1249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1248" s="36">
+        <v>99</v>
+      </c>
+      <c r="S1248" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1249" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1249" t="s">
         <v>23</v>
       </c>
       <c r="D1249" s="1">
         <v>45444</v>
       </c>
-    </row>
-    <row r="1250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1249">
+        <v>1</v>
+      </c>
+      <c r="G1249" s="20">
+        <v>3</v>
+      </c>
+      <c r="H1249">
+        <v>4</v>
+      </c>
+      <c r="I1249">
+        <v>3</v>
+      </c>
+      <c r="K1249" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1250" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1250" t="s">
         <v>24</v>
       </c>
       <c r="D1250" s="1">
         <v>45445</v>
       </c>
-    </row>
-    <row r="1251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1250">
+        <v>1</v>
+      </c>
+      <c r="H1250">
+        <v>1</v>
+      </c>
+      <c r="I1250">
+        <v>1</v>
+      </c>
+      <c r="K1250" s="36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1251" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1251" t="s">
         <v>18</v>
       </c>
       <c r="D1251" s="1">
         <v>45446</v>
       </c>
-    </row>
-    <row r="1252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1251" s="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1252" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1252" t="s">
         <v>19</v>
       </c>
@@ -46567,7 +46635,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="1253" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1253" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1253" t="s">
         <v>20</v>
       </c>
@@ -46575,7 +46643,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="1254" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1254" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1254" t="s">
         <v>21</v>
       </c>
@@ -46583,7 +46651,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="1255" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1255" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1255" t="s">
         <v>22</v>
       </c>
@@ -46591,7 +46659,7 @@
         <v>45450</v>
       </c>
     </row>
-    <row r="1256" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1256" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1256" t="s">
         <v>23</v>
       </c>
@@ -46599,7 +46667,7 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="1257" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1257" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1257" t="s">
         <v>24</v>
       </c>
@@ -46607,7 +46675,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="1258" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1258" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1258" t="s">
         <v>18</v>
       </c>
@@ -46615,7 +46683,7 @@
         <v>45453</v>
       </c>
     </row>
-    <row r="1259" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1259" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1259" t="s">
         <v>19</v>
       </c>
@@ -46623,7 +46691,7 @@
         <v>45454</v>
       </c>
     </row>
-    <row r="1260" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1260" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1260" t="s">
         <v>20</v>
       </c>
@@ -46631,7 +46699,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="1261" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1261" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1261" t="s">
         <v>21</v>
       </c>
@@ -46639,7 +46707,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="1262" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1262" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1262" t="s">
         <v>22</v>
       </c>
@@ -46647,7 +46715,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="1263" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1263" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1263" t="s">
         <v>23</v>
       </c>
@@ -46655,7 +46723,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="1264" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1264" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1264" t="s">
         <v>24</v>
       </c>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94445AF6-4754-4AFA-8DC2-C94163D1A287}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD95A666-32F0-414F-A510-7AF8C7DB4503}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -1243,6 +1243,20 @@
             <charset val="1"/>
           </rPr>
           <t>lame, no satisfaction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1355" authorId="5" shapeId="0" xr:uid="{553AB6B6-4FBC-493D-89DC-A8AEB2524CBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>scablo check :(</t>
         </r>
       </text>
     </comment>
@@ -2880,7 +2894,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1349">
   <si>
     <t>muscu</t>
   </si>
@@ -7743,9 +7757,6 @@
     <t>zoe</t>
   </si>
   <si>
-    <t>car7</t>
-  </si>
-  <si>
     <t>immobilisation/assistance juridique</t>
   </si>
   <si>
@@ -7851,12 +7862,6 @@
     <t>urge</t>
   </si>
   <si>
-    <t>ANTS</t>
-  </si>
-  <si>
-    <t>assurance</t>
-  </si>
-  <si>
     <t>sprint</t>
   </si>
   <si>
@@ -7942,6 +7947,42 @@
   </si>
   <si>
     <t>ano carrierCode=null: constit° requête mongo</t>
+  </si>
+  <si>
+    <t>ophtalmo</t>
+  </si>
+  <si>
+    <t>parapente</t>
+  </si>
+  <si>
+    <t>jdr</t>
+  </si>
+  <si>
+    <t>jcc</t>
+  </si>
+  <si>
+    <t>dbs</t>
+  </si>
+  <si>
+    <t>sw:d</t>
+  </si>
+  <si>
+    <t>AGoT</t>
+  </si>
+  <si>
+    <t>sens</t>
+  </si>
+  <si>
+    <t>vampire/chtulu/sens</t>
+  </si>
+  <si>
+    <t>lockpick</t>
+  </si>
+  <si>
+    <t>parkour</t>
+  </si>
+  <si>
+    <t>pompier</t>
   </si>
 </sst>
 </file>
@@ -21888,9 +21929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1325" sqref="K1325"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1360" sqref="K1360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47217,7 +47258,7 @@
         <v>45462</v>
       </c>
       <c r="I1267" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="K1267" s="36">
         <v>118</v>
@@ -47466,7 +47507,7 @@
         <v>5</v>
       </c>
       <c r="W1282" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1283" spans="3:23" x14ac:dyDescent="0.25">
@@ -47561,7 +47602,7 @@
         <v>12</v>
       </c>
       <c r="W1289" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1290" spans="3:23" x14ac:dyDescent="0.25">
@@ -48047,6 +48088,9 @@
       <c r="D1324" s="1">
         <v>45519</v>
       </c>
+      <c r="K1324" s="36">
+        <v>7</v>
+      </c>
     </row>
     <row r="1325" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1325" t="s">
@@ -48055,6 +48099,9 @@
       <c r="D1325" s="1">
         <v>45520</v>
       </c>
+      <c r="K1325" s="36">
+        <v>8</v>
+      </c>
     </row>
     <row r="1326" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1326" t="s">
@@ -48063,6 +48110,9 @@
       <c r="D1326" s="1">
         <v>45521</v>
       </c>
+      <c r="K1326" s="36">
+        <v>9</v>
+      </c>
     </row>
     <row r="1327" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1327" t="s">
@@ -48071,6 +48121,9 @@
       <c r="D1327" s="1">
         <v>45522</v>
       </c>
+      <c r="K1327" s="36">
+        <v>10</v>
+      </c>
     </row>
     <row r="1328" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1328" t="s">
@@ -48079,256 +48132,445 @@
       <c r="D1328" s="1">
         <v>45523</v>
       </c>
-    </row>
-    <row r="1329" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1328" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1329" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1329" t="s">
         <v>19</v>
       </c>
       <c r="D1329" s="1">
         <v>45524</v>
       </c>
-    </row>
-    <row r="1330" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1329" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1330" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1330" t="s">
         <v>20</v>
       </c>
       <c r="D1330" s="1">
         <v>45525</v>
       </c>
-    </row>
-    <row r="1331" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1330" s="36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1331" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1331" t="s">
         <v>21</v>
       </c>
       <c r="D1331" s="1">
         <v>45526</v>
       </c>
-    </row>
-    <row r="1332" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1331">
+        <v>1</v>
+      </c>
+      <c r="H1331">
+        <v>1</v>
+      </c>
+      <c r="I1331">
+        <v>1</v>
+      </c>
+      <c r="K1331" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1332" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1332" t="s">
         <v>22</v>
       </c>
       <c r="D1332" s="1">
         <v>45527</v>
       </c>
-    </row>
-    <row r="1333" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1332" s="36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1333" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1333" t="s">
         <v>23</v>
       </c>
       <c r="D1333" s="1">
         <v>45528</v>
       </c>
-    </row>
-    <row r="1334" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1333">
+        <v>1</v>
+      </c>
+      <c r="H1333">
+        <v>1</v>
+      </c>
+      <c r="I1333">
+        <v>1</v>
+      </c>
+      <c r="K1333" s="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1334" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1334" t="s">
         <v>24</v>
       </c>
       <c r="D1334" s="1">
         <v>45529</v>
       </c>
-    </row>
-    <row r="1335" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1334" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1335" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1335" t="s">
         <v>18</v>
       </c>
       <c r="D1335" s="1">
         <v>45530</v>
       </c>
-    </row>
-    <row r="1336" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1335" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1336" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1336" t="s">
         <v>19</v>
       </c>
       <c r="D1336" s="1">
         <v>45531</v>
       </c>
-    </row>
-    <row r="1337" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I1336">
+        <v>1</v>
+      </c>
+      <c r="J1336">
+        <v>1</v>
+      </c>
+      <c r="K1336" s="36">
+        <v>19</v>
+      </c>
+      <c r="R1336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1337" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1337" t="s">
         <v>20</v>
       </c>
       <c r="D1337" s="1">
         <v>45532</v>
       </c>
-    </row>
-    <row r="1338" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1337">
+        <v>1</v>
+      </c>
+      <c r="G1337">
+        <v>2</v>
+      </c>
+      <c r="H1337">
+        <v>3</v>
+      </c>
+      <c r="I1337">
+        <v>3</v>
+      </c>
+      <c r="K1337" s="20">
+        <v>20</v>
+      </c>
+      <c r="O1337" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1338" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1338" t="s">
         <v>21</v>
       </c>
       <c r="D1338" s="1">
         <v>45533</v>
       </c>
-    </row>
-    <row r="1339" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1338" s="36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1339" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1339" t="s">
         <v>22</v>
       </c>
       <c r="D1339" s="1">
         <v>45534</v>
       </c>
-    </row>
-    <row r="1340" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1339" s="36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1340" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1340" t="s">
         <v>23</v>
       </c>
       <c r="D1340" s="1">
         <v>45535</v>
       </c>
-    </row>
-    <row r="1341" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1340">
+        <v>2</v>
+      </c>
+      <c r="H1340">
+        <v>2</v>
+      </c>
+      <c r="I1340">
+        <v>2</v>
+      </c>
+      <c r="K1340" s="36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1341" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1341" t="s">
         <v>24</v>
       </c>
       <c r="D1341" s="1">
         <v>45536</v>
       </c>
-    </row>
-    <row r="1342" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="G1341">
+        <v>1</v>
+      </c>
+      <c r="H1341">
+        <v>1</v>
+      </c>
+      <c r="I1341">
+        <v>1</v>
+      </c>
+      <c r="K1341" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1342" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1342" t="s">
         <v>18</v>
       </c>
       <c r="D1342" s="1">
         <v>45537</v>
       </c>
-    </row>
-    <row r="1343" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="G1342">
+        <v>1</v>
+      </c>
+      <c r="H1342">
+        <v>1</v>
+      </c>
+      <c r="I1342">
+        <v>1</v>
+      </c>
+      <c r="K1342" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1343" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1343" t="s">
         <v>19</v>
       </c>
       <c r="D1343" s="1">
         <v>45538</v>
       </c>
-    </row>
-    <row r="1344" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1343" s="36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1344" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C1344" t="s">
         <v>20</v>
       </c>
       <c r="D1344" s="1">
         <v>45539</v>
       </c>
-    </row>
-    <row r="1345" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1344" s="36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1345" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1345" t="s">
         <v>21</v>
       </c>
       <c r="D1345" s="1">
         <v>45540</v>
       </c>
-    </row>
-    <row r="1346" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1345" s="36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1346" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1346" t="s">
         <v>22</v>
       </c>
       <c r="D1346" s="1">
         <v>45541</v>
       </c>
-    </row>
-    <row r="1347" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1346" s="36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1347" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1347" t="s">
         <v>23</v>
       </c>
       <c r="D1347" s="1">
         <v>45542</v>
       </c>
-    </row>
-    <row r="1348" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1347" s="36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1348" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1348" t="s">
         <v>24</v>
       </c>
       <c r="D1348" s="1">
         <v>45543</v>
       </c>
-    </row>
-    <row r="1349" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1348" s="36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1349" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1349" t="s">
         <v>18</v>
       </c>
       <c r="D1349" s="1">
         <v>45544</v>
       </c>
-    </row>
-    <row r="1350" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1349" s="36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1350" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1350" t="s">
         <v>19</v>
       </c>
       <c r="D1350" s="1">
         <v>45545</v>
       </c>
-    </row>
-    <row r="1351" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1350" s="36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1351" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1351" t="s">
         <v>20</v>
       </c>
       <c r="D1351" s="1">
         <v>45546</v>
       </c>
-    </row>
-    <row r="1352" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1351" s="36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1352" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1352" t="s">
         <v>21</v>
       </c>
       <c r="D1352" s="1">
         <v>45547</v>
       </c>
-    </row>
-    <row r="1353" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1352" s="36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1353" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1353" t="s">
         <v>22</v>
       </c>
       <c r="D1353" s="1">
         <v>45548</v>
       </c>
-    </row>
-    <row r="1354" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1353" s="36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1354" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1354" t="s">
         <v>23</v>
       </c>
       <c r="D1354" s="1">
         <v>45549</v>
       </c>
-    </row>
-    <row r="1355" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1354" s="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1355" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1355" t="s">
         <v>24</v>
       </c>
       <c r="D1355" s="1">
         <v>45550</v>
       </c>
-    </row>
-    <row r="1356" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1355">
+        <v>3</v>
+      </c>
+      <c r="H1355">
+        <v>3</v>
+      </c>
+      <c r="I1355">
+        <v>3</v>
+      </c>
+      <c r="K1355" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1356" t="s">
         <v>18</v>
       </c>
       <c r="D1356" s="1">
         <v>45551</v>
       </c>
-    </row>
-    <row r="1357" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1356" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1357" t="s">
         <v>19</v>
       </c>
       <c r="D1357" s="1">
         <v>45552</v>
       </c>
-    </row>
-    <row r="1358" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1357" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1358" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1358" t="s">
         <v>20</v>
       </c>
       <c r="D1358" s="1">
         <v>45553</v>
       </c>
-    </row>
-    <row r="1359" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1358">
+        <v>2</v>
+      </c>
+      <c r="H1358">
+        <v>2</v>
+      </c>
+      <c r="I1358">
+        <v>2</v>
+      </c>
+      <c r="K1358" s="20">
+        <v>0</v>
+      </c>
+      <c r="O1358" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1359" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1359" t="s">
         <v>21</v>
       </c>
       <c r="D1359" s="1">
         <v>45554</v>
       </c>
-    </row>
-    <row r="1360" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1359" s="36">
+        <v>1</v>
+      </c>
+      <c r="O1359" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1360" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1360" t="s">
         <v>22</v>
       </c>
@@ -57368,10 +57610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265933B-5A23-4E12-9081-81D5923E6515}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57385,13 +57627,13 @@
         <v>1258</v>
       </c>
       <c r="B1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1" t="s">
         <v>1276</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1277</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -57399,34 +57641,34 @@
         <v>1259</v>
       </c>
       <c r="B2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C2" t="s">
         <v>1269</v>
       </c>
       <c r="D2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I2" t="s">
         <v>1286</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1287</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1288</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1289</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1290</v>
       </c>
       <c r="M2" t="s">
         <v>1169</v>
       </c>
       <c r="N2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O2" t="s">
         <v>1291</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -57471,12 +57713,12 @@
         <v>1265</v>
       </c>
       <c r="B9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -57484,16 +57726,16 @@
         <v>1266</v>
       </c>
       <c r="B12" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C12" t="s">
         <v>1295</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1296</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1297</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -57501,7 +57743,7 @@
         <v>1271</v>
       </c>
       <c r="B13" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -57509,86 +57751,128 @@
         <v>1272</v>
       </c>
       <c r="B14" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>1280</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>1302</v>
       </c>
-      <c r="C21" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>1281</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1305</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -57602,7 +57886,7 @@
   <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57633,7 +57917,7 @@
         <v>1119</v>
       </c>
       <c r="G2" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="H2">
         <v>173</v>
@@ -57668,33 +57952,33 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C3" t="s">
         <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="M3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>1322</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="Q3" s="36" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B4" t="s">
         <v>1255</v>
@@ -57703,27 +57987,27 @@
         <v>1212</v>
       </c>
       <c r="G4" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="M4" s="93" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="P4" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="Q4" s="93" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B5" t="s">
         <v>1224</v>
@@ -57732,22 +58016,22 @@
         <v>1222</v>
       </c>
       <c r="G5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="M5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="N5" s="93" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="O5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="P5" s="93" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="Q5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="V5" t="s">
         <v>1096</v>
@@ -57755,7 +58039,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B6" t="s">
         <v>1225</v>
@@ -57764,33 +58048,33 @@
         <v>1213</v>
       </c>
       <c r="G6" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="K6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="M6" s="93" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="N6" s="93" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="O6" s="93" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="P6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="Q6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B7" t="s">
         <v>1226</v>
@@ -57801,7 +58085,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B8" t="s">
         <v>1227</v>
@@ -57812,7 +58096,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B9" t="s">
         <v>1228</v>
@@ -57824,7 +58108,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B10" t="s">
         <v>1229</v>
@@ -57842,7 +58126,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B11" t="s">
         <v>1230</v>
@@ -57860,10 +58144,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B12" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C12" t="s">
         <v>221</v>
@@ -57878,7 +58162,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B13" t="s">
         <v>1254</v>
@@ -57896,7 +58180,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B14" t="s">
         <v>1253</v>
@@ -57913,7 +58197,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B15" t="s">
         <v>1252</v>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD95A666-32F0-414F-A510-7AF8C7DB4503}"/>
+  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E5CD71-437F-4327-BAFF-350F118E93A0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -2894,7 +2894,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="1358">
   <si>
     <t>muscu</t>
   </si>
@@ -7983,6 +7983,33 @@
   </si>
   <si>
     <t>pompier</t>
+  </si>
+  <si>
+    <t>douceurs</t>
+  </si>
+  <si>
+    <t>addictions</t>
+  </si>
+  <si>
+    <t>porn</t>
+  </si>
+  <si>
+    <t>jv</t>
+  </si>
+  <si>
+    <t>chocolat</t>
+  </si>
+  <si>
+    <t>sucre</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>serrurier</t>
+  </si>
+  <si>
+    <t>horloger</t>
   </si>
 </sst>
 </file>
@@ -21929,9 +21956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1360" sqref="K1360"/>
+      <selection pane="bottomLeft" activeCell="H1365" sqref="H1365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48577,48 +48604,84 @@
       <c r="D1360" s="1">
         <v>45555</v>
       </c>
-    </row>
-    <row r="1361" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1360" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1361" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1361" t="s">
         <v>23</v>
       </c>
       <c r="D1361" s="1">
         <v>45556</v>
       </c>
-    </row>
-    <row r="1362" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I1361">
+        <v>1</v>
+      </c>
+      <c r="J1361">
+        <v>1</v>
+      </c>
+      <c r="K1361" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1362" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1362" t="s">
         <v>24</v>
       </c>
       <c r="D1362" s="1">
         <v>45557</v>
       </c>
-    </row>
-    <row r="1363" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1362" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1363" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1363" t="s">
         <v>18</v>
       </c>
       <c r="D1363" s="1">
         <v>45558</v>
       </c>
-    </row>
-    <row r="1364" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1363" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1364" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1364" t="s">
         <v>19</v>
       </c>
       <c r="D1364" s="1">
         <v>45559</v>
       </c>
-    </row>
-    <row r="1365" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1364" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1365" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1365" t="s">
         <v>20</v>
       </c>
       <c r="D1365" s="1">
         <v>45560</v>
       </c>
-    </row>
-    <row r="1366" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E1365">
+        <v>1</v>
+      </c>
+      <c r="G1365">
+        <v>1</v>
+      </c>
+      <c r="H1365">
+        <v>2</v>
+      </c>
+      <c r="I1365">
+        <v>2</v>
+      </c>
+      <c r="K1365" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1366" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1366" t="s">
         <v>21</v>
       </c>
@@ -48626,7 +48689,7 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="1367" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1367" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1367" t="s">
         <v>22</v>
       </c>
@@ -48634,7 +48697,7 @@
         <v>45562</v>
       </c>
     </row>
-    <row r="1368" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1368" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1368" t="s">
         <v>23</v>
       </c>
@@ -48642,7 +48705,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="1369" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1369" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1369" t="s">
         <v>24</v>
       </c>
@@ -48650,7 +48713,7 @@
         <v>45564</v>
       </c>
     </row>
-    <row r="1370" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1370" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1370" t="s">
         <v>18</v>
       </c>
@@ -48658,7 +48721,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="1371" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1371" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1371" t="s">
         <v>19</v>
       </c>
@@ -48666,7 +48729,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="1372" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1372" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1372" t="s">
         <v>20</v>
       </c>
@@ -48674,7 +48737,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="1373" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1373" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1373" t="s">
         <v>21</v>
       </c>
@@ -48682,7 +48745,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="1374" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1374" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1374" t="s">
         <v>22</v>
       </c>
@@ -48690,7 +48753,7 @@
         <v>45569</v>
       </c>
     </row>
-    <row r="1375" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1375" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1375" t="s">
         <v>23</v>
       </c>
@@ -48698,7 +48761,7 @@
         <v>45570</v>
       </c>
     </row>
-    <row r="1376" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1376" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1376" t="s">
         <v>24</v>
       </c>
@@ -57610,10 +57673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265933B-5A23-4E12-9081-81D5923E6515}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57754,17 +57817,17 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>526</v>
       </c>
@@ -57772,7 +57835,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1279</v>
       </c>
@@ -57783,7 +57846,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1280</v>
       </c>
@@ -57791,7 +57854,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1281</v>
       </c>
@@ -57802,37 +57865,48 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1339</v>
       </c>
@@ -57845,8 +57919,14 @@
       <c r="D32" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>1352</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1340</v>
       </c>
@@ -57859,20 +57939,41 @@
       <c r="D33" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1357</v>
       </c>
     </row>
   </sheetData>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="483" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E5CD71-437F-4327-BAFF-350F118E93A0}"/>
+  <xr:revisionPtr revIDLastSave="519" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96222DE-58EF-4692-9ED1-09CBA584E727}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -1257,6 +1257,34 @@
             <charset val="1"/>
           </rPr>
           <t>scablo check :(</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1368" authorId="5" shapeId="0" xr:uid="{4F344540-9273-4D86-AADE-F4AF4BC9E93F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ponytail</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1376" authorId="5" shapeId="0" xr:uid="{3781D0FE-5650-42DB-A05F-89E19BEE83BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>datga</t>
         </r>
       </text>
     </comment>
@@ -2894,7 +2922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="1360">
   <si>
     <t>muscu</t>
   </si>
@@ -7706,9 +7734,6 @@
     <t>Chupachef</t>
   </si>
   <si>
-    <t>https://spinnerwheel.ahaslides.com/?entries=Chupachef|Rustine|Jean-Bat'|Nono|Gilou|Patoche|Filou|Flop|Angie|Mouss'|Adrieeeeenne</t>
-  </si>
-  <si>
     <t>solo 1h</t>
   </si>
   <si>
@@ -8010,6 +8035,15 @@
   </si>
   <si>
     <t>horloger</t>
+  </si>
+  <si>
+    <t>solohome</t>
+  </si>
+  <si>
+    <t>https://spinnerwheel.ahaslides.com/?entries=Chupachef|Rustine|Jean-Bat'|Nono|Gilou|Patoche|Filou|Flop|Angie|Mouss'|Adrieeeeenne|Gugu</t>
+  </si>
+  <si>
+    <t>https://spinnerwheel.ahaslides.com/?entries=Cl%C3%A9ment|Justine|JB|Arnaud|Gilles|Patrick|Philippe|Ang%C3%A9lique|Moustapha|Adrien|Gurvan</t>
   </si>
 </sst>
 </file>
@@ -21956,9 +21990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1365" sqref="H1365"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1376" sqref="R1376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46507,7 +46541,7 @@
         <v>65</v>
       </c>
       <c r="O1214" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1215" spans="3:20" x14ac:dyDescent="0.25">
@@ -47285,7 +47319,7 @@
         <v>45462</v>
       </c>
       <c r="I1267" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K1267" s="36">
         <v>118</v>
@@ -47534,7 +47568,7 @@
         <v>5</v>
       </c>
       <c r="W1282" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1283" spans="3:23" x14ac:dyDescent="0.25">
@@ -47629,7 +47663,7 @@
         <v>12</v>
       </c>
       <c r="W1289" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1290" spans="3:23" x14ac:dyDescent="0.25">
@@ -48608,7 +48642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1361" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1361" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1361" t="s">
         <v>23</v>
       </c>
@@ -48625,7 +48659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1362" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1362" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1362" t="s">
         <v>24</v>
       </c>
@@ -48636,7 +48670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1363" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1363" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1363" t="s">
         <v>18</v>
       </c>
@@ -48647,7 +48681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1364" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1364" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1364" t="s">
         <v>19</v>
       </c>
@@ -48658,7 +48692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1365" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1365" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1365" t="s">
         <v>20</v>
       </c>
@@ -48681,111 +48715,198 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1366" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1366" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1366" t="s">
         <v>21</v>
       </c>
       <c r="D1366" s="1">
         <v>45561</v>
       </c>
-    </row>
-    <row r="1367" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1366" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1367" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1367" t="s">
         <v>22</v>
       </c>
       <c r="D1367" s="1">
         <v>45562</v>
       </c>
-    </row>
-    <row r="1368" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1367" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1368" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1368" t="s">
         <v>23</v>
       </c>
       <c r="D1368" s="1">
         <v>45563</v>
       </c>
-    </row>
-    <row r="1369" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F1368">
+        <v>3</v>
+      </c>
+      <c r="H1368">
+        <v>3</v>
+      </c>
+      <c r="I1368">
+        <v>3</v>
+      </c>
+      <c r="K1368" s="20">
+        <v>0</v>
+      </c>
+      <c r="O1368" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1369" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1369" t="s">
         <v>24</v>
       </c>
       <c r="D1369" s="1">
         <v>45564</v>
       </c>
-    </row>
-    <row r="1370" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E1369">
+        <v>1</v>
+      </c>
+      <c r="H1369">
+        <v>1</v>
+      </c>
+      <c r="I1369">
+        <v>1</v>
+      </c>
+      <c r="K1369" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1370" t="s">
         <v>18</v>
       </c>
       <c r="D1370" s="1">
         <v>45565</v>
       </c>
-    </row>
-    <row r="1371" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1370" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1371" t="s">
         <v>19</v>
       </c>
       <c r="D1371" s="1">
         <v>45566</v>
       </c>
-    </row>
-    <row r="1372" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1371" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1372" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1372" t="s">
         <v>20</v>
       </c>
       <c r="D1372" s="1">
         <v>45567</v>
       </c>
-    </row>
-    <row r="1373" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1372" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1373" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1373" t="s">
         <v>21</v>
       </c>
       <c r="D1373" s="1">
         <v>45568</v>
       </c>
-    </row>
-    <row r="1374" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1373" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1374" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1374" t="s">
         <v>22</v>
       </c>
       <c r="D1374" s="1">
         <v>45569</v>
       </c>
-    </row>
-    <row r="1375" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1374" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1375" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1375" t="s">
         <v>23</v>
       </c>
       <c r="D1375" s="1">
         <v>45570</v>
       </c>
-    </row>
-    <row r="1376" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K1375" s="36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1376" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1376" t="s">
         <v>24</v>
       </c>
       <c r="D1376" s="1">
         <v>45571</v>
       </c>
-    </row>
-    <row r="1377" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1376">
+        <v>4</v>
+      </c>
+      <c r="H1376">
+        <v>4</v>
+      </c>
+      <c r="I1376">
+        <v>4</v>
+      </c>
+      <c r="K1376" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1377" t="s">
         <v>18</v>
       </c>
       <c r="D1377" s="1">
         <v>45572</v>
       </c>
-    </row>
-    <row r="1378" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1377">
+        <v>2</v>
+      </c>
+      <c r="H1377">
+        <v>1</v>
+      </c>
+      <c r="I1377">
+        <v>1</v>
+      </c>
+      <c r="K1377" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1378" t="s">
         <v>19</v>
       </c>
       <c r="D1378" s="1">
         <v>45573</v>
       </c>
-    </row>
-    <row r="1379" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1378">
+        <v>1</v>
+      </c>
+      <c r="H1378">
+        <v>1</v>
+      </c>
+      <c r="I1378">
+        <v>1</v>
+      </c>
+      <c r="K1378" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1379" t="s">
         <v>20</v>
       </c>
@@ -48793,7 +48914,7 @@
         <v>45574</v>
       </c>
     </row>
-    <row r="1380" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1380" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1380" t="s">
         <v>21</v>
       </c>
@@ -48801,7 +48922,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="1381" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1381" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1381" t="s">
         <v>22</v>
       </c>
@@ -48809,7 +48930,7 @@
         <v>45576</v>
       </c>
     </row>
-    <row r="1382" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1382" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1382" t="s">
         <v>23</v>
       </c>
@@ -48817,7 +48938,7 @@
         <v>45577</v>
       </c>
     </row>
-    <row r="1383" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1383" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1383" t="s">
         <v>24</v>
       </c>
@@ -48825,7 +48946,7 @@
         <v>45578</v>
       </c>
     </row>
-    <row r="1384" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1384" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1384" t="s">
         <v>18</v>
       </c>
@@ -48833,7 +48954,7 @@
         <v>45579</v>
       </c>
     </row>
-    <row r="1385" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1385" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1385" t="s">
         <v>19</v>
       </c>
@@ -48841,7 +48962,7 @@
         <v>45580</v>
       </c>
     </row>
-    <row r="1386" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1386" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1386" t="s">
         <v>20</v>
       </c>
@@ -48849,7 +48970,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="1387" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1387" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1387" t="s">
         <v>21</v>
       </c>
@@ -48857,7 +48978,7 @@
         <v>45582</v>
       </c>
     </row>
-    <row r="1388" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1388" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1388" t="s">
         <v>22</v>
       </c>
@@ -48865,7 +48986,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="1389" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1389" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1389" t="s">
         <v>23</v>
       </c>
@@ -48873,7 +48994,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="1390" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1390" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1390" t="s">
         <v>24</v>
       </c>
@@ -48881,7 +49002,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="1391" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1391" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1391" t="s">
         <v>18</v>
       </c>
@@ -48889,7 +49010,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="1392" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1392" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1392" t="s">
         <v>19</v>
       </c>
@@ -57675,7 +57796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265933B-5A23-4E12-9081-81D5923E6515}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -57687,144 +57808,144 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1" t="s">
         <v>1275</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1276</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D2" t="s">
         <v>1284</v>
       </c>
-      <c r="C2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>1285</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1286</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1287</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1288</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1289</v>
       </c>
       <c r="M2" t="s">
         <v>1169</v>
       </c>
       <c r="N2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O2" t="s">
         <v>1290</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B4" t="s">
         <v>1261</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B5" t="s">
         <v>1267</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>1268</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1269</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C12" t="s">
         <v>1294</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1295</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1296</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14" t="s">
         <v>1272</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -57832,95 +57953,95 @@
         <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B21" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B23" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C23" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I30" t="s">
         <v>1349</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="I31" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B32" t="s">
         <v>335</v>
       </c>
       <c r="C32" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D32" t="s">
         <v>1344</v>
       </c>
-      <c r="D32" t="s">
-        <v>1345</v>
-      </c>
       <c r="I32" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
@@ -57928,52 +58049,52 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B33" t="s">
         <v>1340</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>1341</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1342</v>
       </c>
-      <c r="D33" t="s">
-        <v>1343</v>
-      </c>
       <c r="I33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
@@ -57986,8 +58107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58018,7 +58139,7 @@
         <v>1119</v>
       </c>
       <c r="G2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H2">
         <v>173</v>
@@ -58053,33 +58174,33 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C3" t="s">
         <v>229</v>
       </c>
       <c r="G3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>1312</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B4" t="s">
         <v>1255</v>
@@ -58088,27 +58209,27 @@
         <v>1212</v>
       </c>
       <c r="G4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M4" s="93" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q4" s="93" t="s">
         <v>1317</v>
-      </c>
-      <c r="Q4" s="93" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B5" t="s">
         <v>1224</v>
@@ -58117,22 +58238,22 @@
         <v>1222</v>
       </c>
       <c r="G5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="M5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="N5" s="93" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="O5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P5" s="93" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Q5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V5" t="s">
         <v>1096</v>
@@ -58140,7 +58261,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B6" t="s">
         <v>1225</v>
@@ -58149,33 +58270,33 @@
         <v>1213</v>
       </c>
       <c r="G6" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H6" s="36" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K6" t="s">
         <v>1333</v>
       </c>
-      <c r="K6" t="s">
-        <v>1334</v>
-      </c>
       <c r="M6" s="93" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="93" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O6" s="93" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Q6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B7" t="s">
         <v>1226</v>
@@ -58186,7 +58307,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B8" t="s">
         <v>1227</v>
@@ -58197,7 +58318,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B9" t="s">
         <v>1228</v>
@@ -58209,7 +58330,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B10" t="s">
         <v>1229</v>
@@ -58227,7 +58348,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B11" t="s">
         <v>1230</v>
@@ -58245,10 +58366,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B12" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C12" t="s">
         <v>221</v>
@@ -58263,7 +58384,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B13" t="s">
         <v>1254</v>
@@ -58281,7 +58402,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B14" t="s">
         <v>1253</v>
@@ -58298,7 +58419,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B15" t="s">
         <v>1252</v>
@@ -58368,7 +58489,12 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="91" t="s">
-        <v>1256</v>
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="519" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96222DE-58EF-4692-9ED1-09CBA584E727}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777DA37F-525D-4123-A332-6E61B5F09CCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="track" sheetId="2" r:id="rId1"/>
@@ -8500,7 +8500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -8662,13 +8662,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21990,9 +21988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1376" sqref="R1376"/>
+      <selection pane="bottomLeft" activeCell="I1379" sqref="I1379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45475,7 +45473,7 @@
       <c r="D1148" s="1">
         <v>45343</v>
       </c>
-      <c r="F1148" s="89">
+      <c r="F1148">
         <v>2</v>
       </c>
       <c r="H1148">
@@ -45495,7 +45493,7 @@
       <c r="D1149" s="1">
         <v>45344</v>
       </c>
-      <c r="F1149" s="89">
+      <c r="F1149">
         <v>1</v>
       </c>
       <c r="H1149">
@@ -45563,7 +45561,7 @@
       <c r="D1153" s="1">
         <v>45348</v>
       </c>
-      <c r="K1153" s="90">
+      <c r="K1153" s="89">
         <v>4</v>
       </c>
     </row>
@@ -46829,13 +46827,13 @@
       <c r="D1234" s="1">
         <v>45429</v>
       </c>
-      <c r="E1234" s="92">
-        <v>1</v>
-      </c>
-      <c r="H1234" s="92">
-        <v>1</v>
-      </c>
-      <c r="I1234" s="92">
+      <c r="E1234" s="91">
+        <v>1</v>
+      </c>
+      <c r="H1234" s="91">
+        <v>1</v>
+      </c>
+      <c r="I1234" s="91">
         <v>1</v>
       </c>
       <c r="K1234" s="36">
@@ -46849,13 +46847,13 @@
       <c r="D1235" s="1">
         <v>45430</v>
       </c>
-      <c r="E1235" s="92">
-        <v>1</v>
-      </c>
-      <c r="H1235" s="92">
-        <v>1</v>
-      </c>
-      <c r="I1235" s="92">
+      <c r="E1235" s="91">
+        <v>1</v>
+      </c>
+      <c r="H1235" s="91">
+        <v>1</v>
+      </c>
+      <c r="I1235" s="91">
         <v>1</v>
       </c>
       <c r="K1235" s="36">
@@ -46869,13 +46867,13 @@
       <c r="D1236" s="1">
         <v>45431</v>
       </c>
-      <c r="G1236" s="92">
-        <v>1</v>
-      </c>
-      <c r="H1236" s="92">
-        <v>1</v>
-      </c>
-      <c r="I1236" s="92">
+      <c r="G1236" s="91">
+        <v>1</v>
+      </c>
+      <c r="H1236" s="91">
+        <v>1</v>
+      </c>
+      <c r="I1236" s="91">
         <v>1</v>
       </c>
       <c r="K1236" s="36">
@@ -48912,6 +48910,18 @@
       </c>
       <c r="D1379" s="1">
         <v>45574</v>
+      </c>
+      <c r="F1379">
+        <v>3</v>
+      </c>
+      <c r="H1379">
+        <v>3</v>
+      </c>
+      <c r="I1379">
+        <v>2</v>
+      </c>
+      <c r="K1379" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="1380" spans="3:11" x14ac:dyDescent="0.25">
@@ -49517,15 +49527,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
       <c r="M1" s="39" t="s">
@@ -49551,7 +49561,7 @@
       <c r="AE1" s="39"/>
     </row>
     <row r="2" spans="1:56" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
+      <c r="A2" s="95"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -53739,32 +53749,32 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97" t="s">
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95" t="s">
         <v>559</v>
       </c>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="97"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="97"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
       <c r="C50" s="41"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -54389,28 +54399,28 @@
       <c r="B68"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="97"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97" t="s">
+      <c r="A71" s="95"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95" t="s">
         <v>559</v>
       </c>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="97"/>
-      <c r="M71" s="97"/>
-      <c r="N71" s="97"/>
-      <c r="O71" s="97"/>
-      <c r="P71" s="97"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="95"/>
       <c r="C72" s="41"/>
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
@@ -58105,9 +58115,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -58120,18 +58130,18 @@
     <col min="7" max="19" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>1134</v>
       </c>
       <c r="F1" t="s">
         <v>1137</v>
       </c>
-      <c r="J1" s="94">
+      <c r="J1" s="93">
         <v>45316</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>1118</v>
       </c>
@@ -58172,7 +58182,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1330</v>
       </c>
@@ -58198,7 +58208,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1331</v>
       </c>
@@ -58211,23 +58221,23 @@
       <c r="G4" t="s">
         <v>1310</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="92" t="s">
         <v>1317</v>
       </c>
       <c r="N4" s="36" t="s">
         <v>1321</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="92" t="s">
         <v>1317</v>
       </c>
       <c r="P4" t="s">
         <v>1316</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="92" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1329</v>
       </c>
@@ -58243,13 +58253,13 @@
       <c r="M5" t="s">
         <v>1325</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="92" t="s">
         <v>1317</v>
       </c>
       <c r="O5" t="s">
         <v>1319</v>
       </c>
-      <c r="P5" s="93" t="s">
+      <c r="P5" s="92" t="s">
         <v>1317</v>
       </c>
       <c r="Q5" t="s">
@@ -58259,14 +58269,14 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1329</v>
       </c>
       <c r="B6" t="s">
         <v>1225</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="94" t="s">
         <v>1213</v>
       </c>
       <c r="G6" t="s">
@@ -58278,13 +58288,13 @@
       <c r="K6" t="s">
         <v>1333</v>
       </c>
-      <c r="M6" s="93" t="s">
+      <c r="M6" s="92" t="s">
         <v>1324</v>
       </c>
-      <c r="N6" s="93" t="s">
+      <c r="N6" s="92" t="s">
         <v>1322</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="92" t="s">
         <v>1320</v>
       </c>
       <c r="P6" t="s">
@@ -58294,7 +58304,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1329</v>
       </c>
@@ -58305,18 +58315,18 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1326</v>
       </c>
       <c r="B8" t="s">
         <v>1227</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="94" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1326</v>
       </c>
@@ -58326,16 +58336,15 @@
       <c r="C9" s="84" t="s">
         <v>1190</v>
       </c>
-      <c r="Y9" s="95"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1326</v>
       </c>
       <c r="B10" t="s">
         <v>1229</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="94" t="s">
         <v>1215</v>
       </c>
       <c r="K10" t="s">
@@ -58344,9 +58353,8 @@
       <c r="L10" t="s">
         <v>1084</v>
       </c>
-      <c r="Y10" s="95"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1326</v>
       </c>
@@ -58362,9 +58370,8 @@
       <c r="L11" t="s">
         <v>1085</v>
       </c>
-      <c r="Y11" s="95"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1328</v>
       </c>
@@ -58380,16 +58387,15 @@
       <c r="L12" t="s">
         <v>1095</v>
       </c>
-      <c r="Y12" s="95"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1328</v>
       </c>
       <c r="B13" t="s">
         <v>1254</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="94" t="s">
         <v>1249</v>
       </c>
       <c r="K13" t="s">
@@ -58398,9 +58404,8 @@
       <c r="L13" t="s">
         <v>1135</v>
       </c>
-      <c r="Y13" s="95"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1328</v>
       </c>
@@ -58417,7 +58422,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1330</v>
       </c>
@@ -58434,7 +58439,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>309</v>
       </c>
@@ -58488,7 +58493,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="90" t="s">
         <v>1358</v>
       </c>
     </row>

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{777DA37F-525D-4123-A332-6E61B5F09CCC}"/>
+  <xr:revisionPtr revIDLastSave="552" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88445604-AD4A-4F76-B347-E74D634B79AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2922,7 +2922,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="1362">
   <si>
     <t>muscu</t>
   </si>
@@ -8044,6 +8044,12 @@
   </si>
   <si>
     <t>https://spinnerwheel.ahaslides.com/?entries=Cl%C3%A9ment|Justine|JB|Arnaud|Gilles|Patrick|Philippe|Ang%C3%A9lique|Moustapha|Adrien|Gurvan</t>
+  </si>
+  <si>
+    <t>dispense de rôles tournants pour les positions "occupées" ? (leaddev, leadapi…)</t>
+  </si>
+  <si>
+    <t>faire participer le resp. NRquoti à l'analyse Nrversion</t>
   </si>
 </sst>
 </file>
@@ -21989,8 +21995,8 @@
   <dimension ref="A1:AO1406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1379" sqref="I1379"/>
+      <pane ySplit="1" topLeftCell="A1351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1386" sqref="K1386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48931,6 +48937,18 @@
       <c r="D1380" s="1">
         <v>45575</v>
       </c>
+      <c r="F1380">
+        <v>6</v>
+      </c>
+      <c r="H1380">
+        <v>6</v>
+      </c>
+      <c r="I1380">
+        <v>6</v>
+      </c>
+      <c r="K1380" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1381" t="s">
@@ -48939,6 +48957,9 @@
       <c r="D1381" s="1">
         <v>45576</v>
       </c>
+      <c r="K1381" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1382" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1382" t="s">
@@ -48947,6 +48968,18 @@
       <c r="D1382" s="1">
         <v>45577</v>
       </c>
+      <c r="F1382">
+        <v>5</v>
+      </c>
+      <c r="H1382">
+        <v>5</v>
+      </c>
+      <c r="I1382">
+        <v>5</v>
+      </c>
+      <c r="K1382" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1383" t="s">
@@ -48955,6 +48988,9 @@
       <c r="D1383" s="1">
         <v>45578</v>
       </c>
+      <c r="K1383" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1384" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1384" t="s">
@@ -48963,6 +48999,9 @@
       <c r="D1384" s="1">
         <v>45579</v>
       </c>
+      <c r="K1384" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="1385" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1385" t="s">
@@ -48971,6 +49010,9 @@
       <c r="D1385" s="1">
         <v>45580</v>
       </c>
+      <c r="K1385" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="1386" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1386" t="s">
@@ -48978,6 +49020,21 @@
       </c>
       <c r="D1386" s="1">
         <v>45581</v>
+      </c>
+      <c r="E1386">
+        <v>2</v>
+      </c>
+      <c r="F1386">
+        <v>2</v>
+      </c>
+      <c r="H1386">
+        <v>4</v>
+      </c>
+      <c r="I1386">
+        <v>2</v>
+      </c>
+      <c r="K1386" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="1387" spans="3:11" x14ac:dyDescent="0.25">
@@ -58118,7 +58175,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58485,6 +58542,16 @@
       </c>
       <c r="L21" t="s">
         <v>1094</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">

--- a/track.xlsx
+++ b/track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E986775F-196B-4295-BBD4-5755DA1C8C5B}"/>
+  <xr:revisionPtr revIDLastSave="950" documentId="13_ncr:1_{C47E1EF3-371C-4195-B963-C8F39BE9DB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82043A02-7D0E-4806-A2A1-9ABE0A290362}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baklog" sheetId="23" r:id="rId1"/>
@@ -2958,7 +2958,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4471" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="1379">
   <si>
     <t>muscu</t>
   </si>
@@ -7815,9 +7815,6 @@
     <t>zoe</t>
   </si>
   <si>
-    <t>immobilisation/assistance juridique</t>
-  </si>
-  <si>
     <t>castor</t>
   </si>
   <si>
@@ -8086,6 +8083,60 @@
   </si>
   <si>
     <t>api "boîte à idées/q° anonyme"</t>
+  </si>
+  <si>
+    <t>déguisement Spyro, tigre, lego</t>
+  </si>
+  <si>
+    <t>T-Shirt "7/10 never forget", cuisine</t>
+  </si>
+  <si>
+    <t>lego ?, casquette de contrôleur API</t>
+  </si>
+  <si>
+    <t>diahrée</t>
+  </si>
+  <si>
+    <t>~1</t>
+  </si>
+  <si>
+    <t>~2</t>
+  </si>
+  <si>
+    <t>~3</t>
+  </si>
+  <si>
+    <t>~4</t>
+  </si>
+  <si>
+    <t>~5</t>
+  </si>
+  <si>
+    <t>~6</t>
+  </si>
+  <si>
+    <t>~7</t>
+  </si>
+  <si>
+    <t>~8</t>
+  </si>
+  <si>
+    <t>~0</t>
+  </si>
+  <si>
+    <t>vendre ?</t>
+  </si>
+  <si>
+    <t>blockchain journalisme/timestamp document hash</t>
+  </si>
+  <si>
+    <t>blockchain airbnb/blablacar/doctolib/…</t>
+  </si>
+  <si>
+    <t>"joli, utile et intelligent" comme une API v2</t>
+  </si>
+  <si>
+    <t>techno, boom boom dans les oreilles, pas de paroles, normal, rien à dire</t>
   </si>
 </sst>
 </file>
@@ -22029,10 +22080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2265933B-5A23-4E12-9081-81D5923E6515}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22046,13 +22097,13 @@
         <v>1257</v>
       </c>
       <c r="B1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1" t="s">
         <v>1273</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1274</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -22060,13 +22111,13 @@
         <v>1258</v>
       </c>
       <c r="B2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C2" t="s">
         <v>1267</v>
       </c>
       <c r="D2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -22098,15 +22149,15 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B8" t="s">
         <v>1357</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1358</v>
       </c>
       <c r="D8" t="s">
         <v>348</v>
@@ -22115,12 +22166,12 @@
         <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -22135,202 +22186,212 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1292</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1293</v>
+        <v>1264</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1361</v>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>1269</v>
       </c>
-      <c r="B17" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="B19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>1270</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1276</v>
-      </c>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1285</v>
+      <c r="A24" t="s">
+        <v>1275</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="95" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="95" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1287</v>
-      </c>
-    </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1289</v>
+      <c r="A29" s="3" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1280</v>
+        <v>1276</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1281</v>
+        <v>1277</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1291</v>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1336</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1331</v>
+        <v>1353</v>
       </c>
       <c r="I37" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J37" t="s">
-        <v>95</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="I38" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1332</v>
+        <v>1324</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1330</v>
       </c>
       <c r="I39" t="s">
-        <v>1339</v>
+        <v>1336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1333</v>
+        <v>1325</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1334</v>
+        <v>1331</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1340</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1341</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1342</v>
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -30996,11 +31057,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO1440"/>
+  <dimension ref="A1:AO1893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1419" sqref="J1419"/>
+      <pane ySplit="1" topLeftCell="A1557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1569" sqref="J1569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56327,7 +56388,7 @@
         <v>45462</v>
       </c>
       <c r="I1267" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K1267" s="36">
         <v>118</v>
@@ -56576,7 +56637,7 @@
         <v>5</v>
       </c>
       <c r="W1282" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1283" spans="3:23" x14ac:dyDescent="0.25">
@@ -56671,7 +56732,7 @@
         <v>12</v>
       </c>
       <c r="W1289" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1290" spans="3:23" x14ac:dyDescent="0.25">
@@ -57765,7 +57826,7 @@
         <v>0</v>
       </c>
       <c r="O1368" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1369" spans="3:16" x14ac:dyDescent="0.25">
@@ -57854,7 +57915,7 @@
         <v>7</v>
       </c>
       <c r="P1375" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1376" spans="3:16" x14ac:dyDescent="0.25">
@@ -57877,7 +57938,7 @@
         <v>0</v>
       </c>
       <c r="P1376" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1377" spans="3:16" x14ac:dyDescent="0.25">
@@ -58095,7 +58156,7 @@
         <v>3</v>
       </c>
       <c r="P1389" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1390" spans="3:16" x14ac:dyDescent="0.25">
@@ -58118,7 +58179,7 @@
         <v>4</v>
       </c>
       <c r="P1390" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1391" spans="3:16" x14ac:dyDescent="0.25">
@@ -58132,7 +58193,7 @@
         <v>5</v>
       </c>
       <c r="P1391" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1392" spans="3:16" x14ac:dyDescent="0.25">
@@ -58151,8 +58212,11 @@
       <c r="J1392">
         <v>1</v>
       </c>
+      <c r="K1392" s="20">
+        <v>0</v>
+      </c>
       <c r="P1392" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1393" spans="3:19" x14ac:dyDescent="0.25">
@@ -58208,6 +58272,9 @@
       <c r="D1395" s="1">
         <v>45590</v>
       </c>
+      <c r="K1395" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1396" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1396" t="s">
@@ -58219,6 +58286,9 @@
       <c r="F1396">
         <v>1</v>
       </c>
+      <c r="K1396" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="1397" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1397" t="s">
@@ -58230,6 +58300,9 @@
       <c r="F1397">
         <v>1</v>
       </c>
+      <c r="K1397" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="1398" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1398" t="s">
@@ -58307,6 +58380,9 @@
       <c r="D1401" s="1">
         <v>45596</v>
       </c>
+      <c r="K1401" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1402" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1402" t="s">
@@ -58315,6 +58391,9 @@
       <c r="D1402" s="1">
         <v>45597</v>
       </c>
+      <c r="K1402" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="1403" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1403" t="s">
@@ -58323,6 +58402,9 @@
       <c r="D1403" s="1">
         <v>45598</v>
       </c>
+      <c r="K1403" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="1404" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1404" t="s">
@@ -58331,6 +58413,9 @@
       <c r="D1404" s="1">
         <v>45599</v>
       </c>
+      <c r="K1404" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="1405" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1405" t="s">
@@ -58339,6 +58424,9 @@
       <c r="D1405" s="1">
         <v>45600</v>
       </c>
+      <c r="K1405" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="1406" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1406" t="s">
@@ -58347,6 +58435,9 @@
       <c r="D1406" s="1">
         <v>45601</v>
       </c>
+      <c r="K1406" s="36">
+        <v>6</v>
+      </c>
     </row>
     <row r="1407" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C1407" t="s">
@@ -58387,6 +58478,9 @@
       <c r="J1408">
         <v>1</v>
       </c>
+      <c r="K1408" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1409" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1409" t="s">
@@ -58418,6 +58512,9 @@
       <c r="D1410" s="1">
         <v>45605</v>
       </c>
+      <c r="K1410" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1411" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1411" t="s">
@@ -58426,6 +58523,9 @@
       <c r="D1411" s="1">
         <v>45606</v>
       </c>
+      <c r="K1411" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="1412" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1412" t="s">
@@ -58434,6 +58534,9 @@
       <c r="D1412" s="1">
         <v>45607</v>
       </c>
+      <c r="K1412" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="1413" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1413" t="s">
@@ -58517,6 +58620,9 @@
       <c r="D1416" s="1">
         <v>45611</v>
       </c>
+      <c r="K1416" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="1417" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1417" t="s">
@@ -58525,6 +58631,9 @@
       <c r="D1417" s="1">
         <v>45612</v>
       </c>
+      <c r="K1417" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="1418" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1418" t="s">
@@ -58545,6 +58654,9 @@
       <c r="J1418">
         <v>0</v>
       </c>
+      <c r="K1418" s="36">
+        <v>3</v>
+      </c>
     </row>
     <row r="1419" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1419" t="s">
@@ -58553,6 +58665,18 @@
       <c r="D1419" s="1">
         <v>45614</v>
       </c>
+      <c r="K1419" s="36">
+        <v>4</v>
+      </c>
+      <c r="R1419" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1419" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1419" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="1420" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1420" t="s">
@@ -58561,6 +58685,18 @@
       <c r="D1420" s="1">
         <v>45615</v>
       </c>
+      <c r="F1420">
+        <v>2</v>
+      </c>
+      <c r="H1420">
+        <v>2</v>
+      </c>
+      <c r="I1420">
+        <v>2</v>
+      </c>
+      <c r="K1420" s="36">
+        <v>5</v>
+      </c>
     </row>
     <row r="1421" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1421" t="s">
@@ -58569,6 +58705,21 @@
       <c r="D1421" s="1">
         <v>45616</v>
       </c>
+      <c r="F1421">
+        <v>2</v>
+      </c>
+      <c r="H1421">
+        <v>2</v>
+      </c>
+      <c r="I1421">
+        <v>2</v>
+      </c>
+      <c r="K1421" s="36">
+        <v>6</v>
+      </c>
+      <c r="O1421" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="1422" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1422" t="s">
@@ -58577,6 +58728,9 @@
       <c r="D1422" s="1">
         <v>45617</v>
       </c>
+      <c r="K1422" s="36">
+        <v>7</v>
+      </c>
     </row>
     <row r="1423" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1423" t="s">
@@ -58585,6 +58739,15 @@
       <c r="D1423" s="1">
         <v>45618</v>
       </c>
+      <c r="I1423">
+        <v>1</v>
+      </c>
+      <c r="J1423">
+        <v>1</v>
+      </c>
+      <c r="K1423" s="36">
+        <v>8</v>
+      </c>
     </row>
     <row r="1424" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1424" t="s">
@@ -58593,72 +58756,174 @@
       <c r="D1424" s="1">
         <v>45619</v>
       </c>
-    </row>
-    <row r="1425" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1424" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1425" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1425" t="s">
         <v>24</v>
       </c>
       <c r="D1425" s="1">
         <v>45620</v>
       </c>
-    </row>
-    <row r="1426" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="I1425">
+        <v>1</v>
+      </c>
+      <c r="J1425">
+        <v>1</v>
+      </c>
+      <c r="K1425" s="36">
+        <v>10</v>
+      </c>
+      <c r="P1425" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1426" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1426" t="s">
         <v>18</v>
       </c>
       <c r="D1426" s="1">
         <v>45621</v>
       </c>
-    </row>
-    <row r="1427" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1426" s="36">
+        <v>11</v>
+      </c>
+      <c r="P1426" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1427" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1427" t="s">
         <v>19</v>
       </c>
       <c r="D1427" s="1">
         <v>45622</v>
       </c>
-    </row>
-    <row r="1428" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="K1427" s="36">
+        <v>12</v>
+      </c>
+      <c r="P1427" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1428" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1428" t="s">
         <v>20</v>
       </c>
       <c r="D1428" s="1">
         <v>45623</v>
       </c>
-    </row>
-    <row r="1429" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1428">
+        <v>4</v>
+      </c>
+      <c r="H1428">
+        <v>3</v>
+      </c>
+      <c r="I1428">
+        <v>3</v>
+      </c>
+      <c r="K1428" s="20">
+        <v>0</v>
+      </c>
+      <c r="O1428" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q1428" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1428" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S1428" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1428" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1429" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1429" t="s">
         <v>21</v>
       </c>
       <c r="D1429" s="1">
         <v>45624</v>
       </c>
-    </row>
-    <row r="1430" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1429">
+        <v>3</v>
+      </c>
+      <c r="H1429">
+        <v>3</v>
+      </c>
+      <c r="I1429">
+        <v>3</v>
+      </c>
+      <c r="K1429" s="20">
+        <v>0</v>
+      </c>
+      <c r="O1429" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1430" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1430" t="s">
         <v>22</v>
       </c>
       <c r="D1430" s="1">
         <v>45625</v>
       </c>
-    </row>
-    <row r="1431" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1430">
+        <v>1</v>
+      </c>
+      <c r="H1430">
+        <v>1</v>
+      </c>
+      <c r="I1430">
+        <v>1</v>
+      </c>
+      <c r="K1430" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1431" t="s">
         <v>23</v>
       </c>
       <c r="D1431" s="1">
         <v>45626</v>
       </c>
-    </row>
-    <row r="1432" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1431">
+        <v>1</v>
+      </c>
+      <c r="K1431" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1432" t="s">
         <v>24</v>
       </c>
       <c r="D1432" s="1">
         <v>45627</v>
       </c>
-    </row>
-    <row r="1433" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1432">
+        <v>1</v>
+      </c>
+      <c r="H1432">
+        <v>2</v>
+      </c>
+      <c r="I1432">
+        <v>3</v>
+      </c>
+      <c r="J1432">
+        <v>1</v>
+      </c>
+      <c r="K1432" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1433" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1433" t="s">
         <v>18</v>
       </c>
@@ -58666,23 +58931,47 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="1434" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1434" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1434" t="s">
         <v>19</v>
       </c>
       <c r="D1434" s="1">
         <v>45629</v>
       </c>
-    </row>
-    <row r="1435" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1434">
+        <v>1</v>
+      </c>
+      <c r="H1434">
+        <v>1</v>
+      </c>
+      <c r="I1434">
+        <v>1</v>
+      </c>
+      <c r="K1434" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1435" t="s">
         <v>20</v>
       </c>
       <c r="D1435" s="1">
         <v>45630</v>
       </c>
-    </row>
-    <row r="1436" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1435">
+        <v>5</v>
+      </c>
+      <c r="H1435">
+        <v>3</v>
+      </c>
+      <c r="I1435">
+        <v>3</v>
+      </c>
+      <c r="K1435" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1436" t="s">
         <v>21</v>
       </c>
@@ -58690,36 +58979,4194 @@
         <v>45631</v>
       </c>
     </row>
-    <row r="1437" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="1437" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1437" t="s">
         <v>22</v>
       </c>
       <c r="D1437" s="1">
         <v>45632</v>
       </c>
-    </row>
-    <row r="1438" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1437">
+        <v>3</v>
+      </c>
+      <c r="H1437">
+        <v>3</v>
+      </c>
+      <c r="I1437">
+        <v>3</v>
+      </c>
+      <c r="K1437" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1438" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1438" t="s">
         <v>23</v>
       </c>
       <c r="D1438" s="1">
         <v>45633</v>
       </c>
-    </row>
-    <row r="1439" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F1438">
+        <v>7</v>
+      </c>
+      <c r="H1438">
+        <v>7</v>
+      </c>
+      <c r="I1438">
+        <v>7</v>
+      </c>
+      <c r="K1438" s="20">
+        <v>0</v>
+      </c>
+      <c r="O1438" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1439" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1439" t="s">
         <v>24</v>
       </c>
       <c r="D1439" s="1">
         <v>45634</v>
       </c>
-    </row>
-    <row r="1440" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="P1439" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1440" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C1440" t="s">
         <v>18</v>
       </c>
       <c r="D1440" s="1">
         <v>45635</v>
+      </c>
+      <c r="F1440">
+        <v>3</v>
+      </c>
+      <c r="H1440">
+        <v>3</v>
+      </c>
+      <c r="I1440">
+        <v>3</v>
+      </c>
+      <c r="K1440" s="20">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1441" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1441" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1441" s="1">
+        <v>45636</v>
+      </c>
+      <c r="F1441">
+        <v>1</v>
+      </c>
+      <c r="H1441">
+        <v>1</v>
+      </c>
+      <c r="K1441" s="20">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q1441" t="s">
+        <v>211</v>
+      </c>
+      <c r="S1441" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1442" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1442" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1442" s="1">
+        <v>45637</v>
+      </c>
+      <c r="F1442">
+        <v>2</v>
+      </c>
+      <c r="H1442">
+        <v>2</v>
+      </c>
+      <c r="I1442">
+        <v>2</v>
+      </c>
+      <c r="K1442" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1443" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1443" s="1">
+        <v>45638</v>
+      </c>
+      <c r="P1443" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1444" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1444" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1444" s="1">
+        <v>45639</v>
+      </c>
+      <c r="F1444">
+        <v>2</v>
+      </c>
+      <c r="H1444">
+        <v>2</v>
+      </c>
+      <c r="I1444">
+        <v>2</v>
+      </c>
+      <c r="K1444" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1445" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1445" s="1">
+        <v>45640</v>
+      </c>
+      <c r="K1445" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1446" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1446" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1446" s="1">
+        <v>45641</v>
+      </c>
+      <c r="K1446" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1447" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1447" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1447" s="1">
+        <v>45642</v>
+      </c>
+      <c r="I1447">
+        <v>1</v>
+      </c>
+      <c r="J1447">
+        <v>1</v>
+      </c>
+      <c r="K1447" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1448" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1448" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1448" s="1">
+        <v>45643</v>
+      </c>
+      <c r="E1448">
+        <v>1</v>
+      </c>
+      <c r="F1448">
+        <v>2</v>
+      </c>
+      <c r="H1448">
+        <v>3</v>
+      </c>
+      <c r="I1448">
+        <v>3</v>
+      </c>
+      <c r="K1448" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1449" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1449" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F1449">
+        <v>5</v>
+      </c>
+      <c r="H1449">
+        <v>4</v>
+      </c>
+      <c r="I1449">
+        <v>4</v>
+      </c>
+      <c r="K1449" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1450" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>45645</v>
+      </c>
+      <c r="F1450">
+        <v>2</v>
+      </c>
+      <c r="H1450">
+        <v>2</v>
+      </c>
+      <c r="I1450">
+        <v>2</v>
+      </c>
+      <c r="K1450" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1451" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>45646</v>
+      </c>
+      <c r="K1451" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1452" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1452" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>45647</v>
+      </c>
+      <c r="K1452" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1453" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1453" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>45648</v>
+      </c>
+      <c r="K1453" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1454" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1454" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>45649</v>
+      </c>
+      <c r="K1454" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1455" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1455" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>45650</v>
+      </c>
+      <c r="K1455" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1456" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1456" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>45651</v>
+      </c>
+      <c r="K1456" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1457" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1457" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>45652</v>
+      </c>
+      <c r="K1457" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1458" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1458" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>45653</v>
+      </c>
+      <c r="K1458" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1459" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1459" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>45654</v>
+      </c>
+      <c r="K1459" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1460" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1460" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>45655</v>
+      </c>
+      <c r="K1460" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1461" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1461" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>45656</v>
+      </c>
+      <c r="K1461" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1462" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1462" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>45657</v>
+      </c>
+      <c r="K1462" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1463" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1463" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>45658</v>
+      </c>
+      <c r="K1463" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1464" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1464" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>45659</v>
+      </c>
+      <c r="K1464" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1465" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1465" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>45660</v>
+      </c>
+      <c r="K1465" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1466" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1466" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>45661</v>
+      </c>
+      <c r="K1466" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1467" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1467" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>45662</v>
+      </c>
+      <c r="K1467" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1468" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1468" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>45663</v>
+      </c>
+      <c r="K1468" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1469" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1469" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>45664</v>
+      </c>
+      <c r="K1469" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1470" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1470" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1470" s="1">
+        <v>45665</v>
+      </c>
+      <c r="K1470" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1471" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1471" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1471" s="1">
+        <v>45666</v>
+      </c>
+      <c r="K1471" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1472" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1472" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1472" s="1">
+        <v>45667</v>
+      </c>
+      <c r="K1472" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1473" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1473" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1473" s="1">
+        <v>45668</v>
+      </c>
+      <c r="K1473" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1474" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1474" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1474" s="1">
+        <v>45669</v>
+      </c>
+      <c r="K1474" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1475" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1475" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1475" s="1">
+        <v>45670</v>
+      </c>
+      <c r="K1475" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1476" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1476" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1476" s="1">
+        <v>45671</v>
+      </c>
+      <c r="K1476" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1477" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1477" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1477" s="1">
+        <v>45672</v>
+      </c>
+      <c r="K1477" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1478" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1478" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1478" s="1">
+        <v>45673</v>
+      </c>
+      <c r="K1478" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1479" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1479" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1479" s="1">
+        <v>45674</v>
+      </c>
+      <c r="K1479" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1480" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1480" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1480" s="1">
+        <v>45675</v>
+      </c>
+      <c r="K1480" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1481" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1481" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1481" s="1">
+        <v>45676</v>
+      </c>
+      <c r="K1481" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1482" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1482" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1482" s="1">
+        <v>45677</v>
+      </c>
+      <c r="K1482" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1483" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1483" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1483" s="1">
+        <v>45678</v>
+      </c>
+      <c r="K1483" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1484" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1484" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1484" s="1">
+        <v>45679</v>
+      </c>
+      <c r="K1484" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1485" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1485" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1485" s="1">
+        <v>45680</v>
+      </c>
+      <c r="K1485" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1486" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1486" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1486" s="1">
+        <v>45681</v>
+      </c>
+      <c r="K1486" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1487" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1487" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1487" s="1">
+        <v>45682</v>
+      </c>
+      <c r="K1487" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1488" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1488" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1488" s="1">
+        <v>45683</v>
+      </c>
+      <c r="K1488" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1489" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1489" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1489" s="1">
+        <v>45684</v>
+      </c>
+      <c r="K1489" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1490" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1490" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1490" s="1">
+        <v>45685</v>
+      </c>
+      <c r="K1490" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1491" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1491" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1491" s="1">
+        <v>45686</v>
+      </c>
+      <c r="K1491" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1492" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1492" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1492" s="1">
+        <v>45687</v>
+      </c>
+      <c r="K1492" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1493" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1493" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1493" s="1">
+        <v>45688</v>
+      </c>
+      <c r="K1493" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1494" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1494" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1494" s="1">
+        <v>45689</v>
+      </c>
+      <c r="K1494" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1495" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1495" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1495" s="1">
+        <v>45690</v>
+      </c>
+      <c r="K1495" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1496" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1496" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1496" s="1">
+        <v>45691</v>
+      </c>
+      <c r="K1496" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1497" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1497" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1497" s="1">
+        <v>45692</v>
+      </c>
+      <c r="K1497" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1498" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1498" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1498" s="1">
+        <v>45693</v>
+      </c>
+      <c r="K1498" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1499" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1499" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1499" s="1">
+        <v>45694</v>
+      </c>
+      <c r="K1499" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1500" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1500" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1500" s="1">
+        <v>45695</v>
+      </c>
+      <c r="K1500" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1501" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1501" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1501" s="1">
+        <v>45696</v>
+      </c>
+      <c r="K1501" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1502" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1502" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1502" s="1">
+        <v>45697</v>
+      </c>
+      <c r="K1502" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1503" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1503" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1503" s="1">
+        <v>45698</v>
+      </c>
+      <c r="K1503" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1504" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1504" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1504" s="1">
+        <v>45699</v>
+      </c>
+      <c r="K1504" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1505" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1505" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1505" s="1">
+        <v>45700</v>
+      </c>
+      <c r="K1505" s="5" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1506" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1506" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1506" s="1">
+        <v>45701</v>
+      </c>
+      <c r="K1506" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1507" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1507" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1507" s="1">
+        <v>45702</v>
+      </c>
+      <c r="K1507" s="5" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1508" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1508" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1508" s="1">
+        <v>45703</v>
+      </c>
+      <c r="K1508" s="5" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1509" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1509" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1509" s="1">
+        <v>45704</v>
+      </c>
+      <c r="K1509" s="5" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1510" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1510" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1510" s="1">
+        <v>45705</v>
+      </c>
+      <c r="K1510" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1511" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1511" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1511" s="1">
+        <v>45706</v>
+      </c>
+      <c r="K1511" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="S1511" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1512" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1512" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1512" s="1">
+        <v>45707</v>
+      </c>
+      <c r="F1512">
+        <v>1</v>
+      </c>
+      <c r="H1512">
+        <v>1</v>
+      </c>
+      <c r="I1512">
+        <v>2</v>
+      </c>
+      <c r="J1512">
+        <v>1</v>
+      </c>
+      <c r="K1512" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1513" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1513" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1513" s="1">
+        <v>45708</v>
+      </c>
+      <c r="K1513">
+        <v>1</v>
+      </c>
+      <c r="Q1513" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1513" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1514" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1514" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1514" s="1">
+        <v>45709</v>
+      </c>
+      <c r="K1514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1515" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1515" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1515" s="1">
+        <v>45710</v>
+      </c>
+      <c r="K1515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1516" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1516" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1516" s="1">
+        <v>45711</v>
+      </c>
+      <c r="K1516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1517" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1517" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1517" s="1">
+        <v>45712</v>
+      </c>
+      <c r="F1517">
+        <v>2</v>
+      </c>
+      <c r="H1517">
+        <v>2</v>
+      </c>
+      <c r="I1517">
+        <v>2</v>
+      </c>
+      <c r="K1517" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1518" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1518" s="1">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="1519" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1519" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1519" s="1">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="1520" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C1520" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1520" s="1">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="1521" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1521" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1521" s="1">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="1522" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1522" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1522" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="1523" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1523" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1523" s="1">
+        <v>45718</v>
+      </c>
+    </row>
+    <row r="1524" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1524" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1524" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="1525" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1525" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1525" s="1">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="1526" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1526" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1526" s="1">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="1527" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1527" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1527" s="1">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="1528" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1528" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1528" s="1">
+        <v>45723</v>
+      </c>
+      <c r="F1528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1529" s="1">
+        <v>45724</v>
+      </c>
+      <c r="H1529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1530" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1530" s="1">
+        <v>45725</v>
+      </c>
+      <c r="F1530">
+        <v>1</v>
+      </c>
+      <c r="H1530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1531" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1531" s="1">
+        <v>45726</v>
+      </c>
+      <c r="F1531">
+        <v>2</v>
+      </c>
+      <c r="H1531">
+        <v>1</v>
+      </c>
+      <c r="I1531">
+        <v>1</v>
+      </c>
+      <c r="K1531" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1532" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1532" s="1">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="1533" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1533" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1533" s="1">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="1534" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1534" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1534" s="1">
+        <v>45729</v>
+      </c>
+      <c r="F1534">
+        <v>2</v>
+      </c>
+      <c r="H1534">
+        <v>2</v>
+      </c>
+      <c r="I1534">
+        <v>2</v>
+      </c>
+      <c r="K1534" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1535" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1535" s="1">
+        <v>45730</v>
+      </c>
+      <c r="F1535">
+        <v>1</v>
+      </c>
+      <c r="H1535">
+        <v>1</v>
+      </c>
+      <c r="I1535">
+        <v>1</v>
+      </c>
+      <c r="K1535" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1536" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1536" s="1">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="1537" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1537" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1537" s="1">
+        <v>45732</v>
+      </c>
+      <c r="I1537">
+        <v>1</v>
+      </c>
+      <c r="J1537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1538" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1538" s="1">
+        <v>45733</v>
+      </c>
+      <c r="I1538">
+        <v>1</v>
+      </c>
+      <c r="J1538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1539" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1539" s="1">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="1540" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1540" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1540" s="1">
+        <v>45735</v>
+      </c>
+      <c r="F1540">
+        <v>3</v>
+      </c>
+      <c r="H1540">
+        <v>3</v>
+      </c>
+      <c r="I1540">
+        <v>3</v>
+      </c>
+      <c r="K1540" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1541" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1541" s="1">
+        <v>45736</v>
+      </c>
+      <c r="F1541">
+        <v>2</v>
+      </c>
+      <c r="H1541">
+        <v>2</v>
+      </c>
+      <c r="I1541">
+        <v>2</v>
+      </c>
+      <c r="K1541" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1542" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1542" s="1">
+        <v>45737</v>
+      </c>
+      <c r="F1542">
+        <v>1</v>
+      </c>
+      <c r="H1542">
+        <v>1</v>
+      </c>
+      <c r="I1542">
+        <v>1</v>
+      </c>
+      <c r="K1542" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1543" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1543" s="1">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="1544" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1544" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1544" s="1">
+        <v>45739</v>
+      </c>
+    </row>
+    <row r="1545" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1545" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1545" s="1">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="1546" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1546" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1546" s="1">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="1547" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1547" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1547" s="1">
+        <v>45742</v>
+      </c>
+      <c r="F1547">
+        <v>1</v>
+      </c>
+      <c r="H1547">
+        <v>1</v>
+      </c>
+      <c r="I1547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1548" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1548" s="1">
+        <v>45743</v>
+      </c>
+      <c r="F1548">
+        <v>5</v>
+      </c>
+      <c r="H1548">
+        <v>5</v>
+      </c>
+      <c r="I1548">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1549" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1549" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1549" s="1">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="1550" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1550" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1550" s="1">
+        <v>45745</v>
+      </c>
+    </row>
+    <row r="1551" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1551" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1551" s="1">
+        <v>45746</v>
+      </c>
+    </row>
+    <row r="1552" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1552" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1552" s="1">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="1553" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1553" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1553" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="1554" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1554" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1554" s="1">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="1555" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1555" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1555" s="1">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="1556" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1556" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1556" s="1">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="1557" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1557" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1557" s="1">
+        <v>45752</v>
+      </c>
+      <c r="I1557">
+        <v>1</v>
+      </c>
+      <c r="J1557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1558" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1558" s="1">
+        <v>45753</v>
+      </c>
+    </row>
+    <row r="1559" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1559" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1559" s="1">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="1560" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1560" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1560" s="1">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="1561" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1561" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1561" s="1">
+        <v>45756</v>
+      </c>
+      <c r="F1561">
+        <v>1</v>
+      </c>
+      <c r="H1561">
+        <v>1</v>
+      </c>
+      <c r="I1561">
+        <v>1</v>
+      </c>
+      <c r="K1561" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1562" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1562" s="1">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="1563" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1563" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1563" s="1">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="1564" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1564" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1564" s="1">
+        <v>45759</v>
+      </c>
+    </row>
+    <row r="1565" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1565" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1565" s="1">
+        <v>45760</v>
+      </c>
+    </row>
+    <row r="1566" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1566" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1566" s="1">
+        <v>45761</v>
+      </c>
+      <c r="F1566">
+        <v>4</v>
+      </c>
+      <c r="H1566">
+        <v>4</v>
+      </c>
+      <c r="I1566">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1567" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1567" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1567" s="1">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="1568" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1568" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1568" s="1">
+        <v>45763</v>
+      </c>
+      <c r="F1568">
+        <v>3</v>
+      </c>
+      <c r="H1568">
+        <v>3</v>
+      </c>
+      <c r="I1568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1569" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1569" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1569" s="1">
+        <v>45764</v>
+      </c>
+      <c r="F1569">
+        <v>3</v>
+      </c>
+      <c r="H1569">
+        <v>3</v>
+      </c>
+      <c r="I1569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1570" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1570" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1570" s="1">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="1571" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1571" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1571" s="1">
+        <v>45766</v>
+      </c>
+    </row>
+    <row r="1572" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1572" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1572" s="1">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="1573" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1573" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1573" s="1">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="1574" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1574" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1574" s="1">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="1575" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1575" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1575" s="1">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="1576" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1576" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1576" s="1">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="1577" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1577" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1577" s="1">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="1578" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1578" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1578" s="1">
+        <v>45773</v>
+      </c>
+    </row>
+    <row r="1579" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1579" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1579" s="1">
+        <v>45774</v>
+      </c>
+    </row>
+    <row r="1580" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1580" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1580" s="1">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="1581" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1581" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1581" s="1">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="1582" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1582" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1582" s="1">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="1583" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1583" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1583" s="1">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="1584" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1584" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1584" s="1">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="1585" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1585" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1585" s="1">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="1586" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1586" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1586" s="1">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="1587" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1587" s="1">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="1588" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1588" s="1">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="1589" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1589" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1589" s="1">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="1590" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1590" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1590" s="1">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="1591" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1591" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1591" s="1">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="1592" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1592" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1592" s="1">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="1593" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1593" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1593" s="1">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="1594" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1594" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1594" s="1">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="1595" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1595" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1595" s="1">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="1596" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1596" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1596" s="1">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="1597" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1597" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1597" s="1">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="1598" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1598" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1598" s="1">
+        <v>45793</v>
+      </c>
+    </row>
+    <row r="1599" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1599" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1599" s="1">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="1600" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1600" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1600" s="1">
+        <v>45795</v>
+      </c>
+    </row>
+    <row r="1601" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1601" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1601" s="1">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="1602" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1602" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1602" s="1">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="1603" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1603" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1603" s="1">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="1604" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1604" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1604" s="1">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="1605" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1605" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1605" s="1">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="1606" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1606" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1606" s="1">
+        <v>45801</v>
+      </c>
+    </row>
+    <row r="1607" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1607" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1607" s="1">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="1608" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1608" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1608" s="1">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="1609" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1609" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1609" s="1">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="1610" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1610" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1610" s="1">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="1611" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1611" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1611" s="1">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="1612" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1612" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1612" s="1">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="1613" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1613" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1613" s="1">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="1614" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1614" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1614" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="1615" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1615" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1615" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="1616" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1616" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1616" s="1">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="1617" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1617" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1617" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="1618" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1618" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1618" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="1619" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1619" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1619" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="1620" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1620" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1620" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="1621" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1621" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1621" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="1622" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1622" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1622" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="1623" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1623" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1623" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1624" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1624" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1624" s="1">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="1625" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1625" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1625" s="1">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="1626" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1626" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1626" s="1">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="1627" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1627" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1627" s="1">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="1628" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1628" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1628" s="1">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="1629" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1629" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1629" s="1">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="1630" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1630" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1630" s="1">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="1631" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1631" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1631" s="1">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="1632" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1632" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1632" s="1">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="1633" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1633" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1633" s="1">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="1634" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1634" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1634" s="1">
+        <v>45829</v>
+      </c>
+    </row>
+    <row r="1635" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1635" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1635" s="1">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="1636" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1636" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1636" s="1">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="1637" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1637" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1637" s="1">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="1638" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1638" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1638" s="1">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="1639" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1639" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1639" s="1">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="1640" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1640" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1640" s="1">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="1641" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1641" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1641" s="1">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="1642" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1642" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1642" s="1">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="1643" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1643" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1643" s="1">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="1644" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1644" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1644" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="1645" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1645" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1645" s="1">
+        <v>45840</v>
+      </c>
+    </row>
+    <row r="1646" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1646" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1646" s="1">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="1647" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1647" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1647" s="1">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="1648" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1648" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1648" s="1">
+        <v>45843</v>
+      </c>
+    </row>
+    <row r="1649" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1649" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1649" s="1">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="1650" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1650" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1650" s="1">
+        <v>45845</v>
+      </c>
+    </row>
+    <row r="1651" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1651" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1651" s="1">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="1652" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1652" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1652" s="1">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="1653" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1653" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1653" s="1">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="1654" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1654" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1654" s="1">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="1655" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1655" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1655" s="1">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="1656" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1656" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1656" s="1">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="1657" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1657" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1657" s="1">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="1658" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1658" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1658" s="1">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="1659" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1659" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1659" s="1">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="1660" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1660" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1660" s="1">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="1661" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1661" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1661" s="1">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="1662" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1662" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1662" s="1">
+        <v>45857</v>
+      </c>
+    </row>
+    <row r="1663" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1663" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1663" s="1">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="1664" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1664" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1664" s="1">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="1665" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1665" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1665" s="1">
+        <v>45860</v>
+      </c>
+    </row>
+    <row r="1666" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1666" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1666" s="1">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="1667" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1667" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1667" s="1">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="1668" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1668" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1668" s="1">
+        <v>45863</v>
+      </c>
+    </row>
+    <row r="1669" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1669" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1669" s="1">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="1670" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1670" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1670" s="1">
+        <v>45865</v>
+      </c>
+    </row>
+    <row r="1671" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1671" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1671" s="1">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="1672" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1672" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1672" s="1">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="1673" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1673" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1673" s="1">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="1674" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1674" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1674" s="1">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="1675" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1675" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1675" s="1">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="1676" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1676" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1676" s="1">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="1677" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1677" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1677" s="1">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="1678" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1678" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1678" s="1">
+        <v>45873</v>
+      </c>
+    </row>
+    <row r="1679" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1679" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1679" s="1">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="1680" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1680" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1680" s="1">
+        <v>45875</v>
+      </c>
+    </row>
+    <row r="1681" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1681" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1681" s="1">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="1682" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1682" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1682" s="1">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="1683" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1683" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1683" s="1">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="1684" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1684" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1684" s="1">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="1685" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1685" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1685" s="1">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="1686" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1686" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1686" s="1">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="1687" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1687" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1687" s="1">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="1688" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1688" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1688" s="1">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="1689" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1689" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1689" s="1">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="1690" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1690" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1690" s="1">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="1691" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1691" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1691" s="1">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="1692" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1692" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1692" s="1">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="1693" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1693" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1693" s="1">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="1694" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1694" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1694" s="1">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="1695" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1695" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1695" s="1">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="1696" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1696" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1696" s="1">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="1697" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1697" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1697" s="1">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="1698" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1698" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1698" s="1">
+        <v>45893</v>
+      </c>
+    </row>
+    <row r="1699" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1699" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1699" s="1">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="1700" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1700" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1700" s="1">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="1701" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1701" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1701" s="1">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="1702" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1702" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1702" s="1">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="1703" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1703" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1703" s="1">
+        <v>45898</v>
+      </c>
+    </row>
+    <row r="1704" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1704" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1704" s="1">
+        <v>45899</v>
+      </c>
+    </row>
+    <row r="1705" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1705" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1705" s="1">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="1706" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1706" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1706" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="1707" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1707" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1707" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="1708" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1708" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1708" s="1">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="1709" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1709" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1709" s="1">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="1710" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1710" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1710" s="1">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="1711" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1711" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1711" s="1">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="1712" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1712" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1712" s="1">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="1713" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1713" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1713" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="1714" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1714" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1714" s="1">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="1715" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1715" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1715" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="1716" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1716" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1716" s="1">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="1717" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1717" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1717" s="1">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="1718" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1718" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1718" s="1">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="1719" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1719" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1719" s="1">
+        <v>45914</v>
+      </c>
+    </row>
+    <row r="1720" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1720" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1720" s="1">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="1721" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1721" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1721" s="1">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="1722" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1722" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1722" s="1">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="1723" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1723" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1723" s="1">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="1724" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1724" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1724" s="1">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="1725" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1725" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1725" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="1726" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1726" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1726" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="1727" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1727" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1727" s="1">
+        <v>45922</v>
+      </c>
+    </row>
+    <row r="1728" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1728" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1728" s="1">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="1729" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1729" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1729" s="1">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="1730" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1730" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1730" s="1">
+        <v>45925</v>
+      </c>
+    </row>
+    <row r="1731" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1731" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1731" s="1">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="1732" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1732" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1732" s="1">
+        <v>45927</v>
+      </c>
+    </row>
+    <row r="1733" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1733" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1733" s="1">
+        <v>45928</v>
+      </c>
+    </row>
+    <row r="1734" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1734" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1734" s="1">
+        <v>45929</v>
+      </c>
+    </row>
+    <row r="1735" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1735" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1735" s="1">
+        <v>45930</v>
+      </c>
+    </row>
+    <row r="1736" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1736" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1736" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="1737" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1737" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1737" s="1">
+        <v>45932</v>
+      </c>
+    </row>
+    <row r="1738" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1738" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1738" s="1">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="1739" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1739" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1739" s="1">
+        <v>45934</v>
+      </c>
+    </row>
+    <row r="1740" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1740" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1740" s="1">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="1741" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1741" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1741" s="1">
+        <v>45936</v>
+      </c>
+    </row>
+    <row r="1742" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1742" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1742" s="1">
+        <v>45937</v>
+      </c>
+    </row>
+    <row r="1743" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1743" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1743" s="1">
+        <v>45938</v>
+      </c>
+    </row>
+    <row r="1744" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1744" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1744" s="1">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="1745" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1745" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1745" s="1">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="1746" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1746" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1746" s="1">
+        <v>45941</v>
+      </c>
+    </row>
+    <row r="1747" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1747" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1747" s="1">
+        <v>45942</v>
+      </c>
+    </row>
+    <row r="1748" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1748" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1748" s="1">
+        <v>45943</v>
+      </c>
+    </row>
+    <row r="1749" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1749" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1749" s="1">
+        <v>45944</v>
+      </c>
+    </row>
+    <row r="1750" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1750" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1750" s="1">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="1751" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1751" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1751" s="1">
+        <v>45946</v>
+      </c>
+    </row>
+    <row r="1752" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1752" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1752" s="1">
+        <v>45947</v>
+      </c>
+    </row>
+    <row r="1753" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1753" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1753" s="1">
+        <v>45948</v>
+      </c>
+    </row>
+    <row r="1754" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1754" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1754" s="1">
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="1755" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1755" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1755" s="1">
+        <v>45950</v>
+      </c>
+    </row>
+    <row r="1756" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1756" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1756" s="1">
+        <v>45951</v>
+      </c>
+    </row>
+    <row r="1757" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1757" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1757" s="1">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="1758" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1758" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1758" s="1">
+        <v>45953</v>
+      </c>
+    </row>
+    <row r="1759" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1759" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1759" s="1">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="1760" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1760" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1760" s="1">
+        <v>45955</v>
+      </c>
+    </row>
+    <row r="1761" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1761" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1761" s="1">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="1762" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1762" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1762" s="1">
+        <v>45957</v>
+      </c>
+    </row>
+    <row r="1763" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1763" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1763" s="1">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="1764" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1764" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1764" s="1">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="1765" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1765" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1765" s="1">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="1766" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1766" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1766" s="1">
+        <v>45961</v>
+      </c>
+    </row>
+    <row r="1767" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1767" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1767" s="1">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="1768" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1768" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1768" s="1">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="1769" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1769" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1769" s="1">
+        <v>45964</v>
+      </c>
+    </row>
+    <row r="1770" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1770" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1770" s="1">
+        <v>45965</v>
+      </c>
+    </row>
+    <row r="1771" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1771" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1771" s="1">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="1772" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1772" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1772" s="1">
+        <v>45967</v>
+      </c>
+    </row>
+    <row r="1773" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1773" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1773" s="1">
+        <v>45968</v>
+      </c>
+    </row>
+    <row r="1774" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1774" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1774" s="1">
+        <v>45969</v>
+      </c>
+    </row>
+    <row r="1775" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1775" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1775" s="1">
+        <v>45970</v>
+      </c>
+    </row>
+    <row r="1776" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1776" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1776" s="1">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="1777" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1777" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1777" s="1">
+        <v>45972</v>
+      </c>
+    </row>
+    <row r="1778" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1778" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1778" s="1">
+        <v>45973</v>
+      </c>
+    </row>
+    <row r="1779" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1779" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1779" s="1">
+        <v>45974</v>
+      </c>
+    </row>
+    <row r="1780" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1780" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1780" s="1">
+        <v>45975</v>
+      </c>
+    </row>
+    <row r="1781" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1781" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1781" s="1">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="1782" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1782" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1782" s="1">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="1783" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1783" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1783" s="1">
+        <v>45978</v>
+      </c>
+    </row>
+    <row r="1784" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1784" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1784" s="1">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="1785" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1785" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1785" s="1">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="1786" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1786" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1786" s="1">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="1787" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1787" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1787" s="1">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="1788" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1788" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1788" s="1">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="1789" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1789" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1789" s="1">
+        <v>45984</v>
+      </c>
+    </row>
+    <row r="1790" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1790" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1790" s="1">
+        <v>45985</v>
+      </c>
+    </row>
+    <row r="1791" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1791" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1791" s="1">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="1792" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1792" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1792" s="1">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="1793" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1793" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1793" s="1">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="1794" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1794" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1794" s="1">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="1795" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1795" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1795" s="1">
+        <v>45990</v>
+      </c>
+    </row>
+    <row r="1796" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1796" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1796" s="1">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="1797" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1797" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1797" s="1">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="1798" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1798" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1798" s="1">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="1799" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1799" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1799" s="1">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="1800" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1800" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1800" s="1">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="1801" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1801" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1801" s="1">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="1802" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1802" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1802" s="1">
+        <v>45997</v>
+      </c>
+    </row>
+    <row r="1803" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1803" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1803" s="1">
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="1804" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1804" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1804" s="1">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="1805" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1805" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1805" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="1806" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1806" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1806" s="1">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="1807" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1807" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1807" s="1">
+        <v>46002</v>
+      </c>
+    </row>
+    <row r="1808" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1808" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1808" s="1">
+        <v>46003</v>
+      </c>
+    </row>
+    <row r="1809" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1809" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1809" s="1">
+        <v>46004</v>
+      </c>
+    </row>
+    <row r="1810" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1810" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1810" s="1">
+        <v>46005</v>
+      </c>
+    </row>
+    <row r="1811" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1811" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1811" s="1">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="1812" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1812" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1812" s="1">
+        <v>46007</v>
+      </c>
+    </row>
+    <row r="1813" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1813" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1813" s="1">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="1814" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1814" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1814" s="1">
+        <v>46009</v>
+      </c>
+    </row>
+    <row r="1815" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1815" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1815" s="1">
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="1816" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1816" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1816" s="1">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="1817" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1817" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1817" s="1">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="1818" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1818" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1818" s="1">
+        <v>46013</v>
+      </c>
+    </row>
+    <row r="1819" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1819" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1819" s="1">
+        <v>46014</v>
+      </c>
+    </row>
+    <row r="1820" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1820" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1820" s="1">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="1821" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1821" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1821" s="1">
+        <v>46016</v>
+      </c>
+    </row>
+    <row r="1822" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1822" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1822" s="1">
+        <v>46017</v>
+      </c>
+    </row>
+    <row r="1823" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1823" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1823" s="1">
+        <v>46018</v>
+      </c>
+    </row>
+    <row r="1824" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1824" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1824" s="1">
+        <v>46019</v>
+      </c>
+    </row>
+    <row r="1825" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1825" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1825" s="1">
+        <v>46020</v>
+      </c>
+    </row>
+    <row r="1826" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1826" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1826" s="1">
+        <v>46021</v>
+      </c>
+    </row>
+    <row r="1827" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1827" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1827" s="1">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="1828" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1828" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1828" s="1">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="1829" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1829" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1829" s="1">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="1830" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1830" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1830" s="1">
+        <v>46025</v>
+      </c>
+    </row>
+    <row r="1831" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1831" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1831" s="1">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="1832" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1832" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1832" s="1">
+        <v>46027</v>
+      </c>
+    </row>
+    <row r="1833" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1833" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1833" s="1">
+        <v>46028</v>
+      </c>
+    </row>
+    <row r="1834" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1834" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1834" s="1">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="1835" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1835" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1835" s="1">
+        <v>46030</v>
+      </c>
+    </row>
+    <row r="1836" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1836" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1836" s="1">
+        <v>46031</v>
+      </c>
+    </row>
+    <row r="1837" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1837" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1837" s="1">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="1838" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1838" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1838" s="1">
+        <v>46033</v>
+      </c>
+    </row>
+    <row r="1839" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1839" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1839" s="1">
+        <v>46034</v>
+      </c>
+    </row>
+    <row r="1840" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1840" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1840" s="1">
+        <v>46035</v>
+      </c>
+    </row>
+    <row r="1841" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1841" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1841" s="1">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="1842" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1842" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1842" s="1">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="1843" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1843" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1843" s="1">
+        <v>46038</v>
+      </c>
+    </row>
+    <row r="1844" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1844" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1844" s="1">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="1845" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1845" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1845" s="1">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="1846" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1846" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1846" s="1">
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="1847" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1847" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1847" s="1">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="1848" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1848" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1848" s="1">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="1849" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1849" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1849" s="1">
+        <v>46044</v>
+      </c>
+    </row>
+    <row r="1850" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1850" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1850" s="1">
+        <v>46045</v>
+      </c>
+    </row>
+    <row r="1851" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1851" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1851" s="1">
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="1852" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1852" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1852" s="1">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="1853" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1853" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1853" s="1">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="1854" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1854" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1854" s="1">
+        <v>46049</v>
+      </c>
+    </row>
+    <row r="1855" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1855" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1855" s="1">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="1856" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1856" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1856" s="1">
+        <v>46051</v>
+      </c>
+    </row>
+    <row r="1857" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1857" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1857" s="1">
+        <v>46052</v>
+      </c>
+    </row>
+    <row r="1858" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1858" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1858" s="1">
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="1859" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1859" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1859" s="1">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="1860" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1860" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1860" s="1">
+        <v>46055</v>
+      </c>
+    </row>
+    <row r="1861" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1861" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1861" s="1">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="1862" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1862" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1862" s="1">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="1863" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1863" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1863" s="1">
+        <v>46058</v>
+      </c>
+    </row>
+    <row r="1864" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1864" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1864" s="1">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="1865" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1865" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1865" s="1">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="1866" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1866" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1866" s="1">
+        <v>46061</v>
+      </c>
+    </row>
+    <row r="1867" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1867" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1867" s="1">
+        <v>46062</v>
+      </c>
+    </row>
+    <row r="1868" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1868" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1868" s="1">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="1869" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1869" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1869" s="1">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="1870" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1870" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1870" s="1">
+        <v>46065</v>
+      </c>
+    </row>
+    <row r="1871" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1871" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1871" s="1">
+        <v>46066</v>
+      </c>
+    </row>
+    <row r="1872" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1872" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1872" s="1">
+        <v>46067</v>
+      </c>
+    </row>
+    <row r="1873" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1873" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1873" s="1">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="1874" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1874" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1874" s="1">
+        <v>46069</v>
+      </c>
+    </row>
+    <row r="1875" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1875" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1875" s="1">
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="1876" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1876" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1876" s="1">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="1877" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1877" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1877" s="1">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="1878" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1878" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1878" s="1">
+        <v>46073</v>
+      </c>
+    </row>
+    <row r="1879" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1879" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1879" s="1">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="1880" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1880" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1880" s="1">
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="1881" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1881" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1881" s="1">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="1882" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1882" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1882" s="1">
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="1883" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1883" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1883" s="1">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="1884" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1884" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1884" s="1">
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="1885" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1885" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1885" s="1">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="1886" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1886" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1886" s="1">
+        <v>46081</v>
+      </c>
+    </row>
+    <row r="1887" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1887" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1887" s="1">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="1888" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1888" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1888" s="1">
+        <v>46083</v>
+      </c>
+    </row>
+    <row r="1889" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1889" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1889" s="1">
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="1890" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1890" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1890" s="1">
+        <v>46085</v>
+      </c>
+    </row>
+    <row r="1891" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1891" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1891" s="1">
+        <v>46086</v>
+      </c>
+    </row>
+    <row r="1892" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1892" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1892" s="1">
+        <v>46087</v>
+      </c>
+    </row>
+    <row r="1893" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1893" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1893" s="1">
+        <v>46088</v>
       </c>
     </row>
   </sheetData>
@@ -58732,10 +63179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58766,7 +63213,7 @@
         <v>1119</v>
       </c>
       <c r="G2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H2">
         <v>173</v>
@@ -58801,33 +63248,33 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C3" t="s">
         <v>229</v>
       </c>
       <c r="G3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>1299</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B4" t="s">
         <v>1255</v>
@@ -58836,27 +63283,27 @@
         <v>1212</v>
       </c>
       <c r="G4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M4" s="92" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O4" s="92" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="P4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q4" s="92" t="s">
         <v>1304</v>
-      </c>
-      <c r="Q4" s="92" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B5" t="s">
         <v>1224</v>
@@ -58865,22 +63312,22 @@
         <v>1222</v>
       </c>
       <c r="G5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="M5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="N5" s="92" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="P5" s="92" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Q5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="V5" t="s">
         <v>1096</v>
@@ -58888,7 +63335,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B6" t="s">
         <v>1225</v>
@@ -58897,33 +63344,33 @@
         <v>1213</v>
       </c>
       <c r="G6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H6" s="36" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K6" t="s">
         <v>1320</v>
       </c>
-      <c r="K6" t="s">
-        <v>1321</v>
-      </c>
       <c r="M6" s="92" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="O6" s="92" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="P6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B7" t="s">
         <v>1226</v>
@@ -58934,7 +63381,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B8" t="s">
         <v>1227</v>
@@ -58945,7 +63392,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B9" t="s">
         <v>1228</v>
@@ -58956,7 +63403,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B10" t="s">
         <v>1229</v>
@@ -58973,7 +63420,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B11" t="s">
         <v>1230</v>
@@ -58990,10 +63437,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B12" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C12" t="s">
         <v>221</v>
@@ -59007,7 +63454,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B13" t="s">
         <v>1254</v>
@@ -59024,7 +63471,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B14" t="s">
         <v>1253</v>
@@ -59041,7 +63488,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B15" t="s">
         <v>1252</v>
@@ -59106,12 +63553,12 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -59121,12 +63568,12 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="90" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="90" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -59179,7 +63626,7 @@
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
     </row>
-    <row r="33" spans="3:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="F33" s="35" t="s">
         <v>1098</v>
       </c>
@@ -59197,13 +63644,13 @@
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C34" s="35"/>
       <c r="F34" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="35" spans="3:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="C35" s="35"/>
       <c r="F35" s="35" t="s">
         <v>1099</v>
@@ -59222,7 +63669,7 @@
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C38" s="62"/>
       <c r="E38" t="s">
         <v>1138</v>
@@ -59244,7 +63691,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C39" s="62"/>
       <c r="F39" s="4" t="s">
         <v>1139</v>
@@ -59263,29 +63710,53 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C40" s="62"/>
       <c r="F40" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C41" s="62"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C42" s="62"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C43" s="62"/>
       <c r="F43" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C44" s="62"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C45" s="62"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1363</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -59509,7 +63980,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59549,6 +64020,9 @@
       <c r="C3" t="s">
         <v>1186</v>
       </c>
+      <c r="D3" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -59579,6 +64053,14 @@
         <v>1189</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1377</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1190</v>
@@ -59623,6 +64105,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
